--- a/BackTest/2019-11-13 BackTest VET.xlsx
+++ b/BackTest/2019-11-13 BackTest VET.xlsx
@@ -989,7 +989,9 @@
       <c r="J12" t="n">
         <v>0.1699999999999999</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
       <c r="L12" t="n">
         <v>7.041999999999999</v>
       </c>
@@ -1046,7 +1048,9 @@
       <c r="J13" t="n">
         <v>0.1699999999999999</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>23.07692307692329</v>
+      </c>
       <c r="L13" t="n">
         <v>7.041999999999999</v>
       </c>
@@ -1103,7 +1107,9 @@
       <c r="J14" t="n">
         <v>0.1799999999999997</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-19.99999999999964</v>
+      </c>
       <c r="L14" t="n">
         <v>7.044</v>
       </c>
@@ -1158,7 +1164,9 @@
       <c r="J15" t="n">
         <v>0.21</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>16.66666666666704</v>
+      </c>
       <c r="L15" t="n">
         <v>7.044999999999999</v>
       </c>
@@ -1215,7 +1223,9 @@
       <c r="J16" t="n">
         <v>0.2200000000000006</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>27.27272727272639</v>
+      </c>
       <c r="L16" t="n">
         <v>7.045999999999999</v>
       </c>
@@ -1270,7 +1280,9 @@
       <c r="J17" t="n">
         <v>0.2700000000000014</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>71.42857142857106</v>
+      </c>
       <c r="L17" t="n">
         <v>7.053999999999999</v>
       </c>
@@ -1325,7 +1337,9 @@
       <c r="J18" t="n">
         <v>0.2700000000000014</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>59.99999999999964</v>
+      </c>
       <c r="L18" t="n">
         <v>7.063999999999998</v>
       </c>
@@ -1380,7 +1394,9 @@
       <c r="J19" t="n">
         <v>0.3200000000000021</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>6.666666666666429</v>
+      </c>
       <c r="L19" t="n">
         <v>7.065</v>
       </c>
@@ -1431,7 +1447,9 @@
       <c r="J20" t="n">
         <v>0.3400000000000025</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>17.64705882352929</v>
+      </c>
       <c r="L20" t="n">
         <v>7.068</v>
       </c>
@@ -1482,7 +1500,9 @@
       <c r="J21" t="n">
         <v>0.3700000000000028</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>29.99999999999982</v>
+      </c>
       <c r="L21" t="n">
         <v>7.074</v>
       </c>
@@ -1535,7 +1555,9 @@
       <c r="J22" t="n">
         <v>0.3900000000000023</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>36.363636363636</v>
+      </c>
       <c r="L22" t="n">
         <v>7.081999999999999</v>
       </c>
@@ -1589,7 +1611,7 @@
         <v>0.4100000000000028</v>
       </c>
       <c r="K23" t="n">
-        <v>24.99999999999994</v>
+        <v>47.82608695652124</v>
       </c>
       <c r="L23" t="n">
         <v>7.092000000000001</v>
@@ -1644,7 +1666,7 @@
         <v>0.4300000000000024</v>
       </c>
       <c r="K24" t="n">
-        <v>38.46153846153832</v>
+        <v>45.45454545454479</v>
       </c>
       <c r="L24" t="n">
         <v>7.105</v>
@@ -1699,7 +1721,7 @@
         <v>0.4700000000000024</v>
       </c>
       <c r="K25" t="n">
-        <v>17.94871794871791</v>
+        <v>27.99999999999991</v>
       </c>
       <c r="L25" t="n">
         <v>7.110999999999999</v>
@@ -1754,7 +1776,7 @@
         <v>0.5400000000000027</v>
       </c>
       <c r="K26" t="n">
-        <v>33.3333333333332</v>
+        <v>33.33333333333312</v>
       </c>
       <c r="L26" t="n">
         <v>7.124999999999998</v>
@@ -1803,7 +1825,7 @@
         <v>0.5900000000000025</v>
       </c>
       <c r="K27" t="n">
-        <v>24.99999999999986</v>
+        <v>12.49999999999996</v>
       </c>
       <c r="L27" t="n">
         <v>7.129</v>
@@ -1852,7 +1874,7 @@
         <v>0.6400000000000023</v>
       </c>
       <c r="K28" t="n">
-        <v>37.25490196078421</v>
+        <v>43.75000000000014</v>
       </c>
       <c r="L28" t="n">
         <v>7.138</v>
@@ -1901,7 +1923,7 @@
         <v>0.6700000000000026</v>
       </c>
       <c r="K29" t="n">
-        <v>23.99999999999989</v>
+        <v>27.27272727272723</v>
       </c>
       <c r="L29" t="n">
         <v>7.148999999999999</v>
@@ -1950,7 +1972,7 @@
         <v>0.6900000000000031</v>
       </c>
       <c r="K30" t="n">
-        <v>26.92307692307687</v>
+        <v>25</v>
       </c>
       <c r="L30" t="n">
         <v>7.159999999999999</v>
@@ -1999,7 +2021,7 @@
         <v>0.7300000000000031</v>
       </c>
       <c r="K31" t="n">
-        <v>32.14285714285707</v>
+        <v>29.41176470588244</v>
       </c>
       <c r="L31" t="n">
         <v>7.172</v>
@@ -2050,7 +2072,7 @@
         <v>0.7400000000000029</v>
       </c>
       <c r="K32" t="n">
-        <v>33.33333333333323</v>
+        <v>27.27272727272723</v>
       </c>
       <c r="L32" t="n">
         <v>7.183</v>
@@ -2101,7 +2123,7 @@
         <v>0.7600000000000033</v>
       </c>
       <c r="K33" t="n">
-        <v>28.81355932203372</v>
+        <v>15.15151515151505</v>
       </c>
       <c r="L33" t="n">
         <v>7.19</v>
@@ -2152,7 +2174,7 @@
         <v>0.7900000000000027</v>
       </c>
       <c r="K34" t="n">
-        <v>24.59016393442617</v>
+        <v>18.75000000000014</v>
       </c>
       <c r="L34" t="n">
         <v>7.191999999999998</v>
@@ -2203,7 +2225,7 @@
         <v>0.8100000000000023</v>
       </c>
       <c r="K35" t="n">
-        <v>23.33333333333319</v>
+        <v>3.70370370370363</v>
       </c>
       <c r="L35" t="n">
         <v>7.199999999999998</v>
@@ -2254,7 +2276,7 @@
         <v>0.8300000000000018</v>
       </c>
       <c r="K36" t="n">
-        <v>21.31147540983615</v>
+        <v>16.66666666666673</v>
       </c>
       <c r="L36" t="n">
         <v>7.198999999999998</v>
@@ -2305,7 +2327,7 @@
         <v>0.8400000000000025</v>
       </c>
       <c r="K37" t="n">
-        <v>12.28070175438583</v>
+        <v>-10.00000000000022</v>
       </c>
       <c r="L37" t="n">
         <v>7.201999999999998</v>
@@ -2356,7 +2378,7 @@
         <v>0.8700000000000028</v>
       </c>
       <c r="K38" t="n">
-        <v>16.66666666666657</v>
+        <v>20</v>
       </c>
       <c r="L38" t="n">
         <v>7.202999999999998</v>
@@ -2407,7 +2429,7 @@
         <v>0.8800000000000026</v>
       </c>
       <c r="K39" t="n">
-        <v>25.00000000000008</v>
+        <v>5.263157894736744</v>
       </c>
       <c r="L39" t="n">
         <v>7.205999999999998</v>
@@ -2458,7 +2480,7 @@
         <v>0.8900000000000023</v>
       </c>
       <c r="K40" t="n">
-        <v>23.63636363636363</v>
+        <v>-12.50000000000035</v>
       </c>
       <c r="L40" t="n">
         <v>7.207999999999997</v>
@@ -2509,7 +2531,7 @@
         <v>0.8900000000000023</v>
       </c>
       <c r="K41" t="n">
-        <v>19.23076923076918</v>
+        <v>-20.00000000000024</v>
       </c>
       <c r="L41" t="n">
         <v>7.205999999999996</v>
@@ -2560,7 +2582,7 @@
         <v>0.9000000000000021</v>
       </c>
       <c r="K42" t="n">
-        <v>17.64705882352939</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>7.203999999999996</v>
@@ -2611,7 +2633,7 @@
         <v>0.9000000000000021</v>
       </c>
       <c r="K43" t="n">
-        <v>14.28571428571418</v>
+        <v>27.27272727272683</v>
       </c>
       <c r="L43" t="n">
         <v>7.203999999999996</v>
@@ -2662,7 +2684,7 @@
         <v>0.9200000000000026</v>
       </c>
       <c r="K44" t="n">
-        <v>14.28571428571434</v>
+        <v>27.27272727272742</v>
       </c>
       <c r="L44" t="n">
         <v>7.208999999999996</v>
@@ -2713,7 +2735,7 @@
         <v>0.950000000000002</v>
       </c>
       <c r="K45" t="n">
-        <v>29.16666666666663</v>
+        <v>66.66666666666593</v>
       </c>
       <c r="L45" t="n">
         <v>7.214999999999996</v>
@@ -2764,7 +2786,7 @@
         <v>0.9800000000000013</v>
       </c>
       <c r="K46" t="n">
-        <v>9.090909090909127</v>
+        <v>42.85714285714358</v>
       </c>
       <c r="L46" t="n">
         <v>7.219999999999996</v>
@@ -2815,7 +2837,7 @@
         <v>1.020000000000001</v>
       </c>
       <c r="K47" t="n">
-        <v>30.23255813953494</v>
+        <v>46.6666666666673</v>
       </c>
       <c r="L47" t="n">
         <v>7.229999999999995</v>
@@ -2866,7 +2888,7 @@
         <v>1.030000000000001</v>
       </c>
       <c r="K48" t="n">
-        <v>23.07692307692311</v>
+        <v>60.00000000000048</v>
       </c>
       <c r="L48" t="n">
         <v>7.237999999999997</v>
@@ -2917,7 +2939,7 @@
         <v>1.070000000000001</v>
       </c>
       <c r="K49" t="n">
-        <v>40.00000000000018</v>
+        <v>66.66666666666717</v>
       </c>
       <c r="L49" t="n">
         <v>7.250999999999996</v>
@@ -2968,7 +2990,7 @@
         <v>1.180000000000001</v>
       </c>
       <c r="K50" t="n">
-        <v>51.02040816326547</v>
+        <v>79.31034482758659</v>
       </c>
       <c r="L50" t="n">
         <v>7.273999999999996</v>
@@ -3019,7 +3041,7 @@
         <v>1.210000000000002</v>
       </c>
       <c r="K51" t="n">
-        <v>37.50000000000004</v>
+        <v>61.29032258064536</v>
       </c>
       <c r="L51" t="n">
         <v>7.293999999999997</v>
@@ -3070,7 +3092,7 @@
         <v>1.210000000000002</v>
       </c>
       <c r="K52" t="n">
-        <v>36.17021276595752</v>
+        <v>61.29032258064536</v>
       </c>
       <c r="L52" t="n">
         <v>7.312999999999997</v>
@@ -3121,7 +3143,7 @@
         <v>1.240000000000002</v>
       </c>
       <c r="K53" t="n">
-        <v>33.33333333333346</v>
+        <v>43.74999999999999</v>
       </c>
       <c r="L53" t="n">
         <v>7.328999999999996</v>
@@ -3172,7 +3194,7 @@
         <v>1.290000000000002</v>
       </c>
       <c r="K54" t="n">
-        <v>47.99999999999995</v>
+        <v>47.05882352941182</v>
       </c>
       <c r="L54" t="n">
         <v>7.347999999999997</v>
@@ -3223,7 +3245,7 @@
         <v>1.310000000000002</v>
       </c>
       <c r="K55" t="n">
-        <v>48.00000000000004</v>
+        <v>63.63636363636343</v>
       </c>
       <c r="L55" t="n">
         <v>7.365999999999998</v>
@@ -3274,7 +3296,7 @@
         <v>1.320000000000002</v>
       </c>
       <c r="K56" t="n">
-        <v>51.02040816326529</v>
+        <v>53.33333333333326</v>
       </c>
       <c r="L56" t="n">
         <v>7.385999999999998</v>
@@ -3325,7 +3347,7 @@
         <v>1.330000000000002</v>
       </c>
       <c r="K57" t="n">
-        <v>55.10204081632671</v>
+        <v>53.33333333333326</v>
       </c>
       <c r="L57" t="n">
         <v>7.402999999999999</v>
@@ -3376,7 +3398,7 @@
         <v>1.460000000000002</v>
       </c>
       <c r="K58" t="n">
-        <v>18.64406779661025</v>
+        <v>-2.564102564102506</v>
       </c>
       <c r="L58" t="n">
         <v>7.405999999999999</v>
@@ -3427,7 +3449,7 @@
         <v>1.540000000000002</v>
       </c>
       <c r="K59" t="n">
-        <v>30.30303030303036</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L59" t="n">
         <v>7.412999999999999</v>
@@ -3478,7 +3500,7 @@
         <v>1.540000000000002</v>
       </c>
       <c r="K60" t="n">
-        <v>29.23076923076932</v>
+        <v>-3.030303030302965</v>
       </c>
       <c r="L60" t="n">
         <v>7.409000000000001</v>
@@ -3529,7 +3551,7 @@
         <v>1.590000000000003</v>
       </c>
       <c r="K61" t="n">
-        <v>19.99999999999995</v>
+        <v>-15.78947368421063</v>
       </c>
       <c r="L61" t="n">
         <v>7.403</v>
@@ -3580,7 +3602,7 @@
         <v>1.590000000000003</v>
       </c>
       <c r="K62" t="n">
-        <v>18.8405797101449</v>
+        <v>-8.57142857142863</v>
       </c>
       <c r="L62" t="n">
         <v>7.397</v>
@@ -3631,7 +3653,7 @@
         <v>1.640000000000002</v>
       </c>
       <c r="K63" t="n">
-        <v>10.81081081081082</v>
+        <v>-37.14285714285705</v>
       </c>
       <c r="L63" t="n">
         <v>7.389</v>
@@ -3682,7 +3704,7 @@
         <v>1.680000000000002</v>
       </c>
       <c r="K64" t="n">
-        <v>13.15789473684206</v>
+        <v>-29.72972972972981</v>
       </c>
       <c r="L64" t="n">
         <v>7.380000000000001</v>
@@ -3733,7 +3755,7 @@
         <v>1.680000000000002</v>
       </c>
       <c r="K65" t="n">
-        <v>9.589041095890444</v>
+        <v>-27.7777777777779</v>
       </c>
       <c r="L65" t="n">
         <v>7.369000000000002</v>
@@ -3784,7 +3806,7 @@
         <v>1.720000000000002</v>
       </c>
       <c r="K66" t="n">
-        <v>18.91891891891885</v>
+        <v>-17.948717948718</v>
       </c>
       <c r="L66" t="n">
         <v>7.363000000000001</v>
@@ -3835,7 +3857,7 @@
         <v>1.790000000000003</v>
       </c>
       <c r="K67" t="n">
-        <v>3.896103896103806</v>
+        <v>-3.030303030303226</v>
       </c>
       <c r="L67" t="n">
         <v>7.349000000000001</v>
@@ -3886,7 +3908,7 @@
         <v>1.860000000000003</v>
       </c>
       <c r="K68" t="n">
-        <v>10.84337349397586</v>
+        <v>-6.250000000000121</v>
       </c>
       <c r="L68" t="n">
         <v>7.355000000000001</v>
@@ -3937,7 +3959,7 @@
         <v>1.920000000000003</v>
       </c>
       <c r="K69" t="n">
-        <v>12.94117647058824</v>
+        <v>10.52631578947365</v>
       </c>
       <c r="L69" t="n">
         <v>7.359</v>
@@ -3988,7 +4010,7 @@
         <v>1.960000000000004</v>
       </c>
       <c r="K70" t="n">
-        <v>-5.12820512820512</v>
+        <v>13.51351351351367</v>
       </c>
       <c r="L70" t="n">
         <v>7.359</v>
@@ -4039,7 +4061,7 @@
         <v>1.970000000000004</v>
       </c>
       <c r="K71" t="n">
-        <v>-2.631578947368473</v>
+        <v>10.52631578947365</v>
       </c>
       <c r="L71" t="n">
         <v>7.363000000000001</v>
@@ -4090,7 +4112,7 @@
         <v>1.980000000000005</v>
       </c>
       <c r="K72" t="n">
-        <v>-1.298701298701266</v>
+        <v>29.41176470588229</v>
       </c>
       <c r="L72" t="n">
         <v>7.368000000000002</v>
@@ -4141,7 +4163,7 @@
         <v>2.000000000000004</v>
       </c>
       <c r="K73" t="n">
-        <v>5.26315789473683</v>
+        <v>24.99999999999986</v>
       </c>
       <c r="L73" t="n">
         <v>7.380000000000003</v>
@@ -4192,7 +4214,7 @@
         <v>2.000000000000004</v>
       </c>
       <c r="K74" t="n">
-        <v>-1.408450704225317</v>
+        <v>24.99999999999986</v>
       </c>
       <c r="L74" t="n">
         <v>7.388000000000003</v>
@@ -4243,7 +4265,7 @@
         <v>2.030000000000005</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>22.58064516129025</v>
       </c>
       <c r="L75" t="n">
         <v>7.399000000000003</v>
@@ -4294,7 +4316,7 @@
         <v>2.030000000000005</v>
       </c>
       <c r="K76" t="n">
-        <v>1.408450704225317</v>
+        <v>58.33333333333308</v>
       </c>
       <c r="L76" t="n">
         <v>7.406000000000003</v>
@@ -4345,7 +4367,7 @@
         <v>2.030000000000005</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>41.17647058823505</v>
       </c>
       <c r="L77" t="n">
         <v>7.420000000000003</v>
@@ -4396,7 +4418,7 @@
         <v>2.040000000000004</v>
       </c>
       <c r="K78" t="n">
-        <v>24.13793103448259</v>
+        <v>16.66666666666617</v>
       </c>
       <c r="L78" t="n">
         <v>7.428000000000003</v>
@@ -4447,7 +4469,7 @@
         <v>2.050000000000004</v>
       </c>
       <c r="K79" t="n">
-        <v>9.803921568627368</v>
+        <v>55.5555555555549</v>
       </c>
       <c r="L79" t="n">
         <v>7.429000000000004</v>
@@ -4498,7 +4520,7 @@
         <v>2.050000000000004</v>
       </c>
       <c r="K80" t="n">
-        <v>9.803921568627368</v>
+        <v>75.00000000000055</v>
       </c>
       <c r="L80" t="n">
         <v>7.434000000000003</v>
@@ -4549,7 +4571,7 @@
         <v>2.050000000000004</v>
       </c>
       <c r="K81" t="n">
-        <v>21.73913043478264</v>
+        <v>71.4285714285718</v>
       </c>
       <c r="L81" t="n">
         <v>7.440000000000003</v>
@@ -4600,7 +4622,7 @@
         <v>2.100000000000004</v>
       </c>
       <c r="K82" t="n">
-        <v>29.41176470588233</v>
+        <v>80.00000000000036</v>
       </c>
       <c r="L82" t="n">
         <v>7.450000000000003</v>
@@ -4651,7 +4673,7 @@
         <v>2.150000000000004</v>
       </c>
       <c r="K83" t="n">
-        <v>29.41176470588233</v>
+        <v>20.00000000000024</v>
       </c>
       <c r="L83" t="n">
         <v>7.453000000000003</v>
@@ -4702,7 +4724,7 @@
         <v>2.210000000000004</v>
       </c>
       <c r="K84" t="n">
-        <v>32.07547169811312</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L84" t="n">
         <v>7.462000000000003</v>
@@ -4753,7 +4775,7 @@
         <v>2.230000000000004</v>
       </c>
       <c r="K85" t="n">
-        <v>34.54545454545452</v>
+        <v>40.00000000000018</v>
       </c>
       <c r="L85" t="n">
         <v>7.470000000000003</v>
@@ -4804,7 +4826,7 @@
         <v>2.240000000000004</v>
       </c>
       <c r="K86" t="n">
-        <v>30.76923076923072</v>
+        <v>42.85714285714297</v>
       </c>
       <c r="L86" t="n">
         <v>7.479000000000004</v>
@@ -4855,7 +4877,7 @@
         <v>2.280000000000004</v>
       </c>
       <c r="K87" t="n">
-        <v>55.1020408163265</v>
+        <v>50.00000000000019</v>
       </c>
       <c r="L87" t="n">
         <v>7.492000000000003</v>
@@ -4906,7 +4928,7 @@
         <v>2.290000000000004</v>
       </c>
       <c r="K88" t="n">
-        <v>44.18604651162794</v>
+        <v>50.00000000000019</v>
       </c>
       <c r="L88" t="n">
         <v>7.503000000000005</v>
@@ -4957,7 +4979,7 @@
         <v>2.350000000000004</v>
       </c>
       <c r="K89" t="n">
-        <v>16.2790697674417</v>
+        <v>19.99999999999988</v>
       </c>
       <c r="L89" t="n">
         <v>7.509000000000005</v>
@@ -5008,7 +5030,7 @@
         <v>2.360000000000004</v>
       </c>
       <c r="K90" t="n">
-        <v>29.99999999999978</v>
+        <v>22.58064516129016</v>
       </c>
       <c r="L90" t="n">
         <v>7.516000000000004</v>
@@ -5059,7 +5081,7 @@
         <v>2.360000000000004</v>
       </c>
       <c r="K91" t="n">
-        <v>33.33333333333333</v>
+        <v>7.692307692307534</v>
       </c>
       <c r="L91" t="n">
         <v>7.523000000000003</v>
@@ -5110,7 +5132,7 @@
         <v>2.370000000000005</v>
       </c>
       <c r="K92" t="n">
-        <v>33.33333333333333</v>
+        <v>36.3636363636363</v>
       </c>
       <c r="L92" t="n">
         <v>7.526000000000003</v>
@@ -5161,7 +5183,7 @@
         <v>2.410000000000005</v>
       </c>
       <c r="K93" t="n">
-        <v>17.07317073170738</v>
+        <v>-9.999999999999734</v>
       </c>
       <c r="L93" t="n">
         <v>7.530000000000003</v>
@@ -5212,7 +5234,7 @@
         <v>2.440000000000004</v>
       </c>
       <c r="K94" t="n">
-        <v>22.72727272727267</v>
+        <v>-4.761904761905084</v>
       </c>
       <c r="L94" t="n">
         <v>7.531000000000001</v>
@@ -5263,7 +5285,7 @@
         <v>2.450000000000004</v>
       </c>
       <c r="K95" t="n">
-        <v>14.28571428571423</v>
+        <v>-14.28571428571441</v>
       </c>
       <c r="L95" t="n">
         <v>7.529000000000002</v>
@@ -5314,7 +5336,7 @@
         <v>2.510000000000003</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>-56.52173913043485</v>
       </c>
       <c r="L96" t="n">
         <v>7.520000000000001</v>
@@ -5365,7 +5387,7 @@
         <v>2.510000000000003</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>-54.54545454545465</v>
       </c>
       <c r="L97" t="n">
         <v>7.507000000000002</v>
@@ -5416,7 +5438,7 @@
         <v>2.560000000000003</v>
       </c>
       <c r="K98" t="n">
-        <v>7.692307692307719</v>
+        <v>-4.761904761904681</v>
       </c>
       <c r="L98" t="n">
         <v>7.500000000000003</v>
@@ -5467,7 +5489,7 @@
         <v>2.570000000000003</v>
       </c>
       <c r="K99" t="n">
-        <v>11.53846153846149</v>
+        <v>-4.761904761904681</v>
       </c>
       <c r="L99" t="n">
         <v>7.500000000000003</v>
@@ -5518,7 +5540,7 @@
         <v>2.600000000000002</v>
       </c>
       <c r="K100" t="n">
-        <v>5.454545454545519</v>
+        <v>-16.66666666666642</v>
       </c>
       <c r="L100" t="n">
         <v>7.496000000000004</v>
@@ -5569,7 +5591,7 @@
         <v>2.600000000000002</v>
       </c>
       <c r="K101" t="n">
-        <v>5.454545454545519</v>
+        <v>-21.73913043478274</v>
       </c>
       <c r="L101" t="n">
         <v>7.492000000000004</v>
@@ -5620,7 +5642,7 @@
         <v>2.600000000000002</v>
       </c>
       <c r="K102" t="n">
-        <v>-3.999999999999929</v>
+        <v>-5.263157894736794</v>
       </c>
       <c r="L102" t="n">
         <v>7.487000000000005</v>
@@ -5671,7 +5693,7 @@
         <v>2.680000000000002</v>
       </c>
       <c r="K103" t="n">
-        <v>-9.433962264150937</v>
+        <v>-50</v>
       </c>
       <c r="L103" t="n">
         <v>7.478000000000006</v>
@@ -5722,7 +5744,7 @@
         <v>2.680000000000002</v>
       </c>
       <c r="K104" t="n">
-        <v>-23.40425531914887</v>
+        <v>-47.82608695652178</v>
       </c>
       <c r="L104" t="n">
         <v>7.466000000000006</v>
@@ -5773,7 +5795,7 @@
         <v>2.690000000000003</v>
       </c>
       <c r="K105" t="n">
-        <v>-30.43478260869584</v>
+        <v>-33.33333333333366</v>
       </c>
       <c r="L105" t="n">
         <v>7.454000000000006</v>
@@ -5824,7 +5846,7 @@
         <v>2.700000000000004</v>
       </c>
       <c r="K106" t="n">
-        <v>-30.43478260869559</v>
+        <v>-26.31578947368406</v>
       </c>
       <c r="L106" t="n">
         <v>7.449000000000007</v>
@@ -5875,7 +5897,7 @@
         <v>2.710000000000004</v>
       </c>
       <c r="K107" t="n">
-        <v>-39.53488372093024</v>
+        <v>-59.99999999999977</v>
       </c>
       <c r="L107" t="n">
         <v>7.445000000000006</v>
@@ -5926,7 +5948,7 @@
         <v>2.730000000000004</v>
       </c>
       <c r="K108" t="n">
-        <v>-40.90909090909101</v>
+        <v>-74.99999999999959</v>
       </c>
       <c r="L108" t="n">
         <v>7.434000000000006</v>
@@ -5977,7 +5999,7 @@
         <v>2.730000000000004</v>
       </c>
       <c r="K109" t="n">
-        <v>-31.57894736842109</v>
+        <v>-69.23076923076891</v>
       </c>
       <c r="L109" t="n">
         <v>7.422000000000006</v>
@@ -6028,7 +6050,7 @@
         <v>2.740000000000005</v>
       </c>
       <c r="K110" t="n">
-        <v>-31.57894736842078</v>
+        <v>-57.14285714285624</v>
       </c>
       <c r="L110" t="n">
         <v>7.414000000000006</v>
@@ -6079,7 +6101,7 @@
         <v>2.790000000000005</v>
       </c>
       <c r="K111" t="n">
-        <v>-39.53488372093008</v>
+        <v>-68.42105263157826</v>
       </c>
       <c r="L111" t="n">
         <v>7.401000000000005</v>
@@ -6130,7 +6152,7 @@
         <v>2.840000000000005</v>
       </c>
       <c r="K112" t="n">
-        <v>-48.93617021276599</v>
+        <v>-62.49999999999923</v>
       </c>
       <c r="L112" t="n">
         <v>7.383000000000004</v>
@@ -6181,7 +6203,7 @@
         <v>2.870000000000005</v>
       </c>
       <c r="K113" t="n">
-        <v>-34.78260869565214</v>
+        <v>-36.84210526315746</v>
       </c>
       <c r="L113" t="n">
         <v>7.376000000000003</v>
@@ -6232,7 +6254,7 @@
         <v>2.890000000000006</v>
       </c>
       <c r="K114" t="n">
-        <v>-46.66666666666646</v>
+        <v>-39.99999999999947</v>
       </c>
       <c r="L114" t="n">
         <v>7.367000000000003</v>
@@ -6283,7 +6305,7 @@
         <v>2.930000000000006</v>
       </c>
       <c r="K115" t="n">
-        <v>-33.33333333333321</v>
+        <v>-21.73913043478271</v>
       </c>
       <c r="L115" t="n">
         <v>7.363000000000002</v>
@@ -6334,7 +6356,7 @@
         <v>2.970000000000006</v>
       </c>
       <c r="K116" t="n">
-        <v>-13.0434782608696</v>
+        <v>-7.692307692307796</v>
       </c>
       <c r="L116" t="n">
         <v>7.362000000000002</v>
@@ -6385,7 +6407,7 @@
         <v>3.000000000000005</v>
       </c>
       <c r="K117" t="n">
-        <v>-18.36734693877541</v>
+        <v>-11.11111111111082</v>
       </c>
       <c r="L117" t="n">
         <v>7.357000000000002</v>
@@ -6436,7 +6458,7 @@
         <v>3.050000000000005</v>
       </c>
       <c r="K118" t="n">
-        <v>-18.36734693877541</v>
+        <v>6.250000000000121</v>
       </c>
       <c r="L118" t="n">
         <v>7.359000000000002</v>
@@ -6487,7 +6509,7 @@
         <v>3.050000000000005</v>
       </c>
       <c r="K119" t="n">
-        <v>-20.83333333333317</v>
+        <v>3.22580645161283</v>
       </c>
       <c r="L119" t="n">
         <v>7.361000000000002</v>
@@ -6538,7 +6560,7 @@
         <v>3.110000000000006</v>
       </c>
       <c r="K120" t="n">
-        <v>-25.49019607843136</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
         <v>7.356</v>
@@ -6589,7 +6611,7 @@
         <v>3.160000000000006</v>
       </c>
       <c r="K121" t="n">
-        <v>-14.2857142857142</v>
+        <v>31.25000000000005</v>
       </c>
       <c r="L121" t="n">
         <v>7.361000000000002</v>
@@ -6640,7 +6662,7 @@
         <v>3.170000000000006</v>
       </c>
       <c r="K122" t="n">
-        <v>-12.28070175438593</v>
+        <v>26.66666666666663</v>
       </c>
       <c r="L122" t="n">
         <v>7.372000000000002</v>
@@ -6691,7 +6713,7 @@
         <v>3.240000000000006</v>
       </c>
       <c r="K123" t="n">
-        <v>-10.71428571428573</v>
+        <v>8.57142857142863</v>
       </c>
       <c r="L123" t="n">
         <v>7.373000000000002</v>
@@ -6742,7 +6764,7 @@
         <v>3.300000000000007</v>
       </c>
       <c r="K124" t="n">
-        <v>0</v>
+        <v>13.51351351351367</v>
       </c>
       <c r="L124" t="n">
         <v>7.382000000000002</v>
@@ -6793,7 +6815,7 @@
         <v>3.300000000000007</v>
       </c>
       <c r="K125" t="n">
-        <v>1.639344262295182</v>
+        <v>3.030303030303226</v>
       </c>
       <c r="L125" t="n">
         <v>7.387000000000003</v>
@@ -6844,7 +6866,7 @@
         <v>3.380000000000007</v>
       </c>
       <c r="K126" t="n">
-        <v>-11.7647058823529</v>
+        <v>-10.52631578947365</v>
       </c>
       <c r="L126" t="n">
         <v>7.380000000000003</v>
@@ -6895,7 +6917,7 @@
         <v>3.380000000000007</v>
       </c>
       <c r="K127" t="n">
-        <v>-13.43283582089543</v>
+        <v>-27.27272727272708</v>
       </c>
       <c r="L127" t="n">
         <v>7.376000000000003</v>
@@ -6946,7 +6968,7 @@
         <v>3.390000000000008</v>
       </c>
       <c r="K128" t="n">
-        <v>-12.12121212121206</v>
+        <v>-29.41176470588229</v>
       </c>
       <c r="L128" t="n">
         <v>7.366000000000004</v>
@@ -6997,7 +7019,7 @@
         <v>3.400000000000007</v>
       </c>
       <c r="K129" t="n">
-        <v>-13.43283582089543</v>
+        <v>-17.24137931034466</v>
       </c>
       <c r="L129" t="n">
         <v>7.355000000000004</v>
@@ -7099,7 +7121,7 @@
         <v>3.510000000000008</v>
       </c>
       <c r="K131" t="n">
-        <v>8.333333333333375</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
         <v>7.361000000000004</v>
@@ -7150,7 +7172,7 @@
         <v>3.560000000000008</v>
       </c>
       <c r="K132" t="n">
-        <v>8.333333333333375</v>
+        <v>6.250000000000121</v>
       </c>
       <c r="L132" t="n">
         <v>7.356000000000004</v>
@@ -7201,7 +7223,7 @@
         <v>3.560000000000008</v>
       </c>
       <c r="K133" t="n">
-        <v>4.347826086956544</v>
+        <v>-15.38461538461536</v>
       </c>
       <c r="L133" t="n">
         <v>7.358000000000004</v>
@@ -7252,7 +7274,7 @@
         <v>3.580000000000008</v>
       </c>
       <c r="K134" t="n">
-        <v>4.347826086956544</v>
+        <v>-21.42857142857152</v>
       </c>
       <c r="L134" t="n">
         <v>7.352000000000004</v>
@@ -7303,7 +7325,7 @@
         <v>3.610000000000008</v>
       </c>
       <c r="K135" t="n">
-        <v>-5.882352941176455</v>
+        <v>-4.34782608695679</v>
       </c>
       <c r="L135" t="n">
         <v>7.343000000000004</v>
@@ -7354,7 +7376,7 @@
         <v>3.660000000000009</v>
       </c>
       <c r="K136" t="n">
-        <v>-4.34782608695641</v>
+        <v>14.2857142857142</v>
       </c>
       <c r="L136" t="n">
         <v>7.347000000000003</v>
@@ -7405,7 +7427,7 @@
         <v>3.670000000000009</v>
       </c>
       <c r="K137" t="n">
-        <v>1.492537313432796</v>
+        <v>21.42857142857152</v>
       </c>
       <c r="L137" t="n">
         <v>7.352000000000004</v>
@@ -7456,7 +7478,7 @@
         <v>3.680000000000009</v>
       </c>
       <c r="K138" t="n">
-        <v>-7.936507936507866</v>
+        <v>21.42857142857152</v>
       </c>
       <c r="L138" t="n">
         <v>7.357000000000004</v>
@@ -7507,7 +7529,7 @@
         <v>3.690000000000009</v>
       </c>
       <c r="K139" t="n">
-        <v>-9.375000000000016</v>
+        <v>-26.31578947368441</v>
       </c>
       <c r="L139" t="n">
         <v>7.362000000000004</v>
@@ -7558,7 +7580,7 @@
         <v>3.730000000000009</v>
       </c>
       <c r="K140" t="n">
-        <v>6.451612903225774</v>
+        <v>-9.090909090909239</v>
       </c>
       <c r="L140" t="n">
         <v>7.361000000000002</v>
@@ -7609,7 +7631,7 @@
         <v>3.730000000000009</v>
       </c>
       <c r="K141" t="n">
-        <v>-1.75438596491239</v>
+        <v>17.64705882352886</v>
       </c>
       <c r="L141" t="n">
         <v>7.359000000000004</v>
@@ -7660,7 +7682,7 @@
         <v>3.74000000000001</v>
       </c>
       <c r="K142" t="n">
-        <v>-1.754385964912231</v>
+        <v>22.22222222222195</v>
       </c>
       <c r="L142" t="n">
         <v>7.363000000000004</v>
@@ -7711,7 +7733,7 @@
         <v>3.750000000000011</v>
       </c>
       <c r="K143" t="n">
-        <v>9.803921568627334</v>
+        <v>29.4117647058818</v>
       </c>
       <c r="L143" t="n">
         <v>7.366000000000004</v>
@@ -7762,7 +7784,7 @@
         <v>3.80000000000001</v>
       </c>
       <c r="K144" t="n">
-        <v>-12.00000000000001</v>
+        <v>15.78947368421048</v>
       </c>
       <c r="L144" t="n">
         <v>7.366000000000004</v>
@@ -7813,7 +7835,7 @@
         <v>3.85000000000001</v>
       </c>
       <c r="K145" t="n">
-        <v>-1.81818181818193</v>
+        <v>15.78947368421008</v>
       </c>
       <c r="L145" t="n">
         <v>7.374000000000004</v>
@@ -7864,7 +7886,7 @@
         <v>3.89000000000001</v>
       </c>
       <c r="K146" t="n">
-        <v>5.882352941176307</v>
+        <v>-9.090909090909239</v>
       </c>
       <c r="L146" t="n">
         <v>7.373000000000003</v>
@@ -7915,7 +7937,7 @@
         <v>3.92000000000001</v>
       </c>
       <c r="K147" t="n">
-        <v>0</v>
+        <v>-16.6666666666666</v>
       </c>
       <c r="L147" t="n">
         <v>7.368000000000004</v>
@@ -7966,7 +7988,7 @@
         <v>3.92000000000001</v>
       </c>
       <c r="K148" t="n">
-        <v>1.886792452830309</v>
+        <v>-13.04347826086926</v>
       </c>
       <c r="L148" t="n">
         <v>7.364000000000003</v>
@@ -8017,7 +8039,7 @@
         <v>3.97000000000001</v>
       </c>
       <c r="K149" t="n">
-        <v>12.28070175438597</v>
+        <v>-8.333333333333147</v>
       </c>
       <c r="L149" t="n">
         <v>7.366000000000004</v>
@@ -8068,7 +8090,7 @@
         <v>4.00000000000001</v>
       </c>
       <c r="K150" t="n">
-        <v>-12.00000000000006</v>
+        <v>-18.51851851851842</v>
       </c>
       <c r="L150" t="n">
         <v>7.361000000000004</v>
@@ -8119,7 +8141,7 @@
         <v>4.01000000000001</v>
       </c>
       <c r="K151" t="n">
-        <v>-15.99999999999996</v>
+        <v>-25.92592592592607</v>
       </c>
       <c r="L151" t="n">
         <v>7.355000000000004</v>
@@ -8170,7 +8192,7 @@
         <v>4.020000000000009</v>
       </c>
       <c r="K152" t="n">
-        <v>-4.347826086956606</v>
+        <v>-18.51851851851854</v>
       </c>
       <c r="L152" t="n">
         <v>7.349000000000004</v>
@@ -8221,7 +8243,7 @@
         <v>4.04000000000001</v>
       </c>
       <c r="K153" t="n">
-        <v>0</v>
+        <v>8.333333333333549</v>
       </c>
       <c r="L153" t="n">
         <v>7.346000000000004</v>
@@ -8272,7 +8294,7 @@
         <v>4.08000000000001</v>
       </c>
       <c r="K154" t="n">
-        <v>12.00000000000006</v>
+        <v>4.347826086956824</v>
       </c>
       <c r="L154" t="n">
         <v>7.352000000000004</v>
@@ -8323,7 +8345,7 @@
         <v>4.110000000000009</v>
       </c>
       <c r="K155" t="n">
-        <v>23.99999999999998</v>
+        <v>36.36363636363658</v>
       </c>
       <c r="L155" t="n">
         <v>7.356000000000004</v>
@@ -8374,7 +8396,7 @@
         <v>4.12000000000001</v>
       </c>
       <c r="K156" t="n">
-        <v>17.39130434782607</v>
+        <v>60</v>
       </c>
       <c r="L156" t="n">
         <v>7.365000000000005</v>
@@ -8425,7 +8447,7 @@
         <v>4.140000000000009</v>
       </c>
       <c r="K157" t="n">
-        <v>19.14893617021271</v>
+        <v>63.63636363636355</v>
       </c>
       <c r="L157" t="n">
         <v>7.379000000000005</v>
@@ -8476,7 +8498,7 @@
         <v>4.16000000000001</v>
       </c>
       <c r="K158" t="n">
-        <v>24.99999999999995</v>
+        <v>57.89473684210531</v>
       </c>
       <c r="L158" t="n">
         <v>7.395000000000005</v>
@@ -8527,7 +8549,7 @@
         <v>4.17000000000001</v>
       </c>
       <c r="K159" t="n">
-        <v>29.16666666666676</v>
+        <v>88.2352941176473</v>
       </c>
       <c r="L159" t="n">
         <v>7.407000000000004</v>
@@ -8578,7 +8600,7 @@
         <v>4.190000000000009</v>
       </c>
       <c r="K160" t="n">
-        <v>26.08695652173916</v>
+        <v>100</v>
       </c>
       <c r="L160" t="n">
         <v>7.424000000000004</v>
@@ -8629,7 +8651,7 @@
         <v>4.240000000000009</v>
       </c>
       <c r="K161" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L161" t="n">
         <v>7.447000000000005</v>
@@ -8680,7 +8702,7 @@
         <v>4.270000000000008</v>
       </c>
       <c r="K162" t="n">
-        <v>24.5283018867925</v>
+        <v>73.91304347826127</v>
       </c>
       <c r="L162" t="n">
         <v>7.466000000000004</v>
@@ -8731,7 +8753,7 @@
         <v>4.310000000000008</v>
       </c>
       <c r="K163" t="n">
-        <v>17.85714285714302</v>
+        <v>39.13043478260887</v>
       </c>
       <c r="L163" t="n">
         <v>7.479000000000004</v>
@@ -8782,7 +8804,7 @@
         <v>4.370000000000008</v>
       </c>
       <c r="K164" t="n">
-        <v>36.84210526315804</v>
+        <v>46.15384615384639</v>
       </c>
       <c r="L164" t="n">
         <v>7.494000000000002</v>
@@ -8833,7 +8855,7 @@
         <v>4.380000000000008</v>
       </c>
       <c r="K165" t="n">
-        <v>28.30188679245303</v>
+        <v>38.46153846153862</v>
       </c>
       <c r="L165" t="n">
         <v>7.505000000000004</v>
@@ -8884,7 +8906,7 @@
         <v>4.380000000000008</v>
       </c>
       <c r="K166" t="n">
-        <v>38.77551020408191</v>
+        <v>33.33333333333358</v>
       </c>
       <c r="L166" t="n">
         <v>7.515000000000005</v>
@@ -8935,7 +8957,7 @@
         <v>4.390000000000008</v>
       </c>
       <c r="K167" t="n">
-        <v>48.93617021276607</v>
+        <v>30.43478260869569</v>
       </c>
       <c r="L167" t="n">
         <v>7.524000000000005</v>
@@ -8986,7 +9008,7 @@
         <v>4.400000000000007</v>
       </c>
       <c r="K168" t="n">
-        <v>45.8333333333335</v>
+        <v>21.73913043478274</v>
       </c>
       <c r="L168" t="n">
         <v>7.530000000000006</v>
@@ -9037,7 +9059,7 @@
         <v>4.440000000000007</v>
       </c>
       <c r="K169" t="n">
-        <v>27.6595744680852</v>
+        <v>-3.999999999999943</v>
       </c>
       <c r="L169" t="n">
         <v>7.531000000000006</v>
@@ -9088,7 +9110,7 @@
         <v>4.470000000000008</v>
       </c>
       <c r="K170" t="n">
-        <v>27.6595744680852</v>
+        <v>-39.13043478260887</v>
       </c>
       <c r="L170" t="n">
         <v>7.527000000000005</v>
@@ -9139,7 +9161,7 @@
         <v>4.480000000000008</v>
       </c>
       <c r="K171" t="n">
-        <v>31.91489361702143</v>
+        <v>-23.80952380952373</v>
       </c>
       <c r="L171" t="n">
         <v>7.519000000000005</v>
@@ -9190,7 +9212,7 @@
         <v>4.520000000000008</v>
       </c>
       <c r="K172" t="n">
-        <v>36.00000000000007</v>
+        <v>14.28571428571404</v>
       </c>
       <c r="L172" t="n">
         <v>7.518000000000005</v>
@@ -9241,7 +9263,7 @@
         <v>4.540000000000008</v>
       </c>
       <c r="K173" t="n">
-        <v>36.00000000000007</v>
+        <v>-5.882352941176348</v>
       </c>
       <c r="L173" t="n">
         <v>7.523000000000006</v>
@@ -9292,7 +9314,7 @@
         <v>4.560000000000008</v>
       </c>
       <c r="K174" t="n">
-        <v>24.99999999999991</v>
+        <v>-11.11111111111133</v>
       </c>
       <c r="L174" t="n">
         <v>7.520000000000006</v>
@@ -9343,7 +9365,7 @@
         <v>4.570000000000008</v>
       </c>
       <c r="K175" t="n">
-        <v>17.39130434782614</v>
+        <v>-15.78947368421063</v>
       </c>
       <c r="L175" t="n">
         <v>7.517000000000006</v>
@@ -9394,7 +9416,7 @@
         <v>4.570000000000008</v>
       </c>
       <c r="K176" t="n">
-        <v>15.55555555555548</v>
+        <v>-22.22222222222217</v>
       </c>
       <c r="L176" t="n">
         <v>7.514000000000006</v>
@@ -9445,7 +9467,7 @@
         <v>4.600000000000009</v>
       </c>
       <c r="K177" t="n">
-        <v>17.39130434782614</v>
+        <v>0</v>
       </c>
       <c r="L177" t="n">
         <v>7.513000000000007</v>
@@ -9496,7 +9518,7 @@
         <v>4.610000000000008</v>
       </c>
       <c r="K178" t="n">
-        <v>11.11111111111111</v>
+        <v>17.64705882352947</v>
       </c>
       <c r="L178" t="n">
         <v>7.512000000000006</v>
@@ -9547,7 +9569,7 @@
         <v>4.630000000000009</v>
       </c>
       <c r="K179" t="n">
-        <v>4.347826086956438</v>
+        <v>24.99999999999986</v>
       </c>
       <c r="L179" t="n">
         <v>7.513000000000007</v>
@@ -9598,7 +9620,7 @@
         <v>4.670000000000009</v>
       </c>
       <c r="K180" t="n">
-        <v>-8.333333333333348</v>
+        <v>-5.263157894737187</v>
       </c>
       <c r="L180" t="n">
         <v>7.513000000000007</v>
@@ -9649,7 +9671,7 @@
         <v>4.670000000000009</v>
       </c>
       <c r="K181" t="n">
-        <v>-20.93023255813952</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L181" t="n">
         <v>7.512000000000006</v>
@@ -9700,7 +9722,7 @@
         <v>4.720000000000009</v>
       </c>
       <c r="K182" t="n">
-        <v>-2.222222222222372</v>
+        <v>-11.11111111111133</v>
       </c>
       <c r="L182" t="n">
         <v>7.512000000000006</v>
@@ -9751,7 +9773,7 @@
         <v>4.800000000000009</v>
       </c>
       <c r="K183" t="n">
-        <v>22.44897959183661</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L183" t="n">
         <v>7.518000000000005</v>
@@ -9802,7 +9824,7 @@
         <v>4.890000000000009</v>
       </c>
       <c r="K184" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L184" t="n">
         <v>7.517000000000006</v>
@@ -9853,7 +9875,7 @@
         <v>5.000000000000009</v>
       </c>
       <c r="K185" t="n">
-        <v>12.9032258064516</v>
+        <v>25.58139534883725</v>
       </c>
       <c r="L185" t="n">
         <v>7.528000000000006</v>
@@ -9904,7 +9926,7 @@
         <v>5.040000000000009</v>
       </c>
       <c r="K186" t="n">
-        <v>6.060606060606057</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L186" t="n">
         <v>7.535000000000005</v>
@@ -9955,7 +9977,7 @@
         <v>5.070000000000009</v>
       </c>
       <c r="K187" t="n">
-        <v>8.82352941176476</v>
+        <v>17.39130434782607</v>
       </c>
       <c r="L187" t="n">
         <v>7.542000000000004</v>
@@ -10006,7 +10028,7 @@
         <v>5.110000000000009</v>
       </c>
       <c r="K188" t="n">
-        <v>15.49295774647888</v>
+        <v>29.16666666666676</v>
       </c>
       <c r="L188" t="n">
         <v>7.554000000000005</v>
@@ -10057,7 +10079,7 @@
         <v>5.110000000000009</v>
       </c>
       <c r="K189" t="n">
-        <v>22.38805970149253</v>
+        <v>40.90909090909101</v>
       </c>
       <c r="L189" t="n">
         <v>7.568000000000005</v>
@@ -10108,7 +10130,7 @@
         <v>5.140000000000009</v>
       </c>
       <c r="K190" t="n">
-        <v>22.38805970149253</v>
+        <v>31.91489361702131</v>
       </c>
       <c r="L190" t="n">
         <v>7.583000000000006</v>
@@ -10159,7 +10181,7 @@
         <v>5.140000000000009</v>
       </c>
       <c r="K191" t="n">
-        <v>21.21212121212113</v>
+        <v>23.80952380952389</v>
       </c>
       <c r="L191" t="n">
         <v>7.598000000000006</v>
@@ -10210,7 +10232,7 @@
         <v>5.17000000000001</v>
       </c>
       <c r="K192" t="n">
-        <v>10.76923076923078</v>
+        <v>-2.702702702702638</v>
       </c>
       <c r="L192" t="n">
         <v>7.605000000000007</v>
@@ -10261,7 +10283,7 @@
         <v>5.20000000000001</v>
       </c>
       <c r="K193" t="n">
-        <v>3.030303030302957</v>
+        <v>16.12903225806439</v>
       </c>
       <c r="L193" t="n">
         <v>7.601000000000008</v>
@@ -10312,7 +10334,7 @@
         <v>5.22000000000001</v>
       </c>
       <c r="K194" t="n">
-        <v>3.030303030303096</v>
+        <v>-36.3636363636363</v>
       </c>
       <c r="L194" t="n">
         <v>7.604000000000008</v>
@@ -10363,7 +10385,7 @@
         <v>5.240000000000009</v>
       </c>
       <c r="K195" t="n">
-        <v>7.462686567164144</v>
+        <v>-10.00000000000022</v>
       </c>
       <c r="L195" t="n">
         <v>7.598000000000008</v>
@@ -10414,7 +10436,7 @@
         <v>5.240000000000009</v>
       </c>
       <c r="K196" t="n">
-        <v>7.462686567164144</v>
+        <v>-29.41176470588278</v>
       </c>
       <c r="L196" t="n">
         <v>7.596000000000008</v>
@@ -10465,7 +10487,7 @@
         <v>5.240000000000009</v>
       </c>
       <c r="K197" t="n">
-        <v>3.124999999999931</v>
+        <v>-69.23076923076987</v>
       </c>
       <c r="L197" t="n">
         <v>7.591000000000008</v>
@@ -10516,7 +10538,7 @@
         <v>5.250000000000009</v>
       </c>
       <c r="K198" t="n">
-        <v>3.124999999999931</v>
+        <v>-71.42857142857197</v>
       </c>
       <c r="L198" t="n">
         <v>7.581000000000008</v>
@@ -10567,7 +10589,7 @@
         <v>5.260000000000009</v>
       </c>
       <c r="K199" t="n">
-        <v>7.93650793650791</v>
+        <v>-50.00000000000075</v>
       </c>
       <c r="L199" t="n">
         <v>7.572000000000007</v>
@@ -10618,7 +10640,7 @@
         <v>5.260000000000009</v>
       </c>
       <c r="K200" t="n">
-        <v>15.25423728813557</v>
+        <v>-50.00000000000075</v>
       </c>
       <c r="L200" t="n">
         <v>7.566000000000007</v>
@@ -10669,7 +10691,7 @@
         <v>5.280000000000009</v>
       </c>
       <c r="K201" t="n">
-        <v>18.03278688524594</v>
+        <v>-9.090909090908944</v>
       </c>
       <c r="L201" t="n">
         <v>7.562000000000006</v>
@@ -10720,7 +10742,7 @@
         <v>5.310000000000009</v>
       </c>
       <c r="K202" t="n">
-        <v>15.2542372881357</v>
+        <v>45.45454545454633</v>
       </c>
       <c r="L202" t="n">
         <v>7.564000000000005</v>
@@ -10771,7 +10793,7 @@
         <v>5.36000000000001</v>
       </c>
       <c r="K203" t="n">
-        <v>-7.142857142857132</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L203" t="n">
         <v>7.564000000000005</v>
@@ -10822,7 +10844,7 @@
         <v>5.390000000000009</v>
       </c>
       <c r="K204" t="n">
-        <v>4.000000000000085</v>
+        <v>-19.99999999999953</v>
       </c>
       <c r="L204" t="n">
         <v>7.563000000000005</v>
@@ -10873,7 +10895,7 @@
         <v>5.450000000000009</v>
       </c>
       <c r="K205" t="n">
-        <v>-6.666666666666719</v>
+        <v>14.28571428571441</v>
       </c>
       <c r="L205" t="n">
         <v>7.566000000000005</v>
@@ -10924,7 +10946,7 @@
         <v>5.530000000000009</v>
       </c>
       <c r="K206" t="n">
-        <v>-14.28571428571434</v>
+        <v>-17.24137931034477</v>
       </c>
       <c r="L206" t="n">
         <v>7.561000000000005</v>
@@ -10975,7 +10997,7 @@
         <v>5.540000000000009</v>
       </c>
       <c r="K207" t="n">
-        <v>-23.40425531914902</v>
+        <v>-17.24137931034477</v>
       </c>
       <c r="L207" t="n">
         <v>7.555000000000005</v>
@@ -11026,7 +11048,7 @@
         <v>5.560000000000008</v>
       </c>
       <c r="K208" t="n">
-        <v>-37.77777777777782</v>
+        <v>-26.66666666666641</v>
       </c>
       <c r="L208" t="n">
         <v>7.548000000000006</v>
@@ -11077,7 +11099,7 @@
         <v>5.560000000000008</v>
       </c>
       <c r="K209" t="n">
-        <v>-37.77777777777782</v>
+        <v>-26.66666666666641</v>
       </c>
       <c r="L209" t="n">
         <v>7.540000000000006</v>
@@ -11128,7 +11150,7 @@
         <v>5.610000000000008</v>
       </c>
       <c r="K210" t="n">
-        <v>-19.14893617021278</v>
+        <v>-15.15151515151513</v>
       </c>
       <c r="L210" t="n">
         <v>7.537000000000006</v>
@@ -11179,7 +11201,7 @@
         <v>5.670000000000009</v>
       </c>
       <c r="K211" t="n">
-        <v>-28.30188679245293</v>
+        <v>-38.88888888888911</v>
       </c>
       <c r="L211" t="n">
         <v>7.526000000000006</v>
@@ -11230,7 +11252,7 @@
         <v>5.710000000000009</v>
       </c>
       <c r="K212" t="n">
-        <v>-14.81481481481485</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L212" t="n">
         <v>7.516000000000007</v>
@@ -11281,7 +11303,7 @@
         <v>5.710000000000009</v>
       </c>
       <c r="K213" t="n">
-        <v>-9.803921568627437</v>
+        <v>-6.250000000000157</v>
       </c>
       <c r="L213" t="n">
         <v>7.511000000000007</v>
@@ -11332,7 +11354,7 @@
         <v>5.730000000000008</v>
       </c>
       <c r="K214" t="n">
-        <v>-9.803921568627437</v>
+        <v>-35.71428571428567</v>
       </c>
       <c r="L214" t="n">
         <v>7.507000000000007</v>
@@ -11383,7 +11405,7 @@
         <v>5.740000000000008</v>
       </c>
       <c r="K215" t="n">
-        <v>-15.99999999999986</v>
+        <v>-14.28571428571404</v>
       </c>
       <c r="L215" t="n">
         <v>7.496000000000007</v>
@@ -11434,7 +11456,7 @@
         <v>5.800000000000009</v>
       </c>
       <c r="K216" t="n">
-        <v>-24.99999999999996</v>
+        <v>-30.76923076923082</v>
       </c>
       <c r="L216" t="n">
         <v>7.487000000000006</v>
@@ -11485,7 +11507,7 @@
         <v>5.880000000000009</v>
       </c>
       <c r="K217" t="n">
-        <v>-9.374999999999943</v>
+        <v>6.249999999999861</v>
       </c>
       <c r="L217" t="n">
         <v>7.487000000000006</v>
@@ -11536,7 +11558,7 @@
         <v>5.880000000000009</v>
       </c>
       <c r="K218" t="n">
-        <v>-7.93650793650791</v>
+        <v>6.249999999999861</v>
       </c>
       <c r="L218" t="n">
         <v>7.489000000000006</v>
@@ -11587,7 +11609,7 @@
         <v>5.910000000000009</v>
       </c>
       <c r="K219" t="n">
-        <v>-13.84615384615382</v>
+        <v>-20.00000000000012</v>
       </c>
       <c r="L219" t="n">
         <v>7.488000000000005</v>
@@ -11638,7 +11660,7 @@
         <v>5.920000000000009</v>
       </c>
       <c r="K220" t="n">
-        <v>-15.15151515151509</v>
+        <v>-3.999999999999915</v>
       </c>
       <c r="L220" t="n">
         <v>7.481000000000004</v>
@@ -11689,7 +11711,7 @@
         <v>5.960000000000009</v>
       </c>
       <c r="K221" t="n">
-        <v>-23.52941176470591</v>
+        <v>-35.99999999999994</v>
       </c>
       <c r="L221" t="n">
         <v>7.476000000000004</v>
@@ -11740,7 +11762,7 @@
         <v>5.960000000000009</v>
       </c>
       <c r="K222" t="n">
-        <v>-29.23076923076932</v>
+        <v>-35.99999999999994</v>
       </c>
       <c r="L222" t="n">
         <v>7.467000000000004</v>
@@ -11791,7 +11813,7 @@
         <v>5.990000000000009</v>
       </c>
       <c r="K223" t="n">
-        <v>-17.4603174603174</v>
+        <v>-15.38461538461536</v>
       </c>
       <c r="L223" t="n">
         <v>7.461000000000004</v>
@@ -11842,7 +11864,7 @@
         <v>6.010000000000009</v>
       </c>
       <c r="K224" t="n">
-        <v>-9.677419354838802</v>
+        <v>-3.703703703703947</v>
       </c>
       <c r="L224" t="n">
         <v>7.459000000000005</v>
@@ -11893,7 +11915,7 @@
         <v>6.010000000000009</v>
       </c>
       <c r="K225" t="n">
-        <v>-21.42857142857146</v>
+        <v>23.80952380952373</v>
       </c>
       <c r="L225" t="n">
         <v>7.458000000000004</v>
@@ -11944,7 +11966,7 @@
         <v>6.020000000000008</v>
       </c>
       <c r="K226" t="n">
-        <v>-10.20408163265304</v>
+        <v>-28.57142857142867</v>
       </c>
       <c r="L226" t="n">
         <v>7.462000000000003</v>
@@ -11995,7 +12017,7 @@
         <v>6.060000000000008</v>
       </c>
       <c r="K227" t="n">
-        <v>-15.38461538461541</v>
+        <v>-44.44444444444456</v>
       </c>
       <c r="L227" t="n">
         <v>7.454000000000003</v>
@@ -12046,7 +12068,7 @@
         <v>6.070000000000008</v>
       </c>
       <c r="K228" t="n">
-        <v>-13.72549019607849</v>
+        <v>-37.49999999999993</v>
       </c>
       <c r="L228" t="n">
         <v>7.445000000000003</v>
@@ -12097,7 +12119,7 @@
         <v>6.090000000000008</v>
       </c>
       <c r="K229" t="n">
-        <v>-9.433962264151088</v>
+        <v>-17.64705882352966</v>
       </c>
       <c r="L229" t="n">
         <v>7.441000000000003</v>
@@ -12148,7 +12170,7 @@
         <v>6.110000000000008</v>
       </c>
       <c r="K230" t="n">
-        <v>-16.00000000000001</v>
+        <v>20.00000000000024</v>
       </c>
       <c r="L230" t="n">
         <v>7.440000000000003</v>
@@ -12199,7 +12221,7 @@
         <v>6.170000000000008</v>
       </c>
       <c r="K231" t="n">
-        <v>8.000000000000021</v>
+        <v>42.85714285714297</v>
       </c>
       <c r="L231" t="n">
         <v>7.449000000000003</v>
@@ -12250,7 +12272,7 @@
         <v>6.180000000000008</v>
       </c>
       <c r="K232" t="n">
-        <v>-2.127659574468045</v>
+        <v>26.31578947368431</v>
       </c>
       <c r="L232" t="n">
         <v>7.457000000000003</v>
@@ -12301,7 +12323,7 @@
         <v>6.180000000000008</v>
       </c>
       <c r="K233" t="n">
-        <v>-2.127659574468045</v>
+        <v>17.64705882352966</v>
       </c>
       <c r="L233" t="n">
         <v>7.462000000000003</v>
@@ -12352,7 +12374,7 @@
         <v>6.190000000000007</v>
       </c>
       <c r="K234" t="n">
-        <v>4.347826086956438</v>
+        <v>22.22222222222239</v>
       </c>
       <c r="L234" t="n">
         <v>7.466000000000004</v>
@@ -12403,7 +12425,7 @@
         <v>6.240000000000007</v>
       </c>
       <c r="K235" t="n">
-        <v>-4.000000000000099</v>
+        <v>0</v>
       </c>
       <c r="L235" t="n">
         <v>7.465000000000003</v>
@@ -12454,7 +12476,7 @@
         <v>6.240000000000007</v>
       </c>
       <c r="K236" t="n">
-        <v>9.090909090909127</v>
+        <v>22.22222222222239</v>
       </c>
       <c r="L236" t="n">
         <v>7.465000000000003</v>
@@ -12505,7 +12527,7 @@
         <v>6.240000000000007</v>
       </c>
       <c r="K237" t="n">
-        <v>-11.11111111111117</v>
+        <v>29.41176470588242</v>
       </c>
       <c r="L237" t="n">
         <v>7.469000000000003</v>
@@ -12556,7 +12578,7 @@
         <v>6.270000000000008</v>
       </c>
       <c r="K238" t="n">
-        <v>-17.94871794871808</v>
+        <v>0</v>
       </c>
       <c r="L238" t="n">
         <v>7.471000000000004</v>
@@ -12607,7 +12629,7 @@
         <v>6.300000000000007</v>
       </c>
       <c r="K239" t="n">
-        <v>-17.94871794871789</v>
+        <v>-26.31578947368431</v>
       </c>
       <c r="L239" t="n">
         <v>7.468000000000004</v>
@@ -12658,7 +12680,7 @@
         <v>6.330000000000006</v>
       </c>
       <c r="K240" t="n">
-        <v>-7.317073170731812</v>
+        <v>-50.00000000000055</v>
       </c>
       <c r="L240" t="n">
         <v>7.466000000000004</v>
@@ -12709,7 +12731,7 @@
         <v>6.330000000000006</v>
       </c>
       <c r="K241" t="n">
-        <v>2.702702702702664</v>
+        <v>-46.6666666666673</v>
       </c>
       <c r="L241" t="n">
         <v>7.458000000000003</v>
@@ -12760,7 +12782,7 @@
         <v>6.360000000000006</v>
       </c>
       <c r="K242" t="n">
-        <v>-4.999999999999933</v>
+        <v>-55.55555555555599</v>
       </c>
       <c r="L242" t="n">
         <v>7.448000000000003</v>
@@ -12811,7 +12833,7 @@
         <v>6.360000000000006</v>
       </c>
       <c r="K243" t="n">
-        <v>-13.51351351351359</v>
+        <v>-64.70588235294154</v>
       </c>
       <c r="L243" t="n">
         <v>7.438000000000004</v>
@@ -12862,7 +12884,7 @@
         <v>6.360000000000006</v>
       </c>
       <c r="K244" t="n">
-        <v>-20</v>
+        <v>-50.00000000000037</v>
       </c>
       <c r="L244" t="n">
         <v>7.427000000000004</v>
@@ -12913,7 +12935,7 @@
         <v>6.360000000000006</v>
       </c>
       <c r="K245" t="n">
-        <v>-20</v>
+        <v>-50.00000000000037</v>
       </c>
       <c r="L245" t="n">
         <v>7.421000000000005</v>
@@ -12964,7 +12986,7 @@
         <v>6.380000000000006</v>
       </c>
       <c r="K246" t="n">
-        <v>-22.22222222222239</v>
+        <v>-57.14285714285769</v>
       </c>
       <c r="L246" t="n">
         <v>7.413000000000006</v>
@@ -13015,7 +13037,7 @@
         <v>6.400000000000007</v>
       </c>
       <c r="K247" t="n">
-        <v>-5.882352941176379</v>
+        <v>-23.07692307692276</v>
       </c>
       <c r="L247" t="n">
         <v>7.407000000000006</v>
@@ -13066,7 +13088,7 @@
         <v>6.420000000000007</v>
       </c>
       <c r="K248" t="n">
-        <v>-8.571428571428672</v>
+        <v>-16.66666666666704</v>
       </c>
       <c r="L248" t="n">
         <v>7.402000000000006</v>
@@ -13117,7 +13139,7 @@
         <v>6.450000000000007</v>
       </c>
       <c r="K249" t="n">
-        <v>-22.22222222222228</v>
+        <v>-66.66666666666617</v>
       </c>
       <c r="L249" t="n">
         <v>7.397000000000006</v>
@@ -13168,7 +13190,7 @@
         <v>6.460000000000008</v>
       </c>
       <c r="K250" t="n">
-        <v>-25.7142857142857</v>
+        <v>-53.84615384615269</v>
       </c>
       <c r="L250" t="n">
         <v>7.390000000000006</v>
@@ -13219,7 +13241,7 @@
         <v>6.470000000000008</v>
       </c>
       <c r="K251" t="n">
-        <v>-46.66666666666659</v>
+        <v>-27.27272727272697</v>
       </c>
       <c r="L251" t="n">
         <v>7.384000000000006</v>
@@ -13270,7 +13292,7 @@
         <v>6.490000000000007</v>
       </c>
       <c r="K252" t="n">
-        <v>-35.48387096774208</v>
+        <v>-7.692307692308114</v>
       </c>
       <c r="L252" t="n">
         <v>7.383000000000005</v>
@@ -13321,7 +13343,7 @@
         <v>6.550000000000008</v>
       </c>
       <c r="K253" t="n">
-        <v>-13.51351351351346</v>
+        <v>26.31578947368381</v>
       </c>
       <c r="L253" t="n">
         <v>7.388000000000005</v>
@@ -13372,7 +13394,7 @@
         <v>6.600000000000008</v>
       </c>
       <c r="K254" t="n">
-        <v>-2.43902439024385</v>
+        <v>41.66666666666617</v>
       </c>
       <c r="L254" t="n">
         <v>7.398000000000005</v>
@@ -13423,7 +13445,7 @@
         <v>6.610000000000007</v>
       </c>
       <c r="K255" t="n">
-        <v>13.51351351351346</v>
+        <v>56.52173913043441</v>
       </c>
       <c r="L255" t="n">
         <v>7.409000000000004</v>
@@ -13474,7 +13496,7 @@
         <v>6.610000000000007</v>
       </c>
       <c r="K256" t="n">
-        <v>13.51351351351346</v>
+        <v>52.3809523809519</v>
       </c>
       <c r="L256" t="n">
         <v>7.422000000000006</v>
@@ -13525,7 +13547,7 @@
         <v>6.670000000000007</v>
       </c>
       <c r="K257" t="n">
-        <v>-2.325581395348789</v>
+        <v>28.00000000000011</v>
       </c>
       <c r="L257" t="n">
         <v>7.427000000000005</v>
@@ -13576,7 +13598,7 @@
         <v>6.700000000000007</v>
       </c>
       <c r="K258" t="n">
-        <v>11.62790697674436</v>
+        <v>52.00000000000031</v>
       </c>
       <c r="L258" t="n">
         <v>7.437000000000006</v>
@@ -13627,7 +13649,7 @@
         <v>6.700000000000007</v>
       </c>
       <c r="K259" t="n">
-        <v>20</v>
+        <v>50.00000000000019</v>
       </c>
       <c r="L259" t="n">
         <v>7.450000000000007</v>
@@ -13678,7 +13700,7 @@
         <v>6.700000000000007</v>
       </c>
       <c r="K260" t="n">
-        <v>13.51351351351367</v>
+        <v>47.82608695652198</v>
       </c>
       <c r="L260" t="n">
         <v>7.462000000000008</v>
@@ -13729,7 +13751,7 @@
         <v>6.720000000000008</v>
       </c>
       <c r="K261" t="n">
-        <v>7.692307692307727</v>
+        <v>30.43478260869572</v>
       </c>
       <c r="L261" t="n">
         <v>7.471000000000006</v>
@@ -13780,7 +13802,7 @@
         <v>6.740000000000007</v>
       </c>
       <c r="K262" t="n">
-        <v>10.52631578947365</v>
+        <v>-5.263157894736744</v>
       </c>
       <c r="L262" t="n">
         <v>7.476000000000006</v>
@@ -13831,7 +13853,7 @@
         <v>6.770000000000007</v>
       </c>
       <c r="K263" t="n">
-        <v>17.07317073170713</v>
+        <v>-17.64705882352966</v>
       </c>
       <c r="L263" t="n">
         <v>7.478000000000006</v>
@@ -13882,7 +13904,7 @@
         <v>6.800000000000006</v>
       </c>
       <c r="K264" t="n">
-        <v>9.090909090909092</v>
+        <v>-36.84210526315785</v>
       </c>
       <c r="L264" t="n">
         <v>7.472000000000006</v>
@@ -13933,7 +13955,7 @@
         <v>6.800000000000006</v>
       </c>
       <c r="K265" t="n">
-        <v>9.090909090909092</v>
+        <v>-36.84210526315785</v>
       </c>
       <c r="L265" t="n">
         <v>7.465000000000005</v>
@@ -13984,7 +14006,7 @@
         <v>6.840000000000006</v>
       </c>
       <c r="K266" t="n">
-        <v>4.347826086956622</v>
+        <v>-29.41176470588242</v>
       </c>
       <c r="L266" t="n">
         <v>7.454000000000005</v>
@@ -14035,7 +14057,7 @@
         <v>6.840000000000006</v>
       </c>
       <c r="K267" t="n">
-        <v>0</v>
+        <v>-57.14285714285769</v>
       </c>
       <c r="L267" t="n">
         <v>7.449000000000005</v>
@@ -14086,7 +14108,7 @@
         <v>6.840000000000006</v>
       </c>
       <c r="K268" t="n">
-        <v>4.761904761904883</v>
+        <v>-57.14285714285769</v>
       </c>
       <c r="L268" t="n">
         <v>7.441000000000005</v>
@@ -14137,7 +14159,7 @@
         <v>6.890000000000007</v>
       </c>
       <c r="K269" t="n">
-        <v>0</v>
+        <v>-68.42105263157954</v>
       </c>
       <c r="L269" t="n">
         <v>7.428000000000004</v>
@@ -14188,7 +14210,7 @@
         <v>6.950000000000007</v>
       </c>
       <c r="K270" t="n">
-        <v>10.20408163265304</v>
+        <v>-21.73913043478257</v>
       </c>
       <c r="L270" t="n">
         <v>7.421000000000004</v>
@@ -14239,7 +14261,7 @@
         <v>6.960000000000007</v>
       </c>
       <c r="K271" t="n">
-        <v>6.122448979591896</v>
+        <v>-18.18181818181822</v>
       </c>
       <c r="L271" t="n">
         <v>7.415000000000004</v>
@@ -14290,7 +14312,7 @@
         <v>6.990000000000007</v>
       </c>
       <c r="K272" t="n">
-        <v>-3.999999999999915</v>
+        <v>-45.45454545454516</v>
       </c>
       <c r="L272" t="n">
         <v>7.408000000000006</v>
@@ -14341,7 +14363,7 @@
         <v>7.050000000000007</v>
       </c>
       <c r="K273" t="n">
-        <v>-4.000000000000099</v>
+        <v>-4.000000000000256</v>
       </c>
       <c r="L273" t="n">
         <v>7.404000000000005</v>
@@ -14392,7 +14414,7 @@
         <v>7.060000000000007</v>
       </c>
       <c r="K274" t="n">
-        <v>-17.39130434782614</v>
+        <v>-7.69230769230785</v>
       </c>
       <c r="L274" t="n">
         <v>7.402000000000005</v>
@@ -14443,7 +14465,7 @@
         <v>7.070000000000007</v>
       </c>
       <c r="K275" t="n">
-        <v>-17.39130434782614</v>
+        <v>13.04347826086926</v>
       </c>
       <c r="L275" t="n">
         <v>7.401000000000005</v>
@@ -14494,7 +14516,7 @@
         <v>7.080000000000006</v>
       </c>
       <c r="K276" t="n">
-        <v>-19.14893617021278</v>
+        <v>8.333333333333147</v>
       </c>
       <c r="L276" t="n">
         <v>7.403000000000004</v>
@@ -14545,7 +14567,7 @@
         <v>7.080000000000006</v>
       </c>
       <c r="K277" t="n">
-        <v>-7.317073170731782</v>
+        <v>8.333333333333147</v>
       </c>
       <c r="L277" t="n">
         <v>7.405000000000004</v>
@@ -14596,7 +14618,7 @@
         <v>7.190000000000007</v>
       </c>
       <c r="K278" t="n">
-        <v>-34.69387755102063</v>
+        <v>-13.33333333333335</v>
       </c>
       <c r="L278" t="n">
         <v>7.396000000000003</v>
@@ -14647,7 +14669,7 @@
         <v>7.210000000000007</v>
       </c>
       <c r="K279" t="n">
-        <v>-29.41176470588244</v>
+        <v>-30.76923076923082</v>
       </c>
       <c r="L279" t="n">
         <v>7.394000000000004</v>
@@ -14698,7 +14720,7 @@
         <v>7.220000000000007</v>
       </c>
       <c r="K280" t="n">
-        <v>-26.92307692307705</v>
+        <v>-23.07692307692329</v>
       </c>
       <c r="L280" t="n">
         <v>7.387000000000005</v>
@@ -14749,7 +14771,7 @@
         <v>7.220000000000007</v>
       </c>
       <c r="K281" t="n">
-        <v>-24.00000000000006</v>
+        <v>-13.0434782608697</v>
       </c>
       <c r="L281" t="n">
         <v>7.381000000000005</v>
@@ -14800,7 +14822,7 @@
         <v>7.220000000000007</v>
       </c>
       <c r="K282" t="n">
-        <v>-20.83333333333346</v>
+        <v>-52.94117647058817</v>
       </c>
       <c r="L282" t="n">
         <v>7.378000000000005</v>
@@ -14851,7 +14873,7 @@
         <v>7.220000000000007</v>
       </c>
       <c r="K283" t="n">
-        <v>-28.88888888888885</v>
+        <v>-50</v>
       </c>
       <c r="L283" t="n">
         <v>7.369000000000005</v>
@@ -14902,7 +14924,7 @@
         <v>7.250000000000007</v>
       </c>
       <c r="K284" t="n">
-        <v>-28.88888888888899</v>
+        <v>-66.6666666666665</v>
       </c>
       <c r="L284" t="n">
         <v>7.358000000000006</v>
@@ -14953,7 +14975,7 @@
         <v>7.250000000000007</v>
       </c>
       <c r="K285" t="n">
-        <v>-28.88888888888899</v>
+        <v>-64.70588235294106</v>
       </c>
       <c r="L285" t="n">
         <v>7.346000000000006</v>
@@ -15004,7 +15026,7 @@
         <v>7.260000000000008</v>
       </c>
       <c r="K286" t="n">
-        <v>-19.04761904761899</v>
+        <v>-55.5555555555549</v>
       </c>
       <c r="L286" t="n">
         <v>7.336000000000006</v>
@@ -15055,7 +15077,7 @@
         <v>7.260000000000008</v>
       </c>
       <c r="K287" t="n">
-        <v>-19.04761904761899</v>
+        <v>14.28571428571501</v>
       </c>
       <c r="L287" t="n">
         <v>7.326000000000006</v>
@@ -15106,7 +15128,7 @@
         <v>7.260000000000008</v>
       </c>
       <c r="K288" t="n">
-        <v>-19.04761904761899</v>
+        <v>-19.99999999999929</v>
       </c>
       <c r="L288" t="n">
         <v>7.327000000000007</v>
@@ -15157,7 +15179,7 @@
         <v>7.280000000000008</v>
       </c>
       <c r="K289" t="n">
-        <v>-12.82051282051273</v>
+        <v>-66.66666666666518</v>
       </c>
       <c r="L289" t="n">
         <v>7.324000000000007</v>
@@ -15208,7 +15230,7 @@
         <v>7.290000000000008</v>
       </c>
       <c r="K290" t="n">
-        <v>-35.29411764705878</v>
+        <v>-71.42857142856998</v>
       </c>
       <c r="L290" t="n">
         <v>7.319000000000007</v>
@@ -15259,7 +15281,7 @@
         <v>7.320000000000008</v>
       </c>
       <c r="K291" t="n">
-        <v>-22.22222222222217</v>
+        <v>-19.99999999999929</v>
       </c>
       <c r="L291" t="n">
         <v>7.317000000000007</v>
@@ -15310,7 +15332,7 @@
         <v>7.340000000000009</v>
       </c>
       <c r="K292" t="n">
-        <v>-20</v>
+        <v>-33.33333333333284</v>
       </c>
       <c r="L292" t="n">
         <v>7.313000000000007</v>
@@ -15361,7 +15383,7 @@
         <v>7.350000000000009</v>
       </c>
       <c r="K293" t="n">
-        <v>-46.66666666666631</v>
+        <v>-19.99999999999929</v>
       </c>
       <c r="L293" t="n">
         <v>7.308000000000007</v>
@@ -15412,7 +15434,7 @@
         <v>7.380000000000009</v>
       </c>
       <c r="K294" t="n">
-        <v>-31.24999999999969</v>
+        <v>7.692307692308114</v>
       </c>
       <c r="L294" t="n">
         <v>7.309000000000006</v>
@@ -15463,7 +15485,7 @@
         <v>7.400000000000008</v>
       </c>
       <c r="K295" t="n">
-        <v>-27.27272727272708</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L295" t="n">
         <v>7.312000000000006</v>
@@ -15514,7 +15536,7 @@
         <v>7.420000000000008</v>
       </c>
       <c r="K296" t="n">
-        <v>-29.41176470588211</v>
+        <v>0</v>
       </c>
       <c r="L296" t="n">
         <v>7.312000000000006</v>
@@ -15565,7 +15587,7 @@
         <v>7.450000000000007</v>
       </c>
       <c r="K297" t="n">
-        <v>-18.91891891891894</v>
+        <v>15.78947368421023</v>
       </c>
       <c r="L297" t="n">
         <v>7.315000000000007</v>
@@ -15616,7 +15638,7 @@
         <v>7.480000000000007</v>
       </c>
       <c r="K298" t="n">
-        <v>3.448275862069198</v>
+        <v>10.00000000000031</v>
       </c>
       <c r="L298" t="n">
         <v>7.315000000000007</v>
@@ -15667,7 +15689,7 @@
         <v>7.530000000000006</v>
       </c>
       <c r="K299" t="n">
-        <v>12.50000000000004</v>
+        <v>33.33333333333358</v>
       </c>
       <c r="L299" t="n">
         <v>7.322000000000007</v>
@@ -15718,7 +15740,7 @@
         <v>7.530000000000006</v>
       </c>
       <c r="K300" t="n">
-        <v>9.677419354838802</v>
+        <v>23.80952380952393</v>
       </c>
       <c r="L300" t="n">
         <v>7.330000000000007</v>
@@ -15769,7 +15791,7 @@
         <v>7.530000000000006</v>
       </c>
       <c r="K301" t="n">
-        <v>9.677419354838802</v>
+        <v>36.84210526315849</v>
       </c>
       <c r="L301" t="n">
         <v>7.335000000000008</v>
@@ -15820,7 +15842,7 @@
         <v>7.540000000000006</v>
       </c>
       <c r="K302" t="n">
-        <v>6.250000000000157</v>
+        <v>36.84210526315849</v>
       </c>
       <c r="L302" t="n">
         <v>7.341000000000008</v>
@@ -15871,7 +15893,7 @@
         <v>7.570000000000006</v>
       </c>
       <c r="K303" t="n">
-        <v>14.28571428571428</v>
+        <v>36.8421052631582</v>
       </c>
       <c r="L303" t="n">
         <v>7.351000000000008</v>
@@ -15922,7 +15944,7 @@
         <v>7.570000000000006</v>
       </c>
       <c r="K304" t="n">
-        <v>25.00000000000014</v>
+        <v>29.41176470588272</v>
       </c>
       <c r="L304" t="n">
         <v>7.358000000000007</v>
@@ -15973,7 +15995,7 @@
         <v>7.580000000000006</v>
       </c>
       <c r="K305" t="n">
-        <v>27.27272727272756</v>
+        <v>50.00000000000055</v>
       </c>
       <c r="L305" t="n">
         <v>7.364000000000007</v>
@@ -16024,7 +16046,7 @@
         <v>7.600000000000007</v>
       </c>
       <c r="K306" t="n">
-        <v>17.64705882352935</v>
+        <v>20.00000000000024</v>
       </c>
       <c r="L306" t="n">
         <v>7.370000000000007</v>
@@ -16075,7 +16097,7 @@
         <v>7.610000000000007</v>
       </c>
       <c r="K307" t="n">
-        <v>14.28571428571428</v>
+        <v>38.46153846153836</v>
       </c>
       <c r="L307" t="n">
         <v>7.372000000000009</v>
@@ -16126,7 +16148,7 @@
         <v>7.660000000000006</v>
       </c>
       <c r="K308" t="n">
-        <v>25</v>
+        <v>38.46153846153836</v>
       </c>
       <c r="L308" t="n">
         <v>7.382000000000008</v>
@@ -16177,7 +16199,7 @@
         <v>7.680000000000007</v>
       </c>
       <c r="K309" t="n">
-        <v>35.00000000000026</v>
+        <v>46.66666666666674</v>
       </c>
       <c r="L309" t="n">
         <v>7.389000000000007</v>
@@ -16228,7 +16250,7 @@
         <v>7.720000000000007</v>
       </c>
       <c r="K310" t="n">
-        <v>25.58139534883735</v>
+        <v>15.78947368421063</v>
       </c>
       <c r="L310" t="n">
         <v>7.392000000000007</v>
@@ -16279,7 +16301,7 @@
         <v>7.750000000000006</v>
       </c>
       <c r="K311" t="n">
-        <v>25.5813953488372</v>
+        <v>33.33333333333305</v>
       </c>
       <c r="L311" t="n">
         <v>7.398000000000008</v>
@@ -16330,7 +16352,7 @@
         <v>7.760000000000007</v>
       </c>
       <c r="K312" t="n">
-        <v>33.33333333333361</v>
+        <v>26.31578947368441</v>
       </c>
       <c r="L312" t="n">
         <v>7.406000000000008</v>
@@ -16381,7 +16403,7 @@
         <v>7.760000000000007</v>
       </c>
       <c r="K313" t="n">
-        <v>36.58536585365877</v>
+        <v>26.31578947368441</v>
       </c>
       <c r="L313" t="n">
         <v>7.411000000000007</v>
@@ -16432,7 +16454,7 @@
         <v>7.800000000000007</v>
       </c>
       <c r="K314" t="n">
-        <v>19.04761904761915</v>
+        <v>0</v>
       </c>
       <c r="L314" t="n">
         <v>7.412000000000008</v>
@@ -16483,7 +16505,7 @@
         <v>7.810000000000008</v>
       </c>
       <c r="K315" t="n">
-        <v>12.19512195121949</v>
+        <v>4.761904761904641</v>
       </c>
       <c r="L315" t="n">
         <v>7.411000000000007</v>
@@ -16534,7 +16556,7 @@
         <v>7.820000000000008</v>
       </c>
       <c r="K316" t="n">
-        <v>20</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L316" t="n">
         <v>7.413000000000008</v>
@@ -16585,7 +16607,7 @@
         <v>7.820000000000008</v>
       </c>
       <c r="K317" t="n">
-        <v>13.51351351351367</v>
+        <v>-12.49999999999958</v>
       </c>
       <c r="L317" t="n">
         <v>7.416000000000008</v>
@@ -16636,7 +16658,7 @@
         <v>7.830000000000009</v>
       </c>
       <c r="K318" t="n">
-        <v>19.99999999999969</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L318" t="n">
         <v>7.413000000000008</v>
@@ -16687,7 +16709,7 @@
         <v>7.830000000000009</v>
       </c>
       <c r="K319" t="n">
-        <v>6.66666666666647</v>
+        <v>-9.09090909090953</v>
       </c>
       <c r="L319" t="n">
         <v>7.408000000000008</v>
@@ -16738,7 +16760,7 @@
         <v>7.830000000000009</v>
       </c>
       <c r="K320" t="n">
-        <v>6.66666666666647</v>
+        <v>-49.99999999999834</v>
       </c>
       <c r="L320" t="n">
         <v>7.407000000000008</v>
@@ -16789,7 +16811,7 @@
         <v>7.910000000000009</v>
       </c>
       <c r="K321" t="n">
-        <v>26.31578947368394</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L321" t="n">
         <v>7.411000000000007</v>
@@ -16840,7 +16862,7 @@
         <v>7.92000000000001</v>
       </c>
       <c r="K322" t="n">
-        <v>31.5789473684208</v>
+        <v>24.99999999999958</v>
       </c>
       <c r="L322" t="n">
         <v>7.415000000000008</v>
@@ -16891,7 +16913,7 @@
         <v>7.940000000000009</v>
       </c>
       <c r="K323" t="n">
-        <v>29.72972972972952</v>
+        <v>71.42857142856998</v>
       </c>
       <c r="L323" t="n">
         <v>7.421000000000008</v>
@@ -16942,7 +16964,7 @@
         <v>7.960000000000009</v>
       </c>
       <c r="K324" t="n">
-        <v>33.33333333333303</v>
+        <v>86.66666666666588</v>
       </c>
       <c r="L324" t="n">
         <v>7.433000000000007</v>
@@ -16993,7 +17015,7 @@
         <v>7.990000000000008</v>
       </c>
       <c r="K325" t="n">
-        <v>21.95121951219498</v>
+        <v>52.94117647058817</v>
       </c>
       <c r="L325" t="n">
         <v>7.443000000000007</v>
@@ -17044,7 +17066,7 @@
         <v>7.990000000000008</v>
       </c>
       <c r="K326" t="n">
-        <v>28.20512820512818</v>
+        <v>52.94117647058817</v>
       </c>
       <c r="L326" t="n">
         <v>7.452000000000005</v>
@@ -17095,7 +17117,7 @@
         <v>7.990000000000008</v>
       </c>
       <c r="K327" t="n">
-        <v>31.57894736842094</v>
+        <v>62.50000000000063</v>
       </c>
       <c r="L327" t="n">
         <v>7.461000000000004</v>
@@ -17146,7 +17168,7 @@
         <v>7.990000000000008</v>
       </c>
       <c r="K328" t="n">
-        <v>21.21212121212118</v>
+        <v>62.50000000000063</v>
       </c>
       <c r="L328" t="n">
         <v>7.471000000000004</v>
@@ -17197,7 +17219,7 @@
         <v>8.020000000000008</v>
       </c>
       <c r="K329" t="n">
-        <v>5.882352941176317</v>
+        <v>36.84210526315815</v>
       </c>
       <c r="L329" t="n">
         <v>7.478000000000003</v>
@@ -17248,7 +17270,7 @@
         <v>8.060000000000009</v>
       </c>
       <c r="K330" t="n">
-        <v>5.882352941176302</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L330" t="n">
         <v>7.481000000000003</v>
@@ -17299,7 +17321,7 @@
         <v>8.160000000000009</v>
       </c>
       <c r="K331" t="n">
-        <v>-26.82926829268261</v>
+        <v>-66.66666666666691</v>
       </c>
       <c r="L331" t="n">
         <v>7.466000000000003</v>
@@ -17350,7 +17372,7 @@
         <v>8.20000000000001</v>
       </c>
       <c r="K332" t="n">
-        <v>-18.18181818181807</v>
+        <v>-53.84615384615359</v>
       </c>
       <c r="L332" t="n">
         <v>7.454000000000002</v>
@@ -17401,7 +17423,7 @@
         <v>8.230000000000011</v>
       </c>
       <c r="K333" t="n">
-        <v>-23.4042553191488</v>
+        <v>-70.3703703703696</v>
       </c>
       <c r="L333" t="n">
         <v>7.437000000000002</v>
@@ -17452,7 +17474,7 @@
         <v>8.280000000000012</v>
       </c>
       <c r="K334" t="n">
-        <v>-4.16666666666672</v>
+        <v>-37.93103448275826</v>
       </c>
       <c r="L334" t="n">
         <v>7.423000000000002</v>
@@ -17503,7 +17525,7 @@
         <v>8.280000000000012</v>
       </c>
       <c r="K335" t="n">
-        <v>-2.127659574468021</v>
+        <v>-37.93103448275826</v>
       </c>
       <c r="L335" t="n">
         <v>7.412000000000002</v>
@@ -17554,7 +17576,7 @@
         <v>8.290000000000012</v>
       </c>
       <c r="K336" t="n">
-        <v>-6.382978723404263</v>
+        <v>-39.99999999999959</v>
       </c>
       <c r="L336" t="n">
         <v>7.400000000000003</v>
@@ -17605,7 +17627,7 @@
         <v>8.300000000000011</v>
       </c>
       <c r="K337" t="n">
-        <v>-8.333333333333288</v>
+        <v>-41.93548387096727</v>
       </c>
       <c r="L337" t="n">
         <v>7.387000000000003</v>
@@ -17656,7 +17678,7 @@
         <v>8.330000000000013</v>
       </c>
       <c r="K338" t="n">
-        <v>-11.99999999999984</v>
+        <v>-41.93548387096716</v>
       </c>
       <c r="L338" t="n">
         <v>7.371000000000004</v>
@@ -17707,7 +17729,7 @@
         <v>8.350000000000012</v>
       </c>
       <c r="K339" t="n">
-        <v>-15.38461538461531</v>
+        <v>-37.93103448275838</v>
       </c>
       <c r="L339" t="n">
         <v>7.356000000000004</v>
@@ -17758,7 +17780,7 @@
         <v>8.410000000000013</v>
       </c>
       <c r="K340" t="n">
-        <v>-3.44827586206887</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L340" t="n">
         <v>7.351000000000004</v>
@@ -17809,7 +17831,7 @@
         <v>8.440000000000012</v>
       </c>
       <c r="K341" t="n">
-        <v>-13.20754716981113</v>
+        <v>16.66666666666654</v>
       </c>
       <c r="L341" t="n">
         <v>7.359000000000006</v>
@@ -17860,7 +17882,7 @@
         <v>8.490000000000013</v>
       </c>
       <c r="K342" t="n">
-        <v>-22.80701754385967</v>
+        <v>7.692307692307482</v>
       </c>
       <c r="L342" t="n">
         <v>7.358000000000006</v>
@@ -17911,7 +17933,7 @@
         <v>8.490000000000013</v>
       </c>
       <c r="K343" t="n">
-        <v>-27.27272727272717</v>
+        <v>-14.28571428571435</v>
       </c>
       <c r="L343" t="n">
         <v>7.360000000000005</v>
@@ -17962,7 +17984,7 @@
         <v>8.510000000000012</v>
       </c>
       <c r="K344" t="n">
-        <v>-34.54545454545424</v>
+        <v>-21.73913043478249</v>
       </c>
       <c r="L344" t="n">
         <v>7.355000000000006</v>
@@ -18013,7 +18035,7 @@
         <v>8.570000000000011</v>
       </c>
       <c r="K345" t="n">
-        <v>-17.24137931034484</v>
+        <v>7.142857142857006</v>
       </c>
       <c r="L345" t="n">
         <v>7.356000000000006</v>
@@ -18064,7 +18086,7 @@
         <v>8.580000000000011</v>
       </c>
       <c r="K346" t="n">
-        <v>-18.64406779661014</v>
+        <v>7.142857142857006</v>
       </c>
       <c r="L346" t="n">
         <v>7.357000000000005</v>
@@ -18115,7 +18137,7 @@
         <v>8.590000000000011</v>
       </c>
       <c r="K347" t="n">
-        <v>-19.99999999999994</v>
+        <v>15.38461538461552</v>
       </c>
       <c r="L347" t="n">
         <v>7.358000000000006</v>
@@ -18166,7 +18188,7 @@
         <v>8.60000000000001</v>
       </c>
       <c r="K348" t="n">
-        <v>-21.31147540983597</v>
+        <v>20.00000000000043</v>
       </c>
       <c r="L348" t="n">
         <v>7.361000000000006</v>
@@ -18217,7 +18239,7 @@
         <v>8.60000000000001</v>
       </c>
       <c r="K349" t="n">
-        <v>-17.24137931034471</v>
+        <v>-5.263157894736794</v>
       </c>
       <c r="L349" t="n">
         <v>7.366000000000005</v>
@@ -18268,7 +18290,7 @@
         <v>8.60000000000001</v>
       </c>
       <c r="K350" t="n">
-        <v>-11.11111111111102</v>
+        <v>-25.00000000000028</v>
       </c>
       <c r="L350" t="n">
         <v>7.365000000000005</v>
@@ -18319,7 +18341,7 @@
         <v>8.61000000000001</v>
       </c>
       <c r="K351" t="n">
-        <v>6.666666666666508</v>
+        <v>0</v>
       </c>
       <c r="L351" t="n">
         <v>7.360000000000004</v>
@@ -18370,7 +18392,7 @@
         <v>8.61000000000001</v>
       </c>
       <c r="K352" t="n">
-        <v>-2.439024390244066</v>
+        <v>0</v>
       </c>
       <c r="L352" t="n">
         <v>7.360000000000004</v>
@@ -18421,7 +18443,7 @@
         <v>8.61000000000001</v>
       </c>
       <c r="K353" t="n">
-        <v>5.263157894736744</v>
+        <v>20</v>
       </c>
       <c r="L353" t="n">
         <v>7.360000000000004</v>
@@ -18472,7 +18494,7 @@
         <v>8.620000000000012</v>
       </c>
       <c r="K354" t="n">
-        <v>-5.882352941176348</v>
+        <v>-59.99999999999787</v>
       </c>
       <c r="L354" t="n">
         <v>7.363000000000004</v>
@@ -18523,7 +18545,7 @@
         <v>8.620000000000012</v>
       </c>
       <c r="K355" t="n">
-        <v>-5.882352941176348</v>
+        <v>-49.99999999999778</v>
       </c>
       <c r="L355" t="n">
         <v>7.360000000000004</v>
@@ -18574,7 +18596,7 @@
         <v>8.630000000000013</v>
       </c>
       <c r="K356" t="n">
-        <v>-5.882352941176578</v>
+        <v>-49.99999999999778</v>
       </c>
       <c r="L356" t="n">
         <v>7.357000000000004</v>
@@ -18625,7 +18647,7 @@
         <v>8.680000000000014</v>
       </c>
       <c r="K357" t="n">
-        <v>-15.78947368421055</v>
+        <v>-74.99999999999723</v>
       </c>
       <c r="L357" t="n">
         <v>7.350000000000003</v>
@@ -18676,7 +18698,7 @@
         <v>8.680000000000014</v>
       </c>
       <c r="K358" t="n">
-        <v>-8.571428571428608</v>
+        <v>-74.99999999999723</v>
       </c>
       <c r="L358" t="n">
         <v>7.344000000000003</v>
@@ -18727,7 +18749,7 @@
         <v>8.690000000000014</v>
       </c>
       <c r="K359" t="n">
-        <v>0</v>
+        <v>-55.55555555555424</v>
       </c>
       <c r="L359" t="n">
         <v>7.339000000000003</v>
@@ -18778,7 +18800,7 @@
         <v>8.690000000000014</v>
       </c>
       <c r="K360" t="n">
-        <v>-21.42857142857152</v>
+        <v>-49.99999999999778</v>
       </c>
       <c r="L360" t="n">
         <v>7.334000000000003</v>
@@ -18829,7 +18851,7 @@
         <v>8.700000000000014</v>
       </c>
       <c r="K361" t="n">
-        <v>-30.76923076923061</v>
+        <v>-33.33333333333136</v>
       </c>
       <c r="L361" t="n">
         <v>7.331000000000003</v>
@@ -18880,7 +18902,7 @@
         <v>8.710000000000015</v>
       </c>
       <c r="K362" t="n">
-        <v>-18.181818181818</v>
+        <v>-39.99999999999805</v>
       </c>
       <c r="L362" t="n">
         <v>7.327000000000004</v>
@@ -18931,7 +18953,7 @@
         <v>8.740000000000016</v>
       </c>
       <c r="K363" t="n">
-        <v>-3.999999999999858</v>
+        <v>-16.66666666666642</v>
       </c>
       <c r="L363" t="n">
         <v>7.326000000000005</v>
@@ -18982,7 +19004,7 @@
         <v>8.770000000000017</v>
       </c>
       <c r="K364" t="n">
-        <v>15.3846153846151</v>
+        <v>6.666666666666273</v>
       </c>
       <c r="L364" t="n">
         <v>7.327000000000005</v>
@@ -19033,7 +19055,7 @@
         <v>8.800000000000018</v>
       </c>
       <c r="K365" t="n">
-        <v>-21.73913043478182</v>
+        <v>-5.882352941176163</v>
       </c>
       <c r="L365" t="n">
         <v>7.325000000000006</v>
@@ -19084,7 +19106,7 @@
         <v>8.810000000000018</v>
       </c>
       <c r="K366" t="n">
-        <v>-13.04347826086925</v>
+        <v>38.46153846153705</v>
       </c>
       <c r="L366" t="n">
         <v>7.325000000000006</v>
@@ -19135,7 +19157,7 @@
         <v>8.810000000000018</v>
       </c>
       <c r="K367" t="n">
-        <v>-9.09090909090898</v>
+        <v>38.46153846153705</v>
       </c>
       <c r="L367" t="n">
         <v>7.330000000000005</v>
@@ -19186,7 +19208,7 @@
         <v>8.820000000000018</v>
       </c>
       <c r="K368" t="n">
-        <v>-9.09090909090898</v>
+        <v>23.0769230769225</v>
       </c>
       <c r="L368" t="n">
         <v>7.334000000000006</v>
@@ -19237,7 +19259,7 @@
         <v>8.820000000000018</v>
       </c>
       <c r="K369" t="n">
-        <v>-9.09090909090898</v>
+        <v>23.0769230769225</v>
       </c>
       <c r="L369" t="n">
         <v>7.337000000000006</v>
@@ -19288,7 +19310,7 @@
         <v>8.860000000000017</v>
       </c>
       <c r="K370" t="n">
-        <v>-23.07692307692266</v>
+        <v>-12.5</v>
       </c>
       <c r="L370" t="n">
         <v>7.336000000000006</v>
@@ -19339,7 +19361,7 @@
         <v>8.860000000000017</v>
       </c>
       <c r="K371" t="n">
-        <v>-19.99999999999936</v>
+        <v>-6.666666666666429</v>
       </c>
       <c r="L371" t="n">
         <v>7.334000000000006</v>
@@ -19390,7 +19412,7 @@
         <v>8.870000000000017</v>
       </c>
       <c r="K372" t="n">
-        <v>-23.07692307692232</v>
+        <v>-38.46153846153809</v>
       </c>
       <c r="L372" t="n">
         <v>7.332000000000006</v>
@@ -19441,7 +19463,7 @@
         <v>8.870000000000017</v>
       </c>
       <c r="K373" t="n">
-        <v>-23.07692307692232</v>
+        <v>-80.00000000000036</v>
       </c>
       <c r="L373" t="n">
         <v>7.327000000000007</v>
@@ -19492,7 +19514,7 @@
         <v>8.870000000000017</v>
       </c>
       <c r="K374" t="n">
-        <v>-27.99999999999951</v>
+        <v>-71.4285714285727</v>
       </c>
       <c r="L374" t="n">
         <v>7.319000000000007</v>
@@ -19543,7 +19565,7 @@
         <v>8.900000000000016</v>
       </c>
       <c r="K375" t="n">
-        <v>-14.28571428571406</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L375" t="n">
         <v>7.317000000000007</v>
@@ -19594,7 +19616,7 @@
         <v>8.920000000000016</v>
       </c>
       <c r="K376" t="n">
-        <v>-3.44827586206886</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L376" t="n">
         <v>7.316000000000008</v>
@@ -19645,7 +19667,7 @@
         <v>8.930000000000016</v>
       </c>
       <c r="K377" t="n">
-        <v>12.00000000000001</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L377" t="n">
         <v>7.314000000000009</v>
@@ -19696,7 +19718,7 @@
         <v>8.930000000000016</v>
       </c>
       <c r="K378" t="n">
-        <v>12.00000000000001</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L378" t="n">
         <v>7.313000000000008</v>
@@ -19747,7 +19769,7 @@
         <v>8.940000000000015</v>
       </c>
       <c r="K379" t="n">
-        <v>12.00000000000001</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L379" t="n">
         <v>7.313000000000008</v>
@@ -19798,7 +19820,7 @@
         <v>8.970000000000017</v>
       </c>
       <c r="K380" t="n">
-        <v>0</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L380" t="n">
         <v>7.314000000000009</v>
@@ -19849,7 +19871,7 @@
         <v>8.980000000000018</v>
       </c>
       <c r="K381" t="n">
-        <v>0</v>
+        <v>27.2727272727272</v>
       </c>
       <c r="L381" t="n">
         <v>7.31600000000001</v>
@@ -19900,7 +19922,7 @@
         <v>9.040000000000019</v>
       </c>
       <c r="K382" t="n">
-        <v>-15.15151515151493</v>
+        <v>-17.64705882352938</v>
       </c>
       <c r="L382" t="n">
         <v>7.313000000000009</v>
@@ -19951,7 +19973,7 @@
         <v>9.090000000000018</v>
       </c>
       <c r="K383" t="n">
-        <v>-8.571428571428608</v>
+        <v>9.09090909090887</v>
       </c>
       <c r="L383" t="n">
         <v>7.315000000000009</v>
@@ -20002,7 +20024,7 @@
         <v>9.100000000000017</v>
       </c>
       <c r="K384" t="n">
-        <v>-21.21212121212129</v>
+        <v>-10.00000000000018</v>
       </c>
       <c r="L384" t="n">
         <v>7.316000000000008</v>
@@ -20053,7 +20075,7 @@
         <v>9.110000000000017</v>
       </c>
       <c r="K385" t="n">
-        <v>-16.12903225806452</v>
+        <v>-26.31578947368394</v>
       </c>
       <c r="L385" t="n">
         <v>7.313000000000008</v>
@@ -20104,7 +20126,7 @@
         <v>9.110000000000017</v>
       </c>
       <c r="K386" t="n">
-        <v>-19.99999999999994</v>
+        <v>-22.22222222222206</v>
       </c>
       <c r="L386" t="n">
         <v>7.308000000000009</v>
@@ -20155,7 +20177,7 @@
         <v>9.120000000000017</v>
       </c>
       <c r="K387" t="n">
-        <v>-22.58064516129022</v>
+        <v>-26.31578947368394</v>
       </c>
       <c r="L387" t="n">
         <v>7.303000000000009</v>
@@ -20206,7 +20228,7 @@
         <v>9.160000000000018</v>
       </c>
       <c r="K388" t="n">
-        <v>-5.882352941176348</v>
+        <v>-9.090909090908797</v>
       </c>
       <c r="L388" t="n">
         <v>7.302000000000008</v>
@@ -20257,7 +20279,7 @@
         <v>9.180000000000017</v>
       </c>
       <c r="K389" t="n">
-        <v>-11.11111111111114</v>
+        <v>-4.761904761904641</v>
       </c>
       <c r="L389" t="n">
         <v>7.298000000000007</v>
@@ -20308,7 +20330,7 @@
         <v>9.220000000000017</v>
       </c>
       <c r="K390" t="n">
-        <v>11.11111111111114</v>
+        <v>8.33333333333321</v>
       </c>
       <c r="L390" t="n">
         <v>7.301000000000007</v>
@@ -20359,7 +20381,7 @@
         <v>9.240000000000016</v>
       </c>
       <c r="K391" t="n">
-        <v>5.263157894736977</v>
+        <v>30.00000000000062</v>
       </c>
       <c r="L391" t="n">
         <v>7.301000000000007</v>
@@ -20410,7 +20432,7 @@
         <v>9.240000000000016</v>
       </c>
       <c r="K392" t="n">
-        <v>8.108108108108192</v>
+        <v>6.66666666666718</v>
       </c>
       <c r="L392" t="n">
         <v>7.307000000000007</v>
@@ -20461,7 +20483,7 @@
         <v>9.260000000000016</v>
       </c>
       <c r="K393" t="n">
-        <v>2.564102564102518</v>
+        <v>0</v>
       </c>
       <c r="L393" t="n">
         <v>7.306000000000006</v>
@@ -20512,7 +20534,7 @@
         <v>9.290000000000017</v>
       </c>
       <c r="K394" t="n">
-        <v>9.523809523809534</v>
+        <v>22.22222222222228</v>
       </c>
       <c r="L394" t="n">
         <v>7.309000000000006</v>
@@ -20563,7 +20585,7 @@
         <v>9.290000000000017</v>
       </c>
       <c r="K395" t="n">
-        <v>2.564102564102506</v>
+        <v>22.22222222222228</v>
       </c>
       <c r="L395" t="n">
         <v>7.313000000000005</v>
@@ -20614,7 +20636,7 @@
         <v>9.320000000000018</v>
       </c>
       <c r="K396" t="n">
-        <v>-9.999999999999956</v>
+        <v>9.999999999999734</v>
       </c>
       <c r="L396" t="n">
         <v>7.314000000000004</v>
@@ -20665,7 +20687,7 @@
         <v>9.380000000000019</v>
       </c>
       <c r="K397" t="n">
-        <v>6.66666666666668</v>
+        <v>18.18181818181815</v>
       </c>
       <c r="L397" t="n">
         <v>7.322000000000005</v>
@@ -20716,7 +20738,7 @@
         <v>9.400000000000018</v>
       </c>
       <c r="K398" t="n">
-        <v>10.63829787234033</v>
+        <v>36.3636363636363</v>
       </c>
       <c r="L398" t="n">
         <v>7.328000000000003</v>
@@ -20767,7 +20789,7 @@
         <v>9.400000000000018</v>
       </c>
       <c r="K399" t="n">
-        <v>8.695652173913002</v>
+        <v>22.22222222222206</v>
       </c>
       <c r="L399" t="n">
         <v>7.336000000000003</v>
@@ -20818,7 +20840,7 @@
         <v>9.420000000000019</v>
       </c>
       <c r="K400" t="n">
-        <v>20.00000000000004</v>
+        <v>44.44444444444368</v>
       </c>
       <c r="L400" t="n">
         <v>7.342000000000003</v>
@@ -20869,7 +20891,7 @@
         <v>9.420000000000019</v>
       </c>
       <c r="K401" t="n">
-        <v>18.18181818181815</v>
+        <v>44.44444444444368</v>
       </c>
       <c r="L401" t="n">
         <v>7.350000000000003</v>
@@ -20920,7 +20942,7 @@
         <v>9.450000000000021</v>
       </c>
       <c r="K402" t="n">
-        <v>26.82926829268288</v>
+        <v>36.84210526315711</v>
       </c>
       <c r="L402" t="n">
         <v>7.355000000000004</v>
@@ -20971,7 +20993,7 @@
         <v>9.450000000000021</v>
       </c>
       <c r="K403" t="n">
-        <v>16.66666666666666</v>
+        <v>24.99999999999945</v>
       </c>
       <c r="L403" t="n">
         <v>7.362000000000005</v>
@@ -21022,7 +21044,7 @@
         <v>9.480000000000022</v>
       </c>
       <c r="K404" t="n">
-        <v>26.31578947368405</v>
+        <v>36.84210526315711</v>
       </c>
       <c r="L404" t="n">
         <v>7.369000000000005</v>
@@ -21073,7 +21095,7 @@
         <v>9.500000000000021</v>
       </c>
       <c r="K405" t="n">
-        <v>33.33333333333295</v>
+        <v>66.66666666666552</v>
       </c>
       <c r="L405" t="n">
         <v>7.378000000000005</v>
@@ -21124,7 +21146,7 @@
         <v>9.570000000000022</v>
       </c>
       <c r="K406" t="n">
-        <v>43.47826086956484</v>
+        <v>68.42105263157779</v>
       </c>
       <c r="L406" t="n">
         <v>7.397000000000006</v>
@@ -21175,7 +21197,7 @@
         <v>9.590000000000021</v>
       </c>
       <c r="K407" t="n">
-        <v>40.42553191489315</v>
+        <v>47.36842105263074</v>
       </c>
       <c r="L407" t="n">
         <v>7.408000000000006</v>
@@ -21226,7 +21248,7 @@
         <v>9.680000000000021</v>
       </c>
       <c r="K408" t="n">
-        <v>11.53846153846139</v>
+        <v>0</v>
       </c>
       <c r="L408" t="n">
         <v>7.408000000000006</v>
@@ -21277,7 +21299,7 @@
         <v>9.700000000000021</v>
       </c>
       <c r="K409" t="n">
-        <v>19.23076923076922</v>
+        <v>0</v>
       </c>
       <c r="L409" t="n">
         <v>7.410000000000006</v>
@@ -21328,7 +21350,7 @@
         <v>9.710000000000022</v>
       </c>
       <c r="K410" t="n">
-        <v>10.20408163265291</v>
+        <v>-3.448275862069166</v>
       </c>
       <c r="L410" t="n">
         <v>7.409000000000006</v>
@@ -21379,7 +21401,7 @@
         <v>9.760000000000023</v>
       </c>
       <c r="K411" t="n">
-        <v>3.846153846153714</v>
+        <v>-9.677419354838719</v>
       </c>
       <c r="L411" t="n">
         <v>7.403000000000006</v>
@@ -21430,7 +21452,7 @@
         <v>9.810000000000024</v>
       </c>
       <c r="K412" t="n">
-        <v>12.2807017543857</v>
+        <v>5.555555555555391</v>
       </c>
       <c r="L412" t="n">
         <v>7.405000000000006</v>
@@ -21481,7 +21503,7 @@
         <v>9.810000000000024</v>
       </c>
       <c r="K413" t="n">
-        <v>16.3636363636361</v>
+        <v>-3.030303030303218</v>
       </c>
       <c r="L413" t="n">
         <v>7.407000000000005</v>
@@ -21532,7 +21554,7 @@
         <v>9.830000000000023</v>
       </c>
       <c r="K414" t="n">
-        <v>7.407407407407328</v>
+        <v>-15.15151515151501</v>
       </c>
       <c r="L414" t="n">
         <v>7.404000000000005</v>
@@ -21583,7 +21605,7 @@
         <v>9.840000000000023</v>
       </c>
       <c r="K415" t="n">
-        <v>5.45454545454544</v>
+        <v>-48.14814814814787</v>
       </c>
       <c r="L415" t="n">
         <v>7.398000000000005</v>
@@ -21634,7 +21656,7 @@
         <v>9.850000000000023</v>
       </c>
       <c r="K416" t="n">
-        <v>13.20754716981126</v>
+        <v>-38.46153846153809</v>
       </c>
       <c r="L416" t="n">
         <v>7.386000000000005</v>
@@ -21685,7 +21707,7 @@
         <v>9.900000000000023</v>
       </c>
       <c r="K417" t="n">
-        <v>-7.692307692307626</v>
+        <v>-27.27272727272679</v>
       </c>
       <c r="L417" t="n">
         <v>7.371000000000007</v>
@@ -21736,7 +21758,7 @@
         <v>9.920000000000023</v>
       </c>
       <c r="K418" t="n">
-        <v>-7.692307692307626</v>
+        <v>-27.2727272727272</v>
       </c>
       <c r="L418" t="n">
         <v>7.367000000000007</v>
@@ -21787,7 +21809,7 @@
         <v>9.940000000000023</v>
       </c>
       <c r="K419" t="n">
-        <v>-3.703703703703594</v>
+        <v>-13.04347826086926</v>
       </c>
       <c r="L419" t="n">
         <v>7.363000000000007</v>
@@ -21838,7 +21860,7 @@
         <v>10.00000000000002</v>
       </c>
       <c r="K420" t="n">
-        <v>-17.24137931034481</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L420" t="n">
         <v>7.354000000000006</v>
@@ -21889,7 +21911,7 @@
         <v>10.16000000000002</v>
       </c>
       <c r="K421" t="n">
-        <v>8.108108108108015</v>
+        <v>20.0000000000001</v>
       </c>
       <c r="L421" t="n">
         <v>7.366000000000005</v>
@@ -21940,7 +21962,7 @@
         <v>10.27000000000002</v>
       </c>
       <c r="K422" t="n">
-        <v>-2.439024390243947</v>
+        <v>-8.695652173913034</v>
       </c>
       <c r="L422" t="n">
         <v>7.362000000000005</v>
@@ -21991,7 +22013,7 @@
         <v>10.32000000000003</v>
       </c>
       <c r="K423" t="n">
-        <v>3.448275862068976</v>
+        <v>6.122448979591863</v>
       </c>
       <c r="L423" t="n">
         <v>7.363000000000005</v>
@@ -22042,7 +22064,7 @@
         <v>10.34000000000002</v>
       </c>
       <c r="K424" t="n">
-        <v>2.32558139534878</v>
+        <v>11.99999999999988</v>
       </c>
       <c r="L424" t="n">
         <v>7.368000000000005</v>
@@ -22093,7 +22115,7 @@
         <v>10.34000000000002</v>
       </c>
       <c r="K425" t="n">
-        <v>0</v>
+        <v>10.20408163265298</v>
       </c>
       <c r="L425" t="n">
         <v>7.374000000000005</v>
@@ -22144,7 +22166,7 @@
         <v>10.36000000000002</v>
       </c>
       <c r="K426" t="n">
-        <v>-11.39240506329108</v>
+        <v>17.39130434782607</v>
       </c>
       <c r="L426" t="n">
         <v>7.377000000000005</v>
@@ -22195,7 +22217,7 @@
         <v>10.37000000000002</v>
       </c>
       <c r="K427" t="n">
-        <v>-7.692307692307613</v>
+        <v>15.55555555555558</v>
       </c>
       <c r="L427" t="n">
         <v>7.386000000000005</v>
@@ -22246,7 +22268,7 @@
         <v>10.38000000000002</v>
       </c>
       <c r="K428" t="n">
-        <v>5.714285714285696</v>
+        <v>13.63636363636351</v>
       </c>
       <c r="L428" t="n">
         <v>7.394000000000004</v>
@@ -22297,7 +22319,7 @@
         <v>10.39000000000002</v>
       </c>
       <c r="K429" t="n">
-        <v>1.449275362318803</v>
+        <v>28.20512820512824</v>
       </c>
       <c r="L429" t="n">
         <v>7.399000000000004</v>
@@ -22348,7 +22370,7 @@
         <v>10.41000000000002</v>
       </c>
       <c r="K430" t="n">
-        <v>5.714285714285711</v>
+        <v>-12.0000000000001</v>
       </c>
       <c r="L430" t="n">
         <v>7.412000000000004</v>
@@ -22399,7 +22421,7 @@
         <v>10.42000000000002</v>
       </c>
       <c r="K431" t="n">
-        <v>15.15151515151523</v>
+        <v>60.00000000000107</v>
       </c>
       <c r="L431" t="n">
         <v>7.410000000000005</v>
@@ -22450,7 +22472,7 @@
         <v>10.42000000000002</v>
       </c>
       <c r="K432" t="n">
-        <v>8.196721311475534</v>
+        <v>40.00000000000089</v>
       </c>
       <c r="L432" t="n">
         <v>7.419000000000006</v>
@@ -22501,7 +22523,7 @@
         <v>10.48000000000002</v>
       </c>
       <c r="K433" t="n">
-        <v>-1.492537313432804</v>
+        <v>-28.57142857142884</v>
       </c>
       <c r="L433" t="n">
         <v>7.417000000000004</v>
@@ -22552,7 +22574,7 @@
         <v>10.53000000000002</v>
       </c>
       <c r="K434" t="n">
-        <v>8.571428571428525</v>
+        <v>5.263157894736794</v>
       </c>
       <c r="L434" t="n">
         <v>7.418000000000005</v>
@@ -22603,7 +22625,7 @@
         <v>10.53000000000002</v>
       </c>
       <c r="K435" t="n">
-        <v>10.1449275362318</v>
+        <v>17.64705882352923</v>
       </c>
       <c r="L435" t="n">
         <v>7.419000000000004</v>
@@ -22654,7 +22676,7 @@
         <v>10.57000000000002</v>
       </c>
       <c r="K436" t="n">
-        <v>2.777777777777723</v>
+        <v>-10.00000000000036</v>
       </c>
       <c r="L436" t="n">
         <v>7.418000000000004</v>
@@ -22705,7 +22727,7 @@
         <v>10.67000000000002</v>
       </c>
       <c r="K437" t="n">
-        <v>22.07792207792208</v>
+        <v>24.13793103448293</v>
       </c>
       <c r="L437" t="n">
         <v>7.426000000000004</v>
@@ -22756,7 +22778,7 @@
         <v>10.69000000000002</v>
       </c>
       <c r="K438" t="n">
-        <v>22.07792207792208</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L438" t="n">
         <v>7.435000000000004</v>
@@ -22807,7 +22829,7 @@
         <v>10.70000000000002</v>
       </c>
       <c r="K439" t="n">
-        <v>21.05263157894727</v>
+        <v>31.03448275862073</v>
       </c>
       <c r="L439" t="n">
         <v>7.446000000000003</v>
@@ -22858,7 +22880,7 @@
         <v>10.74000000000002</v>
       </c>
       <c r="K440" t="n">
-        <v>35.1351351351351</v>
+        <v>37.49999999999972</v>
       </c>
       <c r="L440" t="n">
         <v>7.459000000000003</v>
@@ -22909,7 +22931,7 @@
         <v>10.76000000000002</v>
       </c>
       <c r="K441" t="n">
-        <v>20.00000000000003</v>
+        <v>41.17647058823522</v>
       </c>
       <c r="L441" t="n">
         <v>7.473000000000003</v>
@@ -22960,7 +22982,7 @@
         <v>10.80000000000002</v>
       </c>
       <c r="K442" t="n">
-        <v>50.94339622641542</v>
+        <v>75.00000000000043</v>
       </c>
       <c r="L442" t="n">
         <v>7.491000000000004</v>
@@ -23011,7 +23033,7 @@
         <v>10.83000000000002</v>
       </c>
       <c r="K443" t="n">
-        <v>49.01960784313745</v>
+        <v>73.33333333333337</v>
       </c>
       <c r="L443" t="n">
         <v>7.518000000000005</v>
@@ -23062,7 +23084,7 @@
         <v>10.86000000000002</v>
       </c>
       <c r="K444" t="n">
-        <v>50.00000000000016</v>
+        <v>75.75757575757575</v>
       </c>
       <c r="L444" t="n">
         <v>7.543000000000004</v>
@@ -23113,7 +23135,7 @@
         <v>10.86000000000002</v>
       </c>
       <c r="K445" t="n">
-        <v>50.00000000000016</v>
+        <v>99.99999999999969</v>
       </c>
       <c r="L445" t="n">
         <v>7.568000000000003</v>
@@ -23164,7 +23186,7 @@
         <v>10.86000000000002</v>
       </c>
       <c r="K446" t="n">
-        <v>56.00000000000007</v>
+        <v>100</v>
       </c>
       <c r="L446" t="n">
         <v>7.597000000000004</v>
@@ -23215,7 +23237,7 @@
         <v>10.91000000000002</v>
       </c>
       <c r="K447" t="n">
-        <v>40.7407407407409</v>
+        <v>54.54545454545487</v>
       </c>
       <c r="L447" t="n">
         <v>7.611000000000004</v>
@@ -23266,7 +23288,7 @@
         <v>10.97000000000002</v>
       </c>
       <c r="K448" t="n">
-        <v>45.76271186440701</v>
+        <v>62.96296296296337</v>
       </c>
       <c r="L448" t="n">
         <v>7.629000000000003</v>
@@ -23317,7 +23339,7 @@
         <v>10.98000000000002</v>
       </c>
       <c r="K449" t="n">
-        <v>49.15254237288152</v>
+        <v>58.33333333333395</v>
       </c>
       <c r="L449" t="n">
         <v>7.647000000000004</v>
@@ -23368,7 +23390,7 @@
         <v>11.00000000000002</v>
       </c>
       <c r="K450" t="n">
-        <v>49.15254237288152</v>
+        <v>58.33333333333358</v>
       </c>
       <c r="L450" t="n">
         <v>7.663000000000004</v>
@@ -23419,7 +23441,7 @@
         <v>11.04000000000002</v>
       </c>
       <c r="K451" t="n">
-        <v>38.70967741935489</v>
+        <v>25</v>
       </c>
       <c r="L451" t="n">
         <v>7.673000000000004</v>
@@ -23470,7 +23492,7 @@
         <v>11.04000000000002</v>
       </c>
       <c r="K452" t="n">
-        <v>38.70967741935489</v>
+        <v>14.28571428571417</v>
       </c>
       <c r="L452" t="n">
         <v>7.679000000000002</v>
@@ -23521,7 +23543,7 @@
         <v>11.07000000000002</v>
       </c>
       <c r="K453" t="n">
-        <v>45.76271186440714</v>
+        <v>-14.28571428571417</v>
       </c>
       <c r="L453" t="n">
         <v>7.679000000000002</v>
@@ -23572,7 +23594,7 @@
         <v>11.09000000000002</v>
       </c>
       <c r="K454" t="n">
-        <v>42.85714285714312</v>
+        <v>-4.347826086956489</v>
       </c>
       <c r="L454" t="n">
         <v>7.678000000000003</v>
@@ -23623,7 +23645,7 @@
         <v>11.09000000000002</v>
       </c>
       <c r="K455" t="n">
-        <v>42.85714285714312</v>
+        <v>-4.347826086956489</v>
       </c>
       <c r="L455" t="n">
         <v>7.677000000000004</v>
@@ -23674,7 +23696,7 @@
         <v>11.14000000000002</v>
       </c>
       <c r="K456" t="n">
-        <v>40.35087719298276</v>
+        <v>-4.347826086956489</v>
       </c>
       <c r="L456" t="n">
         <v>7.671000000000004</v>
@@ -23725,7 +23747,7 @@
         <v>11.14000000000002</v>
       </c>
       <c r="K457" t="n">
-        <v>27.65957446808536</v>
+        <v>-41.17647058823634</v>
       </c>
       <c r="L457" t="n">
         <v>7.670000000000004</v>
@@ -23776,7 +23798,7 @@
         <v>11.19000000000002</v>
       </c>
       <c r="K458" t="n">
-        <v>32.00000000000026</v>
+        <v>-14.28571428571459</v>
       </c>
       <c r="L458" t="n">
         <v>7.668000000000005</v>
@@ -23827,7 +23849,7 @@
         <v>11.21000000000002</v>
       </c>
       <c r="K459" t="n">
-        <v>25.49019607843172</v>
+        <v>-33.33333333333348</v>
       </c>
       <c r="L459" t="n">
         <v>7.663000000000006</v>
@@ -23878,7 +23900,7 @@
         <v>11.21000000000002</v>
       </c>
       <c r="K460" t="n">
-        <v>19.14893617021312</v>
+        <v>-17.64705882352923</v>
       </c>
       <c r="L460" t="n">
         <v>7.656000000000006</v>
@@ -23929,7 +23951,7 @@
         <v>11.22000000000002</v>
       </c>
       <c r="K461" t="n">
-        <v>13.04347826086956</v>
+        <v>-22.22222222222228</v>
       </c>
       <c r="L461" t="n">
         <v>7.652000000000006</v>
@@ -23980,7 +24002,7 @@
         <v>11.24000000000002</v>
       </c>
       <c r="K462" t="n">
-        <v>9.090909090909145</v>
+        <v>5.882352941176348</v>
       </c>
       <c r="L462" t="n">
         <v>7.650000000000006</v>
@@ -24031,7 +24053,7 @@
         <v>11.31000000000002</v>
       </c>
       <c r="K463" t="n">
-        <v>16.66666666666679</v>
+        <v>27.27272727272742</v>
       </c>
       <c r="L463" t="n">
         <v>7.658000000000006</v>
@@ -24082,7 +24104,7 @@
         <v>11.35000000000002</v>
       </c>
       <c r="K464" t="n">
-        <v>2.040816326530764</v>
+        <v>7.692307692307876</v>
       </c>
       <c r="L464" t="n">
         <v>7.660000000000005</v>
@@ -24133,7 +24155,7 @@
         <v>11.37000000000002</v>
       </c>
       <c r="K465" t="n">
-        <v>5.882352941176562</v>
+        <v>39.13043478260856</v>
       </c>
       <c r="L465" t="n">
         <v>7.664000000000004</v>
@@ -24184,7 +24206,7 @@
         <v>11.37000000000002</v>
       </c>
       <c r="K466" t="n">
-        <v>5.882352941176562</v>
+        <v>39.13043478260856</v>
       </c>
       <c r="L466" t="n">
         <v>7.673000000000004</v>
@@ -24235,7 +24257,7 @@
         <v>11.38000000000002</v>
       </c>
       <c r="K467" t="n">
-        <v>14.89361702127675</v>
+        <v>15.7894736842107</v>
       </c>
       <c r="L467" t="n">
         <v>7.681000000000003</v>
@@ -24286,7 +24308,7 @@
         <v>11.38000000000002</v>
       </c>
       <c r="K468" t="n">
-        <v>2.43902439024387</v>
+        <v>29.41176470588226</v>
       </c>
       <c r="L468" t="n">
         <v>7.684000000000003</v>
@@ -24337,7 +24359,7 @@
         <v>11.38000000000002</v>
       </c>
       <c r="K469" t="n">
-        <v>0</v>
+        <v>29.41176470588226</v>
       </c>
       <c r="L469" t="n">
         <v>7.689000000000003</v>
@@ -24388,7 +24410,7 @@
         <v>11.41000000000002</v>
       </c>
       <c r="K470" t="n">
-        <v>-12.19512195121957</v>
+        <v>15.78947368421085</v>
       </c>
       <c r="L470" t="n">
         <v>7.691000000000003</v>
@@ -24439,7 +24461,7 @@
         <v>11.41000000000002</v>
       </c>
       <c r="K471" t="n">
-        <v>-2.702702702702664</v>
+        <v>5.88235294117641</v>
       </c>
       <c r="L471" t="n">
         <v>7.694000000000003</v>
@@ -24490,7 +24512,7 @@
         <v>11.42000000000002</v>
       </c>
       <c r="K472" t="n">
-        <v>-5.263157894736768</v>
+        <v>-63.63636363636525</v>
       </c>
       <c r="L472" t="n">
         <v>7.694000000000003</v>
@@ -24541,7 +24563,7 @@
         <v>11.43000000000002</v>
       </c>
       <c r="K473" t="n">
-        <v>5.555555555555474</v>
+        <v>-25.00000000000111</v>
       </c>
       <c r="L473" t="n">
         <v>7.688000000000002</v>
@@ -24592,7 +24614,7 @@
         <v>11.47000000000002</v>
       </c>
       <c r="K474" t="n">
-        <v>-10.52631578947377</v>
+        <v>-80.00000000000178</v>
       </c>
       <c r="L474" t="n">
         <v>7.682000000000002</v>
@@ -24643,7 +24665,7 @@
         <v>11.52000000000002</v>
       </c>
       <c r="K475" t="n">
-        <v>2.325581395348799</v>
+        <v>-20.00000000000036</v>
       </c>
       <c r="L475" t="n">
         <v>7.679000000000004</v>
@@ -24694,7 +24716,7 @@
         <v>11.54000000000002</v>
       </c>
       <c r="K476" t="n">
-        <v>20.00000000000009</v>
+        <v>0</v>
       </c>
       <c r="L476" t="n">
         <v>7.678000000000004</v>
@@ -24745,7 +24767,7 @@
         <v>11.54000000000002</v>
       </c>
       <c r="K477" t="n">
-        <v>20.00000000000009</v>
+        <v>0</v>
       </c>
       <c r="L477" t="n">
         <v>7.678000000000004</v>
@@ -24796,7 +24818,7 @@
         <v>11.54000000000002</v>
       </c>
       <c r="K478" t="n">
-        <v>8.571428571428696</v>
+        <v>0</v>
       </c>
       <c r="L478" t="n">
         <v>7.678000000000004</v>
@@ -24847,7 +24869,7 @@
         <v>11.54000000000002</v>
       </c>
       <c r="K479" t="n">
-        <v>15.15151515151518</v>
+        <v>23.07692307692345</v>
       </c>
       <c r="L479" t="n">
         <v>7.678000000000004</v>
@@ -24898,7 +24920,7 @@
         <v>11.57000000000002</v>
       </c>
       <c r="K480" t="n">
-        <v>22.22222222222228</v>
+        <v>37.50000000000028</v>
       </c>
       <c r="L480" t="n">
         <v>7.684000000000005</v>
@@ -24949,7 +24971,7 @@
         <v>11.57000000000002</v>
       </c>
       <c r="K481" t="n">
-        <v>25.71428571428608</v>
+        <v>46.66666666666674</v>
       </c>
       <c r="L481" t="n">
         <v>7.690000000000005</v>
@@ -25000,7 +25022,7 @@
         <v>11.58000000000002</v>
       </c>
       <c r="K482" t="n">
-        <v>17.64705882352931</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L482" t="n">
         <v>7.696000000000005</v>
@@ -25051,7 +25073,7 @@
         <v>11.58000000000002</v>
       </c>
       <c r="K483" t="n">
-        <v>-3.70370370370396</v>
+        <v>81.81818181817947</v>
       </c>
       <c r="L483" t="n">
         <v>7.701000000000005</v>
@@ -25102,7 +25124,7 @@
         <v>11.59000000000002</v>
       </c>
       <c r="K484" t="n">
-        <v>16.66666666666654</v>
+        <v>71.42857142856853</v>
       </c>
       <c r="L484" t="n">
         <v>7.711000000000006</v>
@@ -25153,7 +25175,7 @@
         <v>11.59000000000002</v>
       </c>
       <c r="K485" t="n">
-        <v>9.0909090909092</v>
+        <v>59.99999999999538</v>
       </c>
       <c r="L485" t="n">
         <v>7.716000000000006</v>
@@ -25204,7 +25226,7 @@
         <v>11.60000000000002</v>
       </c>
       <c r="K486" t="n">
-        <v>13.04347826086955</v>
+        <v>66.66666666666222</v>
       </c>
       <c r="L486" t="n">
         <v>7.720000000000004</v>
@@ -25255,7 +25277,7 @@
         <v>11.60000000000002</v>
       </c>
       <c r="K487" t="n">
-        <v>18.181818181818</v>
+        <v>66.66666666666222</v>
       </c>
       <c r="L487" t="n">
         <v>7.724000000000004</v>
@@ -25306,7 +25328,7 @@
         <v>11.65000000000002</v>
       </c>
       <c r="K488" t="n">
-        <v>-3.703703703703606</v>
+        <v>-9.090909090908649</v>
       </c>
       <c r="L488" t="n">
         <v>7.723000000000003</v>
@@ -25357,7 +25379,7 @@
         <v>11.70000000000002</v>
       </c>
       <c r="K489" t="n">
-        <v>12.49999999999993</v>
+        <v>7.692307692307376</v>
       </c>
       <c r="L489" t="n">
         <v>7.727000000000002</v>
@@ -25408,7 +25430,7 @@
         <v>11.70000000000002</v>
       </c>
       <c r="K490" t="n">
-        <v>24.13793103448263</v>
+        <v>7.692307692307376</v>
       </c>
       <c r="L490" t="n">
         <v>7.728000000000002</v>
@@ -25459,7 +25481,7 @@
         <v>11.75000000000002</v>
       </c>
       <c r="K491" t="n">
-        <v>5.882352941176547</v>
+        <v>-17.64705882352886</v>
       </c>
       <c r="L491" t="n">
         <v>7.724000000000001</v>
@@ -25510,7 +25532,7 @@
         <v>11.78000000000002</v>
       </c>
       <c r="K492" t="n">
-        <v>0</v>
+        <v>-29.99999999999938</v>
       </c>
       <c r="L492" t="n">
         <v>7.718000000000001</v>
@@ -25561,7 +25583,7 @@
         <v>11.79000000000002</v>
       </c>
       <c r="K493" t="n">
-        <v>-5.555555555555364</v>
+        <v>-39.99999999999982</v>
       </c>
       <c r="L493" t="n">
         <v>7.711000000000001</v>
@@ -25612,7 +25634,7 @@
         <v>11.80000000000002</v>
       </c>
       <c r="K494" t="n">
-        <v>3.030303030302916</v>
+        <v>-42.85714285714304</v>
       </c>
       <c r="L494" t="n">
         <v>7.702000000000001</v>
@@ -25663,7 +25685,7 @@
         <v>11.81000000000002</v>
       </c>
       <c r="K495" t="n">
-        <v>-17.2413793103445</v>
+        <v>-52.38095238095232</v>
       </c>
       <c r="L495" t="n">
         <v>7.692</v>
@@ -25714,7 +25736,7 @@
         <v>11.82000000000002</v>
       </c>
       <c r="K496" t="n">
-        <v>-28.57142857142812</v>
+        <v>-54.54545454545443</v>
       </c>
       <c r="L496" t="n">
         <v>7.680000000000001</v>
@@ -25765,7 +25787,7 @@
         <v>11.83000000000002</v>
       </c>
       <c r="K497" t="n">
-        <v>-31.03448275862016</v>
+        <v>-44.44444444444412</v>
       </c>
       <c r="L497" t="n">
         <v>7.667000000000002</v>
@@ -25816,7 +25838,7 @@
         <v>11.85000000000002</v>
       </c>
       <c r="K498" t="n">
-        <v>-22.58064516129012</v>
+        <v>-73.33333333333337</v>
       </c>
       <c r="L498" t="n">
         <v>7.661000000000001</v>
@@ -25867,7 +25889,7 @@
         <v>11.85000000000002</v>
       </c>
       <c r="K499" t="n">
-        <v>-22.58064516129012</v>
+        <v>-73.33333333333337</v>
       </c>
       <c r="L499" t="n">
         <v>7.650000000000001</v>
@@ -25918,7 +25940,7 @@
         <v>11.85000000000002</v>
       </c>
       <c r="K500" t="n">
-        <v>-35.71428571428553</v>
+        <v>-60.00000000000071</v>
       </c>
       <c r="L500" t="n">
         <v>7.639000000000001</v>
@@ -25969,7 +25991,7 @@
         <v>11.86000000000002</v>
       </c>
       <c r="K501" t="n">
-        <v>-31.03448275862066</v>
+        <v>-25.00000000000111</v>
       </c>
       <c r="L501" t="n">
         <v>7.634000000000002</v>
@@ -26020,7 +26042,7 @@
         <v>11.87000000000002</v>
       </c>
       <c r="K502" t="n">
-        <v>-31.03448275862054</v>
+        <v>-25.00000000000111</v>
       </c>
       <c r="L502" t="n">
         <v>7.631000000000002</v>
@@ -26071,7 +26093,7 @@
         <v>11.87000000000002</v>
       </c>
       <c r="K503" t="n">
-        <v>-31.03448275862054</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L503" t="n">
         <v>7.629</v>
@@ -26122,7 +26144,7 @@
         <v>11.90000000000002</v>
       </c>
       <c r="K504" t="n">
-        <v>-41.93548387096816</v>
+        <v>-33.33333333333432</v>
       </c>
       <c r="L504" t="n">
         <v>7.625</v>
@@ -26173,7 +26195,7 @@
         <v>11.94000000000002</v>
       </c>
       <c r="K505" t="n">
-        <v>-48.5714285714291</v>
+        <v>-50.00000000000148</v>
       </c>
       <c r="L505" t="n">
         <v>7.618</v>
@@ -26224,7 +26246,7 @@
         <v>11.97000000000002</v>
       </c>
       <c r="K506" t="n">
-        <v>-40.54054054054072</v>
+        <v>-14.28571428571474</v>
       </c>
       <c r="L506" t="n">
         <v>7.615</v>
@@ -26275,7 +26297,7 @@
         <v>12.01000000000002</v>
       </c>
       <c r="K507" t="n">
-        <v>-46.34146341463443</v>
+        <v>-50.00000000000055</v>
       </c>
       <c r="L507" t="n">
         <v>7.609</v>
@@ -26326,7 +26348,7 @@
         <v>12.04000000000002</v>
       </c>
       <c r="K508" t="n">
-        <v>-28.20512820512824</v>
+        <v>-26.31578947368419</v>
       </c>
       <c r="L508" t="n">
         <v>7.604000000000001</v>
@@ -26377,7 +26399,7 @@
         <v>12.07000000000002</v>
       </c>
       <c r="K509" t="n">
-        <v>-51.35135135135131</v>
+        <v>-36.3636363636363</v>
       </c>
       <c r="L509" t="n">
         <v>7.596000000000001</v>
@@ -26428,7 +26450,7 @@
         <v>12.07000000000002</v>
       </c>
       <c r="K510" t="n">
-        <v>-51.35135135135131</v>
+        <v>-42.85714285714262</v>
       </c>
       <c r="L510" t="n">
         <v>7.588000000000001</v>
@@ -26479,7 +26501,7 @@
         <v>12.11000000000002</v>
       </c>
       <c r="K511" t="n">
-        <v>-27.77777777777797</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L511" t="n">
         <v>7.583000000000001</v>
@@ -26530,7 +26552,7 @@
         <v>12.16000000000002</v>
       </c>
       <c r="K512" t="n">
-        <v>-5.263157894736977</v>
+        <v>3.448275862068881</v>
       </c>
       <c r="L512" t="n">
         <v>7.584000000000001</v>
@@ -26581,7 +26603,7 @@
         <v>12.17000000000002</v>
       </c>
       <c r="K513" t="n">
-        <v>-5.263157894736977</v>
+        <v>11.11111111111115</v>
       </c>
       <c r="L513" t="n">
         <v>7.584000000000001</v>
@@ -26632,7 +26654,7 @@
         <v>12.20000000000002</v>
       </c>
       <c r="K514" t="n">
-        <v>5.000000000000133</v>
+        <v>38.46153846153844</v>
       </c>
       <c r="L514" t="n">
         <v>7.590000000000002</v>
@@ -26683,7 +26705,7 @@
         <v>12.21000000000002</v>
       </c>
       <c r="K515" t="n">
-        <v>10.00000000000004</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L515" t="n">
         <v>7.601000000000002</v>
@@ -26734,7 +26756,7 @@
         <v>12.25000000000002</v>
       </c>
       <c r="K516" t="n">
-        <v>2.325581395348789</v>
+        <v>33.33333333333309</v>
       </c>
       <c r="L516" t="n">
         <v>7.605000000000001</v>
@@ -26785,7 +26807,7 @@
         <v>12.29000000000002</v>
       </c>
       <c r="K517" t="n">
-        <v>-4.347826086956631</v>
+        <v>3.999999999999915</v>
       </c>
       <c r="L517" t="n">
         <v>7.609000000000002</v>
@@ -26836,7 +26858,7 @@
         <v>12.31000000000002</v>
       </c>
       <c r="K518" t="n">
-        <v>-13.04347826086951</v>
+        <v>8.333333333333579</v>
       </c>
       <c r="L518" t="n">
         <v>7.608000000000002</v>
@@ -26887,7 +26909,7 @@
         <v>12.33000000000002</v>
       </c>
       <c r="K519" t="n">
-        <v>-16.66666666666673</v>
+        <v>0</v>
       </c>
       <c r="L519" t="n">
         <v>7.608000000000002</v>
@@ -26938,7 +26960,7 @@
         <v>12.33000000000002</v>
       </c>
       <c r="K520" t="n">
-        <v>-16.66666666666673</v>
+        <v>-18.18181818181829</v>
       </c>
       <c r="L520" t="n">
         <v>7.608000000000002</v>
@@ -26989,7 +27011,7 @@
         <v>12.34000000000002</v>
       </c>
       <c r="K521" t="n">
-        <v>-20.83333333333332</v>
+        <v>-55.55555555555599</v>
       </c>
       <c r="L521" t="n">
         <v>7.603000000000003</v>
@@ -27040,7 +27062,7 @@
         <v>12.36000000000002</v>
       </c>
       <c r="K522" t="n">
-        <v>-14.28571428571439</v>
+        <v>-36.84210526315849</v>
       </c>
       <c r="L522" t="n">
         <v>7.595000000000003</v>
@@ -27091,7 +27113,7 @@
         <v>12.40000000000002</v>
       </c>
       <c r="K523" t="n">
-        <v>-5.66037735849062</v>
+        <v>-30.00000000000036</v>
       </c>
       <c r="L523" t="n">
         <v>7.592000000000003</v>
@@ -27142,7 +27164,7 @@
         <v>12.41000000000002</v>
       </c>
       <c r="K524" t="n">
-        <v>-1.960784313725449</v>
+        <v>-40.00000000000018</v>
       </c>
       <c r="L524" t="n">
         <v>7.585000000000004</v>
@@ -27193,7 +27215,7 @@
         <v>12.44000000000002</v>
       </c>
       <c r="K525" t="n">
-        <v>12.0000000000001</v>
+        <v>-5.263157894736794</v>
       </c>
       <c r="L525" t="n">
         <v>7.580000000000004</v>
@@ -27244,7 +27266,7 @@
         <v>12.54000000000002</v>
       </c>
       <c r="K526" t="n">
-        <v>-12.28070175438601</v>
+        <v>-28.00000000000011</v>
       </c>
       <c r="L526" t="n">
         <v>7.569000000000004</v>
@@ -27295,7 +27317,7 @@
         <v>12.59000000000002</v>
       </c>
       <c r="K527" t="n">
-        <v>3.448275862069034</v>
+        <v>0</v>
       </c>
       <c r="L527" t="n">
         <v>7.567000000000005</v>
@@ -27346,7 +27368,7 @@
         <v>12.62000000000002</v>
       </c>
       <c r="K528" t="n">
-        <v>-6.896551724137916</v>
+        <v>-3.44827586206886</v>
       </c>
       <c r="L528" t="n">
         <v>7.564000000000004</v>
@@ -27397,7 +27419,7 @@
         <v>12.64000000000002</v>
       </c>
       <c r="K529" t="n">
-        <v>-5.263157894736883</v>
+        <v>-9.677419354838719</v>
       </c>
       <c r="L529" t="n">
         <v>7.561000000000004</v>
@@ -27448,7 +27470,7 @@
         <v>12.64000000000002</v>
       </c>
       <c r="K530" t="n">
-        <v>-5.263157894736883</v>
+        <v>-6.666666666666766</v>
       </c>
       <c r="L530" t="n">
         <v>7.558000000000004</v>
@@ -27499,7 +27521,7 @@
         <v>12.68000000000002</v>
       </c>
       <c r="K531" t="n">
-        <v>-5.263157894736883</v>
+        <v>0</v>
       </c>
       <c r="L531" t="n">
         <v>7.560000000000004</v>
@@ -27550,7 +27572,7 @@
         <v>12.70000000000002</v>
       </c>
       <c r="K532" t="n">
-        <v>-11.11111111111106</v>
+        <v>-6.666666666666508</v>
       </c>
       <c r="L532" t="n">
         <v>7.562000000000003</v>
@@ -27601,7 +27623,7 @@
         <v>12.71000000000002</v>
       </c>
       <c r="K533" t="n">
-        <v>-7.407407407407425</v>
+        <v>0</v>
       </c>
       <c r="L533" t="n">
         <v>7.561000000000004</v>
@@ -27652,7 +27674,7 @@
         <v>12.73000000000002</v>
       </c>
       <c r="K534" t="n">
-        <v>-16.98113207547169</v>
+        <v>-17.24137931034471</v>
       </c>
       <c r="L534" t="n">
         <v>7.559000000000003</v>
@@ -27703,7 +27725,7 @@
         <v>12.76000000000002</v>
       </c>
       <c r="K535" t="n">
-        <v>-12.7272727272728</v>
+        <v>36.36363636363658</v>
       </c>
       <c r="L535" t="n">
         <v>7.557000000000002</v>
@@ -27754,7 +27776,7 @@
         <v>12.76000000000002</v>
       </c>
       <c r="K536" t="n">
-        <v>-5.882352941176542</v>
+        <v>17.64705882352923</v>
       </c>
       <c r="L536" t="n">
         <v>7.565000000000002</v>
@@ -27805,7 +27827,7 @@
         <v>12.78000000000002</v>
       </c>
       <c r="K537" t="n">
-        <v>6.122448979591907</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L537" t="n">
         <v>7.570000000000002</v>
@@ -27856,7 +27878,7 @@
         <v>12.78000000000002</v>
       </c>
       <c r="K538" t="n">
-        <v>10.63829787234041</v>
+        <v>71.42857142857333</v>
       </c>
       <c r="L538" t="n">
         <v>7.578000000000001</v>
@@ -27907,7 +27929,7 @@
         <v>12.78000000000002</v>
       </c>
       <c r="K539" t="n">
-        <v>15.55555555555564</v>
+        <v>71.42857142857333</v>
       </c>
       <c r="L539" t="n">
         <v>7.588000000000003</v>
@@ -27958,7 +27980,7 @@
         <v>12.81000000000002</v>
       </c>
       <c r="K540" t="n">
-        <v>20.83333333333342</v>
+        <v>69.23076923077033</v>
       </c>
       <c r="L540" t="n">
         <v>7.601000000000004</v>
@@ -28009,7 +28031,7 @@
         <v>12.86000000000002</v>
       </c>
       <c r="K541" t="n">
-        <v>30.76923076923072</v>
+        <v>75</v>
       </c>
       <c r="L541" t="n">
         <v>7.615000000000004</v>
@@ -28060,7 +28082,7 @@
         <v>12.94000000000002</v>
       </c>
       <c r="K542" t="n">
-        <v>37.93103448275861</v>
+        <v>82.60869565217392</v>
       </c>
       <c r="L542" t="n">
         <v>7.635000000000003</v>
@@ -28111,7 +28133,7 @@
         <v>12.96000000000002</v>
       </c>
       <c r="K543" t="n">
-        <v>35.71428571428572</v>
+        <v>99.99999999999962</v>
       </c>
       <c r="L543" t="n">
         <v>7.656000000000003</v>
@@ -28162,7 +28184,7 @@
         <v>13.01000000000002</v>
       </c>
       <c r="K544" t="n">
-        <v>43.33333333333332</v>
+        <v>100</v>
       </c>
       <c r="L544" t="n">
         <v>7.684000000000003</v>
@@ -28213,7 +28235,7 @@
         <v>13.01000000000002</v>
       </c>
       <c r="K545" t="n">
-        <v>40.35087719298235</v>
+        <v>100</v>
       </c>
       <c r="L545" t="n">
         <v>7.709000000000003</v>
@@ -28264,7 +28286,7 @@
         <v>13.07000000000002</v>
       </c>
       <c r="K546" t="n">
-        <v>50.94339622641542</v>
+        <v>58.62068965517256</v>
       </c>
       <c r="L546" t="n">
         <v>7.728000000000004</v>
@@ -28315,7 +28337,7 @@
         <v>13.07000000000002</v>
       </c>
       <c r="K547" t="n">
-        <v>45.83333333333358</v>
+        <v>58.62068965517256</v>
       </c>
       <c r="L547" t="n">
         <v>7.745000000000005</v>
@@ -28366,7 +28388,7 @@
         <v>13.07000000000002</v>
       </c>
       <c r="K548" t="n">
-        <v>55.55555555555608</v>
+        <v>58.62068965517256</v>
       </c>
       <c r="L548" t="n">
         <v>7.762000000000005</v>
@@ -28417,7 +28439,7 @@
         <v>13.07000000000002</v>
       </c>
       <c r="K549" t="n">
-        <v>62.79069767441927</v>
+        <v>53.84615384615413</v>
       </c>
       <c r="L549" t="n">
         <v>7.779000000000005</v>
@@ -28468,7 +28490,7 @@
         <v>13.08000000000002</v>
       </c>
       <c r="K550" t="n">
-        <v>59.09090909090979</v>
+        <v>36.36363636363688</v>
       </c>
       <c r="L550" t="n">
         <v>7.792000000000004</v>
@@ -28519,7 +28541,7 @@
         <v>13.20000000000002</v>
       </c>
       <c r="K551" t="n">
-        <v>19.23076923076948</v>
+        <v>-46.15384615384686</v>
       </c>
       <c r="L551" t="n">
         <v>7.788000000000004</v>
@@ -28570,7 +28592,7 @@
         <v>13.27000000000002</v>
       </c>
       <c r="K552" t="n">
-        <v>26.31578947368443</v>
+        <v>-22.58064516129035</v>
       </c>
       <c r="L552" t="n">
         <v>7.783000000000004</v>
@@ -28621,7 +28643,7 @@
         <v>13.31000000000002</v>
       </c>
       <c r="K553" t="n">
-        <v>30.00000000000015</v>
+        <v>-26.66666666666694</v>
       </c>
       <c r="L553" t="n">
         <v>7.780000000000004</v>
@@ -28672,7 +28694,7 @@
         <v>13.32000000000002</v>
       </c>
       <c r="K554" t="n">
-        <v>35.59322033898316</v>
+        <v>-22.58064516129022</v>
       </c>
       <c r="L554" t="n">
         <v>7.773000000000005</v>
@@ -28723,7 +28745,7 @@
         <v>13.34000000000002</v>
       </c>
       <c r="K555" t="n">
-        <v>34.48275862068979</v>
+        <v>3.70370370370363</v>
       </c>
       <c r="L555" t="n">
         <v>7.768000000000005</v>
@@ -28774,7 +28796,7 @@
         <v>13.34000000000002</v>
       </c>
       <c r="K556" t="n">
-        <v>34.48275862068979</v>
+        <v>3.70370370370363</v>
       </c>
       <c r="L556" t="n">
         <v>7.769000000000004</v>
@@ -28825,7 +28847,7 @@
         <v>13.34000000000002</v>
       </c>
       <c r="K557" t="n">
-        <v>32.14285714285717</v>
+        <v>3.70370370370363</v>
       </c>
       <c r="L557" t="n">
         <v>7.770000000000003</v>
@@ -28876,7 +28898,7 @@
         <v>13.35000000000002</v>
       </c>
       <c r="K558" t="n">
-        <v>29.82456140350884</v>
+        <v>0</v>
       </c>
       <c r="L558" t="n">
         <v>7.770000000000003</v>
@@ -28927,7 +28949,7 @@
         <v>13.40000000000002</v>
       </c>
       <c r="K559" t="n">
-        <v>19.35483870967752</v>
+        <v>-12.50000000000007</v>
       </c>
       <c r="L559" t="n">
         <v>7.765000000000002</v>
@@ -28978,7 +29000,7 @@
         <v>13.43000000000002</v>
       </c>
       <c r="K560" t="n">
-        <v>19.35483870967743</v>
+        <v>47.82608695652178</v>
       </c>
       <c r="L560" t="n">
         <v>7.764000000000001</v>
@@ -29029,7 +29051,7 @@
         <v>13.48000000000001</v>
       </c>
       <c r="K561" t="n">
-        <v>3.225806451612866</v>
+        <v>-4.761904761905145</v>
       </c>
       <c r="L561" t="n">
         <v>7.770000000000001</v>
@@ -29080,7 +29102,7 @@
         <v>13.52000000000001</v>
       </c>
       <c r="K562" t="n">
-        <v>-17.24137931034513</v>
+        <v>-42.85714285714334</v>
       </c>
       <c r="L562" t="n">
         <v>7.765000000000002</v>
@@ -29131,7 +29153,7 @@
         <v>13.55000000000001</v>
       </c>
       <c r="K563" t="n">
-        <v>-15.25423728813571</v>
+        <v>-30.43478260869619</v>
       </c>
       <c r="L563" t="n">
         <v>7.759000000000002</v>
@@ -29182,7 +29204,7 @@
         <v>13.57000000000001</v>
       </c>
       <c r="K564" t="n">
-        <v>-28.57142857142869</v>
+        <v>-47.82608695652214</v>
       </c>
       <c r="L564" t="n">
         <v>7.750000000000002</v>
@@ -29233,7 +29255,7 @@
         <v>13.59000000000001</v>
       </c>
       <c r="K565" t="n">
-        <v>-31.03448275862092</v>
+        <v>-52.0000000000007</v>
       </c>
       <c r="L565" t="n">
         <v>7.737000000000002</v>
@@ -29284,7 +29306,7 @@
         <v>13.60000000000001</v>
       </c>
       <c r="K566" t="n">
-        <v>-20.7547169811323</v>
+        <v>-46.15384615384686</v>
       </c>
       <c r="L566" t="n">
         <v>7.725000000000001</v>
@@ -29335,7 +29357,7 @@
         <v>13.69000000000001</v>
       </c>
       <c r="K567" t="n">
-        <v>-3.225806451613</v>
+        <v>-5.88235294117667</v>
       </c>
       <c r="L567" t="n">
         <v>7.722000000000001</v>
@@ -29386,7 +29408,7 @@
         <v>13.77000000000001</v>
       </c>
       <c r="K568" t="n">
-        <v>8.571428571428568</v>
+        <v>29.72972972972978</v>
       </c>
       <c r="L568" t="n">
         <v>7.728</v>
@@ -29437,7 +29459,7 @@
         <v>13.87000000000001</v>
       </c>
       <c r="K569" t="n">
-        <v>-5.000000000000034</v>
+        <v>-4.545454545454472</v>
       </c>
       <c r="L569" t="n">
         <v>7.729000000000001</v>
@@ -29488,7 +29510,7 @@
         <v>13.87000000000001</v>
       </c>
       <c r="K570" t="n">
-        <v>-3.797468354430432</v>
+        <v>7.69230769230778</v>
       </c>
       <c r="L570" t="n">
         <v>7.727000000000001</v>
@@ -29539,7 +29561,7 @@
         <v>13.88000000000001</v>
       </c>
       <c r="K571" t="n">
-        <v>11.76470588235302</v>
+        <v>16.66666666666683</v>
       </c>
       <c r="L571" t="n">
         <v>7.729000000000001</v>
@@ -29590,7 +29612,7 @@
         <v>13.90000000000001</v>
       </c>
       <c r="K572" t="n">
-        <v>-1.587301587301706</v>
+        <v>2.857142857142814</v>
       </c>
       <c r="L572" t="n">
         <v>7.733000000000001</v>
@@ -29641,7 +29663,7 @@
         <v>13.91000000000001</v>
       </c>
       <c r="K573" t="n">
-        <v>-10</v>
+        <v>5.882352941176379</v>
       </c>
       <c r="L573" t="n">
         <v>7.733000000000001</v>
@@ -29692,7 +29714,7 @@
         <v>13.91000000000001</v>
       </c>
       <c r="K574" t="n">
-        <v>-11.86440677966118</v>
+        <v>12.50000000000007</v>
       </c>
       <c r="L574" t="n">
         <v>7.735000000000001</v>
@@ -29743,7 +29765,7 @@
         <v>13.94000000000001</v>
       </c>
       <c r="K575" t="n">
-        <v>-10.00000000000003</v>
+        <v>17.64705882352966</v>
       </c>
       <c r="L575" t="n">
         <v>7.742</v>
@@ -29794,7 +29816,7 @@
         <v>13.99000000000001</v>
       </c>
       <c r="K576" t="n">
-        <v>-16.92307692307697</v>
+        <v>-26.66666666666649</v>
       </c>
       <c r="L576" t="n">
         <v>7.743</v>
@@ -29845,7 +29867,7 @@
         <v>14.02000000000001</v>
       </c>
       <c r="K577" t="n">
-        <v>-20.58823529411772</v>
+        <v>-75.9999999999998</v>
       </c>
       <c r="L577" t="n">
         <v>7.732000000000001</v>
@@ -29896,7 +29918,7 @@
         <v>14.03000000000001</v>
       </c>
       <c r="K578" t="n">
-        <v>-17.64705882352953</v>
+        <v>-50</v>
       </c>
       <c r="L578" t="n">
         <v>7.714000000000001</v>
@@ -29947,7 +29969,7 @@
         <v>14.04000000000001</v>
       </c>
       <c r="K579" t="n">
-        <v>-9.375000000000123</v>
+        <v>-41.17647058823548</v>
       </c>
       <c r="L579" t="n">
         <v>7.707000000000003</v>
@@ -29998,7 +30020,7 @@
         <v>14.06000000000001</v>
       </c>
       <c r="K580" t="n">
-        <v>-17.46031746031745</v>
+        <v>-44.44444444444456</v>
       </c>
       <c r="L580" t="n">
         <v>7.698000000000002</v>
@@ -30049,7 +30071,7 @@
         <v>14.06000000000001</v>
       </c>
       <c r="K581" t="n">
-        <v>-10.34482758620686</v>
+        <v>-37.49999999999972</v>
       </c>
       <c r="L581" t="n">
         <v>7.690000000000002</v>
@@ -30100,7 +30122,7 @@
         <v>14.06000000000001</v>
       </c>
       <c r="K582" t="n">
-        <v>-3.70370370370363</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L582" t="n">
         <v>7.684000000000002</v>
@@ -30151,7 +30173,7 @@
         <v>14.06000000000001</v>
       </c>
       <c r="K583" t="n">
-        <v>-9.803921568627455</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L583" t="n">
         <v>7.679000000000002</v>
@@ -30202,7 +30224,7 @@
         <v>14.06000000000001</v>
       </c>
       <c r="K584" t="n">
-        <v>-6.122448979591907</v>
+        <v>-66.66666666666617</v>
       </c>
       <c r="L584" t="n">
         <v>7.674000000000002</v>
@@ -30253,7 +30275,7 @@
         <v>14.12000000000001</v>
       </c>
       <c r="K585" t="n">
-        <v>-13.20754716981139</v>
+        <v>-69.23076923076938</v>
       </c>
       <c r="L585" t="n">
         <v>7.660000000000002</v>
@@ -30304,7 +30326,7 @@
         <v>14.12000000000001</v>
       </c>
       <c r="K586" t="n">
-        <v>-15.38461538461541</v>
+        <v>-60.00000000000071</v>
       </c>
       <c r="L586" t="n">
         <v>7.651000000000002</v>
@@ -30355,7 +30377,7 @@
         <v>14.14000000000001</v>
       </c>
       <c r="K587" t="n">
-        <v>-42.22222222222218</v>
+        <v>-81.81818181818211</v>
       </c>
       <c r="L587" t="n">
         <v>7.643000000000002</v>
@@ -30406,7 +30428,7 @@
         <v>14.18000000000001</v>
       </c>
       <c r="K588" t="n">
-        <v>-56.09756097560962</v>
+        <v>-42.85714285714241</v>
       </c>
       <c r="L588" t="n">
         <v>7.638000000000003</v>
@@ -30457,7 +30479,7 @@
         <v>14.22000000000001</v>
       </c>
       <c r="K589" t="n">
-        <v>-25.7142857142857</v>
+        <v>0</v>
       </c>
       <c r="L589" t="n">
         <v>7.636000000000001</v>
@@ -30508,7 +30530,7 @@
         <v>14.30000000000001</v>
       </c>
       <c r="K590" t="n">
-        <v>-39.53488372093024</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L590" t="n">
         <v>7.628000000000002</v>
@@ -30559,7 +30581,7 @@
         <v>14.31000000000001</v>
       </c>
       <c r="K591" t="n">
-        <v>-39.53488372093024</v>
+        <v>-35.99999999999994</v>
       </c>
       <c r="L591" t="n">
         <v>7.619000000000002</v>
@@ -30610,7 +30632,7 @@
         <v>14.34000000000001</v>
       </c>
       <c r="K592" t="n">
-        <v>-27.27272727272733</v>
+        <v>-21.42857142857165</v>
       </c>
       <c r="L592" t="n">
         <v>7.613000000000002</v>
@@ -30661,7 +30683,7 @@
         <v>14.36000000000001</v>
       </c>
       <c r="K593" t="n">
-        <v>-19.99999999999992</v>
+        <v>-13.33333333333331</v>
       </c>
       <c r="L593" t="n">
         <v>7.609000000000004</v>
@@ -30712,7 +30734,7 @@
         <v>14.38000000000001</v>
       </c>
       <c r="K594" t="n">
-        <v>-23.40425531914897</v>
+        <v>0</v>
       </c>
       <c r="L594" t="n">
         <v>7.603000000000003</v>
@@ -30763,7 +30785,7 @@
         <v>14.39000000000001</v>
       </c>
       <c r="K595" t="n">
-        <v>-28.88888888888868</v>
+        <v>3.703703703703935</v>
       </c>
       <c r="L595" t="n">
         <v>7.604000000000004</v>
@@ -30814,7 +30836,7 @@
         <v>14.41000000000001</v>
       </c>
       <c r="K596" t="n">
-        <v>-23.80952380952384</v>
+        <v>3.703703703703606</v>
       </c>
       <c r="L596" t="n">
         <v>7.603000000000004</v>
@@ -30865,7 +30887,7 @@
         <v>14.47000000000001</v>
       </c>
       <c r="K597" t="n">
-        <v>-2.222222222222169</v>
+        <v>10.34482758620695</v>
       </c>
       <c r="L597" t="n">
         <v>7.610000000000005</v>
@@ -30916,7 +30938,7 @@
         <v>14.54000000000001</v>
       </c>
       <c r="K598" t="n">
-        <v>9.80392156862742</v>
+        <v>18.74999999999986</v>
       </c>
       <c r="L598" t="n">
         <v>7.620000000000005</v>
@@ -30967,7 +30989,7 @@
         <v>14.62000000000001</v>
       </c>
       <c r="K599" t="n">
-        <v>-6.896551724137937</v>
+        <v>18.74999999999986</v>
       </c>
       <c r="L599" t="n">
         <v>7.618000000000005</v>
@@ -31018,7 +31040,7 @@
         <v>14.64000000000001</v>
       </c>
       <c r="K600" t="n">
-        <v>0</v>
+        <v>27.27272727272708</v>
       </c>
       <c r="L600" t="n">
         <v>7.626000000000005</v>
@@ -31069,7 +31091,7 @@
         <v>14.65000000000001</v>
       </c>
       <c r="K601" t="n">
-        <v>-1.694915254237247</v>
+        <v>16.12903225806463</v>
       </c>
       <c r="L601" t="n">
         <v>7.634000000000006</v>
@@ -31120,7 +31142,7 @@
         <v>14.68000000000001</v>
       </c>
       <c r="K602" t="n">
-        <v>-6.451612903225802</v>
+        <v>0</v>
       </c>
       <c r="L602" t="n">
         <v>7.636000000000007</v>
@@ -31171,7 +31193,7 @@
         <v>14.73000000000001</v>
       </c>
       <c r="K603" t="n">
-        <v>1.4925373134328</v>
+        <v>20</v>
       </c>
       <c r="L603" t="n">
         <v>7.641000000000007</v>
@@ -31222,7 +31244,7 @@
         <v>14.73000000000001</v>
       </c>
       <c r="K604" t="n">
-        <v>1.4925373134328</v>
+        <v>17.64705882352931</v>
       </c>
       <c r="L604" t="n">
         <v>7.648000000000008</v>
@@ -31273,7 +31295,7 @@
         <v>14.73000000000001</v>
       </c>
       <c r="K605" t="n">
-        <v>11.4754098360656</v>
+        <v>25</v>
       </c>
       <c r="L605" t="n">
         <v>7.654000000000008</v>
@@ -31324,7 +31346,7 @@
         <v>14.76000000000002</v>
       </c>
       <c r="K606" t="n">
-        <v>6.249999999999982</v>
+        <v>-3.448275862069187</v>
       </c>
       <c r="L606" t="n">
         <v>7.659000000000008</v>
@@ -31375,7 +31397,7 @@
         <v>14.77000000000002</v>
       </c>
       <c r="K607" t="n">
-        <v>11.11111111111108</v>
+        <v>-30.43478260869486</v>
       </c>
       <c r="L607" t="n">
         <v>7.659000000000008</v>
@@ -31426,7 +31448,7 @@
         <v>14.79000000000002</v>
       </c>
       <c r="K608" t="n">
-        <v>8.196721311475342</v>
+        <v>17.6470588235292</v>
       </c>
       <c r="L608" t="n">
         <v>7.654000000000008</v>
@@ -31477,7 +31499,7 @@
         <v>14.82000000000002</v>
       </c>
       <c r="K609" t="n">
-        <v>-3.333333333333383</v>
+        <v>-11.11111111111117</v>
       </c>
       <c r="L609" t="n">
         <v>7.654000000000008</v>
@@ -31528,7 +31550,7 @@
         <v>14.82000000000002</v>
       </c>
       <c r="K610" t="n">
-        <v>11.53846153846136</v>
+        <v>-5.882352941176747</v>
       </c>
       <c r="L610" t="n">
         <v>7.652000000000008</v>
@@ -31579,7 +31601,7 @@
         <v>14.82000000000002</v>
       </c>
       <c r="K611" t="n">
-        <v>13.72549019607817</v>
+        <v>14.28571428571356</v>
       </c>
       <c r="L611" t="n">
         <v>7.651000000000008</v>
@@ -31630,7 +31652,7 @@
         <v>14.83000000000002</v>
       </c>
       <c r="K612" t="n">
-        <v>6.122448979591819</v>
+        <v>-39.99999999999876</v>
       </c>
       <c r="L612" t="n">
         <v>7.652000000000006</v>
@@ -31681,7 +31703,7 @@
         <v>14.84000000000002</v>
       </c>
       <c r="K613" t="n">
-        <v>0</v>
+        <v>-45.45454545454406</v>
       </c>
       <c r="L613" t="n">
         <v>7.647000000000007</v>
@@ -31732,7 +31754,7 @@
         <v>14.84000000000002</v>
       </c>
       <c r="K614" t="n">
-        <v>4.347826086956581</v>
+        <v>-45.45454545454406</v>
       </c>
       <c r="L614" t="n">
         <v>7.642000000000007</v>
@@ -31783,7 +31805,7 @@
         <v>14.86000000000002</v>
       </c>
       <c r="K615" t="n">
-        <v>-2.127659574468218</v>
+        <v>-39.99999999999947</v>
       </c>
       <c r="L615" t="n">
         <v>7.635000000000007</v>
@@ -31834,7 +31856,7 @@
         <v>14.86000000000002</v>
       </c>
       <c r="K616" t="n">
-        <v>2.222222222222161</v>
+        <v>-55.55555555555644</v>
       </c>
       <c r="L616" t="n">
         <v>7.631000000000006</v>
@@ -31885,7 +31907,7 @@
         <v>14.89000000000002</v>
       </c>
       <c r="K617" t="n">
-        <v>-19.04761904761899</v>
+        <v>-100</v>
       </c>
       <c r="L617" t="n">
         <v>7.623000000000005</v>
@@ -31936,7 +31958,7 @@
         <v>14.89000000000002</v>
       </c>
       <c r="K618" t="n">
-        <v>-42.85714285714231</v>
+        <v>-100.0000000000013</v>
       </c>
       <c r="L618" t="n">
         <v>7.613000000000004</v>
@@ -31987,7 +32009,7 @@
         <v>14.89000000000002</v>
       </c>
       <c r="K619" t="n">
-        <v>-25.9259259259254</v>
+        <v>-100.0000000000013</v>
       </c>
       <c r="L619" t="n">
         <v>7.606000000000004</v>
@@ -32038,7 +32060,7 @@
         <v>14.90000000000002</v>
       </c>
       <c r="K620" t="n">
-        <v>-38.46153846153844</v>
+        <v>-100.0000000000022</v>
       </c>
       <c r="L620" t="n">
         <v>7.598000000000004</v>
@@ -32089,7 +32111,7 @@
         <v>14.94000000000002</v>
       </c>
       <c r="K621" t="n">
-        <v>-17.24137931034502</v>
+        <v>-27.27272727272808</v>
       </c>
       <c r="L621" t="n">
         <v>7.594000000000004</v>
@@ -32191,7 +32213,7 @@
         <v>14.97000000000001</v>
       </c>
       <c r="K623" t="n">
-        <v>-16.66666666666666</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L623" t="n">
         <v>7.594000000000004</v>
@@ -32242,7 +32264,7 @@
         <v>15.00000000000001</v>
       </c>
       <c r="K624" t="n">
-        <v>-25.92592592592607</v>
+        <v>0</v>
       </c>
       <c r="L624" t="n">
         <v>7.592000000000003</v>
@@ -32293,7 +32315,7 @@
         <v>15.01000000000001</v>
       </c>
       <c r="K625" t="n">
-        <v>-28.57142857142867</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L625" t="n">
         <v>7.591000000000004</v>
@@ -32344,7 +32366,7 @@
         <v>15.02000000000001</v>
       </c>
       <c r="K626" t="n">
-        <v>-23.0769230769231</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L626" t="n">
         <v>7.589000000000004</v>
@@ -32395,7 +32417,7 @@
         <v>15.03000000000001</v>
       </c>
       <c r="K627" t="n">
-        <v>-30.76923076923124</v>
+        <v>0</v>
       </c>
       <c r="L627" t="n">
         <v>7.589000000000004</v>
@@ -32446,7 +32468,7 @@
         <v>15.06000000000001</v>
       </c>
       <c r="K628" t="n">
-        <v>-25.92592592592641</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L628" t="n">
         <v>7.592000000000004</v>
@@ -32497,7 +32519,7 @@
         <v>15.08000000000001</v>
       </c>
       <c r="K629" t="n">
-        <v>-7.692307692307693</v>
+        <v>33.33333333333432</v>
       </c>
       <c r="L629" t="n">
         <v>7.597000000000006</v>
@@ -32548,7 +32570,7 @@
         <v>15.08000000000001</v>
       </c>
       <c r="K630" t="n">
-        <v>-7.692307692307693</v>
+        <v>14.28571428571492</v>
       </c>
       <c r="L630" t="n">
         <v>7.603000000000006</v>
@@ -32599,7 +32621,7 @@
         <v>15.10000000000001</v>
       </c>
       <c r="K631" t="n">
-        <v>-14.2857142857146</v>
+        <v>-14.28571428571492</v>
       </c>
       <c r="L631" t="n">
         <v>7.603000000000006</v>
@@ -32650,7 +32672,7 @@
         <v>15.10000000000001</v>
       </c>
       <c r="K632" t="n">
-        <v>-11.11111111111144</v>
+        <v>-23.07692307692376</v>
       </c>
       <c r="L632" t="n">
         <v>7.601000000000004</v>
@@ -32701,7 +32723,7 @@
         <v>15.10000000000001</v>
       </c>
       <c r="K633" t="n">
-        <v>-7.692307692308034</v>
+        <v>0</v>
       </c>
       <c r="L633" t="n">
         <v>7.598000000000004</v>
@@ -32752,7 +32774,7 @@
         <v>15.10000000000001</v>
       </c>
       <c r="K634" t="n">
-        <v>-7.692307692308034</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L634" t="n">
         <v>7.598000000000004</v>
@@ -32803,7 +32825,7 @@
         <v>15.14000000000001</v>
       </c>
       <c r="K635" t="n">
-        <v>-14.2857142857146</v>
+        <v>-16.66666666666741</v>
       </c>
       <c r="L635" t="n">
         <v>7.595000000000004</v>

--- a/BackTest/2019-11-13 BackTest VET.xlsx
+++ b/BackTest/2019-11-13 BackTest VET.xlsx
@@ -451,17 +451,13 @@
         <v>7.014666666666669</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="K2" t="n">
-        <v>7.04</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>7.014500000000002</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="K3" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>7.013333333333335</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>7.013333333333335</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="K5" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>7.013166666666669</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="K6" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>7.012833333333335</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="K7" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>7.011500000000002</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="K8" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -748,22 +696,14 @@
         <v>7.011500000000002</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="K9" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -791,22 +731,14 @@
         <v>7.011000000000002</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="K10" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -834,22 +766,14 @@
         <v>7.011166666666669</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="K11" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -877,22 +801,14 @@
         <v>7.010666666666669</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="K12" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -920,22 +836,14 @@
         <v>7.009833333333336</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="K13" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -963,22 +871,14 @@
         <v>7.008666666666669</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="K14" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1006,22 +906,14 @@
         <v>7.008666666666669</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="K15" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1049,22 +941,14 @@
         <v>7.009000000000002</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>7.06</v>
-      </c>
-      <c r="K16" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1092,22 +976,14 @@
         <v>7.010333333333336</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="K17" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1135,22 +1011,14 @@
         <v>7.01166666666667</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="K18" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1178,22 +1046,14 @@
         <v>7.011833333333337</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>7.06</v>
-      </c>
-      <c r="K19" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1227,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1262,22 +1116,14 @@
         <v>7.014000000000005</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="K21" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1305,22 +1151,14 @@
         <v>7.015666666666672</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="K22" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1354,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1395,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1436,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1477,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1518,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1559,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1600,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1641,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1682,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1723,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1764,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1805,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1846,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1887,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1928,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1969,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2010,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2051,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2092,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2133,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2174,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2215,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2256,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2297,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2338,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2379,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2420,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2461,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2502,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2543,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2584,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2625,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2666,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2707,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2748,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2789,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2830,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2871,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2912,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2953,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2994,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3035,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3076,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3117,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3158,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3199,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3240,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3281,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3322,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3363,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3404,14 +2942,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3445,14 +2977,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3486,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3527,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3568,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3609,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3650,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3691,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3732,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3773,14 +3257,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3814,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3855,14 +3327,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3896,14 +3362,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3937,14 +3397,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3978,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4016,19 +3464,13 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>1.070284090909091</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -4057,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -4092,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -4127,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -5104,13 +4546,17 @@
         <v>7.429999999999995</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="K119" t="n">
+        <v>7.41</v>
+      </c>
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
@@ -5145,8 +4591,14 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5180,8 +4632,14 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5215,8 +4673,14 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5250,8 +4714,14 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5279,14 +4749,22 @@
         <v>7.432666666666662</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="K124" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5314,14 +4792,22 @@
         <v>7.433666666666662</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K125" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5355,8 +4841,14 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5390,8 +4882,14 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5425,8 +4923,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5460,8 +4964,14 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5495,8 +5005,14 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5530,8 +5046,14 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5565,8 +5087,14 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5600,8 +5128,14 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5629,14 +5163,22 @@
         <v>7.426666666666662</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="K134" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5670,8 +5212,14 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5705,8 +5253,14 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5740,8 +5294,14 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5775,8 +5335,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5810,8 +5376,14 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5845,8 +5417,14 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5880,8 +5458,14 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5915,8 +5499,14 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5950,8 +5540,14 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5985,8 +5581,14 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6020,8 +5622,14 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6055,8 +5663,14 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6090,8 +5704,14 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6125,8 +5745,14 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6160,8 +5786,14 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6195,8 +5827,14 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6230,8 +5868,14 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6265,8 +5909,14 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6300,8 +5950,14 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6335,8 +5991,14 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6370,8 +6032,14 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6405,8 +6073,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6440,8 +6114,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6475,8 +6155,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6510,8 +6196,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6545,8 +6237,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6580,8 +6278,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6615,8 +6319,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6650,8 +6360,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6685,8 +6401,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6720,8 +6442,14 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6752,11 +6480,17 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6790,8 +6524,14 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6825,8 +6565,14 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6860,8 +6606,14 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6895,8 +6647,14 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6930,8 +6688,14 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6965,8 +6729,14 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7000,8 +6770,14 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7035,8 +6811,14 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7070,8 +6852,14 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7105,8 +6893,14 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7140,8 +6934,14 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7175,8 +6975,14 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7210,8 +7016,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7245,8 +7057,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7280,8 +7098,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7315,8 +7139,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7350,8 +7180,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7385,8 +7221,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7420,8 +7262,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7455,8 +7303,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7490,8 +7344,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7525,8 +7385,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7560,8 +7426,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7595,8 +7467,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7630,8 +7508,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7665,8 +7549,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7700,8 +7590,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7735,8 +7631,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7770,8 +7672,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7805,8 +7713,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7840,8 +7754,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7875,8 +7795,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7910,8 +7836,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7945,8 +7877,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7980,8 +7918,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8015,8 +7959,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8050,8 +8000,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8085,8 +8041,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8120,8 +8082,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8155,8 +8123,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8190,8 +8164,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8225,8 +8205,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8260,8 +8246,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8295,8 +8287,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8330,8 +8328,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8365,8 +8369,14 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8400,8 +8410,14 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8435,8 +8451,14 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8470,8 +8492,14 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8505,8 +8533,14 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8540,8 +8574,14 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8575,8 +8615,14 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8610,8 +8656,14 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8645,8 +8697,14 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8680,8 +8738,14 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8715,8 +8779,14 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8750,8 +8820,14 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8779,14 +8855,22 @@
         <v>7.528333333333336</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="K224" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8814,14 +8898,22 @@
         <v>7.52716666666667</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="K225" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8855,8 +8947,14 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8890,8 +8988,14 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8925,8 +9029,14 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8960,8 +9070,14 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8989,14 +9105,22 @@
         <v>7.520000000000001</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="K230" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9024,14 +9148,22 @@
         <v>7.520500000000001</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="K231" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9059,14 +9191,22 @@
         <v>7.520166666666668</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="K232" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9094,14 +9234,22 @@
         <v>7.519500000000002</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K233" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9129,14 +9277,22 @@
         <v>7.519333333333335</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K234" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9170,8 +9326,14 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9205,8 +9367,14 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9240,8 +9408,14 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9275,8 +9449,14 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9310,8 +9490,14 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9339,14 +9525,22 @@
         <v>7.512166666666667</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K240" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9374,14 +9568,22 @@
         <v>7.5115</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="K241" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9409,14 +9611,22 @@
         <v>7.5095</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="K242" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9450,8 +9660,14 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9479,14 +9695,22 @@
         <v>7.504333333333332</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K244" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9514,14 +9738,22 @@
         <v>7.500666666666665</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K245" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9549,14 +9781,22 @@
         <v>7.497333333333332</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K246" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9590,8 +9830,14 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9619,14 +9865,22 @@
         <v>7.489333333333332</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K248" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9654,14 +9908,22 @@
         <v>7.484333333333333</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="K249" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9689,14 +9951,22 @@
         <v>7.48</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K250" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9724,14 +9994,22 @@
         <v>7.475833333333332</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="K251" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9759,14 +10037,22 @@
         <v>7.472499999999999</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="K252" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9800,8 +10086,14 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9829,14 +10121,22 @@
         <v>7.469999999999999</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="K254" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9870,8 +10170,14 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9905,8 +10211,14 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9940,8 +10252,14 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9975,8 +10293,14 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10010,8 +10334,14 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10045,8 +10375,14 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10080,8 +10416,14 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10115,8 +10457,14 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10150,8 +10498,14 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10185,8 +10539,14 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10220,8 +10580,14 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10255,8 +10621,14 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10290,8 +10662,14 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10325,8 +10703,14 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10360,8 +10744,14 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10395,8 +10785,14 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10430,8 +10826,14 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10465,8 +10867,14 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10500,8 +10908,14 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10535,8 +10949,14 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10570,8 +10990,14 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10605,8 +11031,14 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10640,8 +11072,14 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10675,8 +11113,14 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10710,8 +11154,14 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10745,8 +11195,14 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10780,8 +11236,14 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10815,8 +11277,14 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10850,8 +11318,14 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10885,8 +11359,14 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10920,8 +11400,14 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10955,8 +11441,14 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10990,8 +11482,14 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11025,8 +11523,14 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11060,8 +11564,14 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11095,8 +11605,14 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11130,8 +11646,14 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11165,8 +11687,14 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11200,8 +11728,14 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11235,8 +11769,14 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11270,8 +11810,14 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11299,14 +11845,22 @@
         <v>7.389999999999997</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="K296" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11340,8 +11894,14 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11375,8 +11935,14 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11410,8 +11976,14 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -11445,8 +12017,14 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -11480,8 +12058,14 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -11515,8 +12099,14 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -11550,8 +12140,14 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -11585,8 +12181,14 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -11620,8 +12222,14 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -11655,8 +12263,14 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -11690,8 +12304,14 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -11725,8 +12345,14 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -11760,8 +12386,14 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -11795,8 +12427,14 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -11830,8 +12468,14 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -11865,8 +12509,14 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -11900,8 +12550,14 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -11935,8 +12591,14 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -11970,8 +12632,14 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -12005,8 +12673,14 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -12040,8 +12714,14 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -12075,8 +12755,14 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -12110,8 +12796,14 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -12145,8 +12837,14 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -12180,8 +12878,14 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12215,8 +12919,14 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -12250,8 +12960,14 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12285,8 +13001,14 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12320,8 +13042,14 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12355,8 +13083,14 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12390,8 +13124,14 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12425,8 +13165,14 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -12460,8 +13206,14 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -12495,8 +13247,14 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -12530,8 +13288,14 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -12565,8 +13329,14 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -12600,8 +13370,14 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -12635,8 +13411,14 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -12670,8 +13452,14 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -12705,8 +13493,14 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -12740,8 +13534,14 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -12775,8 +13575,14 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -12810,8 +13616,14 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -12845,8 +13657,14 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -12880,8 +13698,14 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -12915,8 +13739,14 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -12950,8 +13780,14 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -12985,8 +13821,14 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -13020,8 +13862,14 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -13055,8 +13903,14 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -13090,8 +13944,14 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -13125,8 +13985,14 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -13160,8 +14026,14 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -13195,8 +14067,14 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13230,8 +14108,14 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13265,8 +14149,14 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13300,8 +14190,14 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13335,8 +14231,14 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13370,8 +14272,14 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13405,8 +14313,14 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -13440,8 +14354,14 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -13475,8 +14395,14 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -13510,8 +14436,14 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -13545,8 +14477,14 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="K360" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -13580,8 +14518,14 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -13615,8 +14559,14 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -13650,8 +14600,14 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -13685,8 +14641,14 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -13720,8 +14682,14 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -13755,8 +14723,14 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -13790,8 +14764,14 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -13825,8 +14805,14 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="K368" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -13860,8 +14846,14 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="K369" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -13895,8 +14887,14 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="K370" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -13930,8 +14928,14 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="K371" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -13965,8 +14969,14 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -13994,14 +15004,22 @@
         <v>7.371833333333336</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
       </c>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="K373" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -14029,14 +15047,22 @@
         <v>7.370000000000003</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
       </c>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="K374" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -14070,8 +15096,14 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="K375" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -14105,8 +15137,14 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="K376" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -14140,8 +15178,14 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="K377" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -14175,8 +15219,14 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="K378" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -14210,8 +15260,14 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="K379" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -14245,8 +15301,14 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="K380" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -14280,8 +15342,14 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="K381" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14315,8 +15383,14 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="K382" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -14350,8 +15424,14 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="K383" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14385,8 +15465,14 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="K384" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14420,8 +15506,14 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="K385" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -14455,8 +15547,14 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="K386" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -14490,8 +15588,14 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="K387" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -14525,8 +15629,14 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="K388" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -14560,8 +15670,14 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="K389" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14595,8 +15711,14 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="K390" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -14630,8 +15752,14 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="K391" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -14665,8 +15793,14 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="K392" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -14700,8 +15834,14 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="K393" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -14735,8 +15875,14 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="K394" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -14770,8 +15916,14 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="K395" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -14805,8 +15957,14 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="K396" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -14840,8 +15998,14 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="K397" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -14875,8 +16039,14 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="K398" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -14910,8 +16080,14 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="K399" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -14945,8 +16121,14 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="K400" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -14980,8 +16162,14 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="K401" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -15015,8 +16203,14 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="K402" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -15050,8 +16244,14 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="K403" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -15085,8 +16285,14 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="K404" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -15120,8 +16326,14 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="K405" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -15155,8 +16367,14 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="K406" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -15190,8 +16408,14 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="K407" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -15225,8 +16449,14 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="K408" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -15260,8 +16490,14 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="K409" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -15295,8 +16531,14 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="K410" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15330,8 +16572,14 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="K411" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15365,8 +16613,14 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="K412" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15400,8 +16654,14 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="K413" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -15435,8 +16695,14 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="K414" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -15470,8 +16736,14 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="K415" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -15505,8 +16777,14 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="K416" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -15540,8 +16818,14 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="K417" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15575,8 +16859,14 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="K418" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15610,8 +16900,14 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="K419" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -15645,8 +16941,14 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="K420" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15680,8 +16982,14 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="K421" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -15715,8 +17023,14 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="K422" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -15750,8 +17064,14 @@
         <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="K423" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -15785,8 +17105,14 @@
         <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="K424" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -15820,8 +17146,14 @@
         <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="K425" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -15855,8 +17187,14 @@
         <v>0</v>
       </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="K426" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -15890,8 +17228,14 @@
         <v>0</v>
       </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="K427" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -15925,8 +17269,14 @@
         <v>0</v>
       </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="K428" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -15960,8 +17310,14 @@
         <v>0</v>
       </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="K429" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -15995,8 +17351,14 @@
         <v>0</v>
       </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="K430" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -16030,8 +17392,14 @@
         <v>0</v>
       </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="K431" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -16065,8 +17433,14 @@
         <v>0</v>
       </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="K432" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -16100,8 +17474,14 @@
         <v>0</v>
       </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="K433" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -16135,8 +17515,14 @@
         <v>0</v>
       </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="K434" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -16170,8 +17556,14 @@
         <v>0</v>
       </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="K435" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -16205,8 +17597,14 @@
         <v>0</v>
       </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="K436" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -16240,8 +17638,14 @@
         <v>0</v>
       </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
+      <c r="K437" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -16275,8 +17679,14 @@
         <v>0</v>
       </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
+      <c r="K438" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -16310,8 +17720,14 @@
         <v>0</v>
       </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
+      <c r="K439" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -16345,8 +17761,14 @@
         <v>0</v>
       </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
+      <c r="K440" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -16380,8 +17802,14 @@
         <v>0</v>
       </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr"/>
+      <c r="K441" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -16415,8 +17843,14 @@
         <v>0</v>
       </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
+      <c r="K442" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -16450,8 +17884,14 @@
         <v>0</v>
       </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr"/>
+      <c r="K443" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -16485,8 +17925,14 @@
         <v>0</v>
       </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
+      <c r="K444" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -16520,8 +17966,14 @@
         <v>0</v>
       </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
+      <c r="K445" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -16552,13 +18004,19 @@
         <v>0</v>
       </c>
       <c r="I446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
+      <c r="K446" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M446" t="n">
-        <v>1</v>
+        <v>1.031437246963563</v>
       </c>
     </row>
     <row r="447">
@@ -16587,7 +18045,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
@@ -16622,7 +18080,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
@@ -16692,7 +18150,7 @@
         <v>0</v>
       </c>
       <c r="I450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
@@ -16762,7 +18220,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>

--- a/BackTest/2019-11-13 BackTest VET.xlsx
+++ b/BackTest/2019-11-13 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1606,11 +1606,17 @@
         <v>-3182722.722910807</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>7</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1645,17 @@
         <v>-3182722.722910807</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>6.97</v>
+      </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1684,17 @@
         <v>-3181479.843010807</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>6.97</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1723,17 @@
         <v>-3199179.543710807</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>6.99</v>
+      </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1762,17 @@
         <v>-3011266.559110807</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>6.97</v>
+      </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1801,17 @@
         <v>-3011266.559110807</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>7</v>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1840,17 @@
         <v>-3011266.559110807</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>7</v>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +1879,17 @@
         <v>-3011266.559110807</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>7</v>
+      </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +1918,17 @@
         <v>-3089710.638710807</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>7</v>
+      </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +1957,17 @@
         <v>-3046453.575310807</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>6.98</v>
+      </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +1996,17 @@
         <v>-3182941.212410807</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>6.99</v>
+      </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2035,17 @@
         <v>-3222016.039510807</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>6.97</v>
+      </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2074,17 @@
         <v>-3426498.401610807</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>6.96</v>
+      </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,15 +2113,17 @@
         <v>-3496706.730710807</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>6.95</v>
       </c>
-      <c r="J50" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,17 +2152,15 @@
         <v>-3762629.202910807</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>6.94</v>
       </c>
-      <c r="J51" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -2113,14 +2191,12 @@
         <v>-3762629.202910807</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>6.92</v>
       </c>
-      <c r="J52" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2154,14 +2230,12 @@
         <v>-3762629.202910807</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>6.92</v>
       </c>
-      <c r="J53" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2195,14 +2269,12 @@
         <v>-3762317.249010807</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>6.92</v>
       </c>
-      <c r="J54" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2236,14 +2308,12 @@
         <v>-3711496.313410807</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>6.93</v>
       </c>
-      <c r="J55" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2277,14 +2347,12 @@
         <v>-3396496.313410807</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>7</v>
       </c>
-      <c r="J56" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2318,14 +2386,12 @@
         <v>-3396496.313410807</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>7.01</v>
       </c>
-      <c r="J57" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2359,14 +2425,12 @@
         <v>-3457364.307610807</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>7.01</v>
       </c>
-      <c r="J58" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2400,14 +2464,12 @@
         <v>-2889647.057010808</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>7</v>
       </c>
-      <c r="J59" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2441,14 +2503,12 @@
         <v>-2889647.057010808</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>7.01</v>
       </c>
-      <c r="J60" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2482,14 +2542,12 @@
         <v>-2838401.355210808</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>7.01</v>
       </c>
-      <c r="J61" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2523,14 +2581,12 @@
         <v>-2682401.355210808</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>7.04</v>
       </c>
-      <c r="J62" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2564,14 +2620,12 @@
         <v>-2682595.382210807</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>7.05</v>
       </c>
-      <c r="J63" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2605,14 +2659,12 @@
         <v>-2680095.382210807</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>7.02</v>
       </c>
-      <c r="J64" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2646,14 +2698,12 @@
         <v>-2682595.382210807</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>7.06</v>
       </c>
-      <c r="J65" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2687,14 +2737,12 @@
         <v>-3018931.877610807</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>7.05</v>
       </c>
-      <c r="J66" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2728,12 +2776,12 @@
         <v>-3079588.304010808</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>6.95</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2767,14 +2815,12 @@
         <v>-3076588.304010808</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>7.01</v>
       </c>
-      <c r="J68" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2808,12 +2854,12 @@
         <v>-3076588.304010808</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>6.95</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2847,14 +2893,12 @@
         <v>-3076588.304010808</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>7.05</v>
       </c>
-      <c r="J70" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2888,14 +2932,12 @@
         <v>-3076588.304010808</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>7.05</v>
       </c>
-      <c r="J71" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2929,14 +2971,12 @@
         <v>-3076588.304010808</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>7.05</v>
       </c>
-      <c r="J72" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2970,14 +3010,10 @@
         <v>-3083805.179110807</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="J73" t="n">
-        <v>6.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3011,14 +3047,12 @@
         <v>-3074025.382110808</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>7.04</v>
       </c>
-      <c r="J74" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3052,12 +3086,12 @@
         <v>-3083975.382110808</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>6.95</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3091,12 +3125,12 @@
         <v>-2259697.973610808</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>6.95</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3133,9 +3167,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3172,9 +3204,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3211,9 +3241,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3250,9 +3278,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3289,9 +3315,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3328,9 +3352,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3367,9 +3389,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3406,9 +3426,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3445,9 +3463,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3484,9 +3500,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3523,9 +3537,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3562,9 +3574,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3601,9 +3611,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3640,9 +3648,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3679,9 +3685,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3718,9 +3722,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3757,9 +3759,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3796,9 +3796,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3835,9 +3833,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3874,9 +3870,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3913,9 +3907,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3952,9 +3944,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3991,9 +3981,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4030,9 +4018,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4069,9 +4055,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4108,9 +4092,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4147,9 +4129,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4186,9 +4166,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4225,9 +4203,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4264,9 +4240,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4303,9 +4277,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4342,9 +4314,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4381,9 +4351,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4420,9 +4388,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4456,12 +4422,10 @@
         <v>3328097.170756525</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4498,9 +4462,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4537,9 +4499,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4576,9 +4536,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4615,9 +4573,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4654,9 +4610,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4693,9 +4647,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4732,9 +4684,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4771,9 +4721,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4810,9 +4758,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4849,9 +4795,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4888,9 +4832,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4927,9 +4869,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4966,9 +4906,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5005,9 +4943,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5044,9 +4980,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5083,9 +5017,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5122,9 +5054,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5161,9 +5091,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5197,12 +5125,10 @@
         <v>2034415.289502214</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5236,12 +5162,10 @@
         <v>2052850.170202214</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5278,9 +5202,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5317,9 +5239,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5356,9 +5276,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5392,12 +5310,10 @@
         <v>4381317.180302214</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5431,12 +5347,10 @@
         <v>4381317.180302214</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5473,9 +5387,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5509,12 +5421,10 @@
         <v>2677855.260202214</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5548,12 +5458,10 @@
         <v>2677855.260202214</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5590,9 +5498,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5629,9 +5535,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5668,9 +5572,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5707,9 +5609,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5746,9 +5646,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5785,9 +5683,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5824,9 +5720,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5863,9 +5757,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5902,9 +5794,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5941,9 +5831,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5980,9 +5868,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6019,9 +5905,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6058,9 +5942,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6097,9 +5979,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6136,9 +6016,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6175,9 +6053,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6214,9 +6090,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6253,9 +6127,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6292,9 +6164,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6331,9 +6201,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6370,9 +6238,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6409,9 +6275,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6448,9 +6312,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6487,9 +6349,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6526,9 +6386,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6565,9 +6423,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6604,9 +6460,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6643,9 +6497,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6682,9 +6534,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6721,9 +6571,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6760,9 +6608,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6799,9 +6645,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6838,9 +6682,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6877,9 +6719,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6916,9 +6756,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6955,9 +6793,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6994,9 +6830,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7033,9 +6867,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7072,9 +6904,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7111,9 +6941,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7147,12 +6975,10 @@
         <v>2493293.721813912</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7189,9 +7015,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7228,9 +7052,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7267,9 +7089,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7306,9 +7126,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7345,9 +7163,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7384,9 +7200,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7423,9 +7237,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7462,9 +7274,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7501,9 +7311,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7540,9 +7348,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7579,9 +7385,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7615,12 +7419,10 @@
         <v>2275163.37116074</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7657,9 +7459,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7693,12 +7493,10 @@
         <v>2034992.15166074</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7732,12 +7530,10 @@
         <v>2283634.39556074</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7771,12 +7567,10 @@
         <v>2285024.56326074</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7813,9 +7607,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7849,12 +7641,10 @@
         <v>1596739.70436074</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7888,12 +7678,10 @@
         <v>1796809.70436074</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7930,9 +7718,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7969,9 +7755,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8008,9 +7792,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8047,9 +7829,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8083,12 +7863,10 @@
         <v>1648707.90804877</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8125,9 +7903,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8164,9 +7940,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8200,12 +7974,10 @@
         <v>62864.86824877001</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8239,12 +8011,10 @@
         <v>139654.35234877</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8278,12 +8048,10 @@
         <v>12834.42604877001</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8317,12 +8085,10 @@
         <v>11829.42604877001</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8356,12 +8122,10 @@
         <v>14398.99984877001</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8395,12 +8159,10 @@
         <v>17352.62094877001</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8437,9 +8199,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8476,9 +8236,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8515,9 +8273,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8551,12 +8307,10 @@
         <v>2199676.49354877</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8590,12 +8344,10 @@
         <v>2452591.18024877</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8629,12 +8381,10 @@
         <v>2571203.76564877</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8668,12 +8418,10 @@
         <v>2715241.19514877</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8707,12 +8455,10 @@
         <v>3102593.47914877</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8749,9 +8495,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8788,9 +8532,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8824,1276 +8566,1422 @@
         <v>3011197.054748771</v>
       </c>
       <c r="H223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>6.95</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="C224" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="D224" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="E224" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="F224" t="n">
+        <v>189573.8574</v>
+      </c>
+      <c r="G224" t="n">
+        <v>2821623.197348771</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="C225" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="D225" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="E225" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="F225" t="n">
+        <v>412186.4086</v>
+      </c>
+      <c r="G225" t="n">
+        <v>2821623.197348771</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="C226" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="D226" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="E226" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="F226" t="n">
+        <v>14578.6668</v>
+      </c>
+      <c r="G226" t="n">
+        <v>2836201.86414877</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="C227" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="D227" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="E227" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="F227" t="n">
+        <v>188426.5518</v>
+      </c>
+      <c r="G227" t="n">
+        <v>2647775.31234877</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="C228" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D228" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="E228" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F228" t="n">
+        <v>354875.4494</v>
+      </c>
+      <c r="G228" t="n">
+        <v>2292899.862948771</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="C229" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="D229" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="E229" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="F229" t="n">
+        <v>302215.8891</v>
+      </c>
+      <c r="G229" t="n">
+        <v>1990683.973848771</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="C230" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="D230" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E230" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="F230" t="n">
+        <v>947691.1089</v>
+      </c>
+      <c r="G230" t="n">
+        <v>2938375.082748771</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C231" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="D231" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="E231" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F231" t="n">
+        <v>792177.7561999999</v>
+      </c>
+      <c r="G231" t="n">
+        <v>3730552.83894877</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="C232" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="D232" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="E232" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="F232" t="n">
+        <v>501239.3219</v>
+      </c>
+      <c r="G232" t="n">
+        <v>4231792.16084877</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="C233" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="D233" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="E233" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="F233" t="n">
+        <v>26506.676</v>
+      </c>
+      <c r="G233" t="n">
+        <v>4205285.48484877</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="C234" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="D234" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="E234" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="F234" t="n">
+        <v>96686</v>
+      </c>
+      <c r="G234" t="n">
+        <v>4108599.48484877</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="C235" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="D235" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="E235" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="F235" t="n">
+        <v>29887.6405</v>
+      </c>
+      <c r="G235" t="n">
+        <v>4108599.48484877</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="C236" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="D236" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="E236" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="F236" t="n">
+        <v>105100.7691</v>
+      </c>
+      <c r="G236" t="n">
+        <v>4213700.25394877</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="C237" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="D237" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="E237" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="F237" t="n">
+        <v>70167.55079721115</v>
+      </c>
+      <c r="G237" t="n">
+        <v>4143532.703151559</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="C238" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="D238" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="E238" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="F238" t="n">
+        <v>100</v>
+      </c>
+      <c r="G238" t="n">
+        <v>4143432.703151559</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="C239" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="D239" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="E239" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="F239" t="n">
+        <v>88520.7841</v>
+      </c>
+      <c r="G239" t="n">
+        <v>4054911.91905156</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="C240" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="D240" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="E240" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="F240" t="n">
+        <v>23817.3019</v>
+      </c>
+      <c r="G240" t="n">
+        <v>4054911.91905156</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="C241" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="D241" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="E241" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="F241" t="n">
+        <v>148879.3645</v>
+      </c>
+      <c r="G241" t="n">
+        <v>4203791.28355156</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="C242" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="D242" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="E242" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1813133.6733</v>
+      </c>
+      <c r="G242" t="n">
+        <v>6016924.95685156</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="C243" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="D243" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="E243" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F243" t="n">
+        <v>647020.1598</v>
+      </c>
+      <c r="G243" t="n">
+        <v>5369904.79705156</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="C244" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="D244" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="E244" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="F244" t="n">
+        <v>945184.5568</v>
+      </c>
+      <c r="G244" t="n">
+        <v>6315089.353851561</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="C245" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="D245" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="E245" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="F245" t="n">
+        <v>604.9237000000001</v>
+      </c>
+      <c r="G245" t="n">
+        <v>6314484.43015156</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C246" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="D246" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="E246" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="F246" t="n">
+        <v>321973.4005</v>
+      </c>
+      <c r="G246" t="n">
+        <v>6636457.830651561</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C247" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="D247" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="E247" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="F247" t="n">
+        <v>343880.2221</v>
+      </c>
+      <c r="G247" t="n">
+        <v>6980338.052751561</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="C248" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="D248" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="E248" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="F248" t="n">
+        <v>258666.5732</v>
+      </c>
+      <c r="G248" t="n">
+        <v>6980338.052751561</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="C249" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="D249" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="E249" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="F249" t="n">
+        <v>287225.7937</v>
+      </c>
+      <c r="G249" t="n">
+        <v>6693112.25905156</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="C250" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="D250" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="E250" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="F250" t="n">
+        <v>391290.8387</v>
+      </c>
+      <c r="G250" t="n">
+        <v>6693112.25905156</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C251" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="D251" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="E251" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="F251" t="n">
+        <v>19000</v>
+      </c>
+      <c r="G251" t="n">
+        <v>6674112.25905156</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="C252" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="D252" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="E252" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="F252" t="n">
+        <v>34558.4248</v>
+      </c>
+      <c r="G252" t="n">
+        <v>6639553.83425156</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="C253" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="D253" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="E253" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="F253" t="n">
+        <v>828187.6605999999</v>
+      </c>
+      <c r="G253" t="n">
+        <v>5811366.17365156</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="C254" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="D254" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="E254" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="F254" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G254" t="n">
+        <v>5812366.17365156</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="C255" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="D255" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="E255" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="F255" t="n">
+        <v>25076.9503</v>
+      </c>
+      <c r="G255" t="n">
+        <v>5812366.17365156</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="C256" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="D256" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="E256" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="F256" t="n">
+        <v>119442.9613</v>
+      </c>
+      <c r="G256" t="n">
+        <v>5812366.17365156</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="C257" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="D257" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="E257" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="F257" t="n">
+        <v>296768.7138</v>
+      </c>
+      <c r="G257" t="n">
+        <v>5515597.45985156</v>
+      </c>
+      <c r="H257" t="n">
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="C258" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="D258" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="E258" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="F258" t="n">
+        <v>372042</v>
+      </c>
+      <c r="G258" t="n">
+        <v>5887639.45985156</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="C259" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="D259" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="E259" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="F259" t="n">
+        <v>847756.3443</v>
+      </c>
+      <c r="G259" t="n">
+        <v>5887639.45985156</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="C260" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="D260" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="E260" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="F260" t="n">
+        <v>937749.3199</v>
+      </c>
+      <c r="G260" t="n">
+        <v>6825388.77975156</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C261" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="D261" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="E261" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="F261" t="n">
+        <v>88247.3958</v>
+      </c>
+      <c r="G261" t="n">
+        <v>6913636.17555156</v>
+      </c>
+      <c r="H261" t="n">
+        <v>2</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L223" t="n">
-        <v>1.081330935251799</v>
-      </c>
-      <c r="M223" t="n">
-        <v>1.024495677233429</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="C224" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="D224" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="E224" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="F224" t="n">
-        <v>189573.8574</v>
-      </c>
-      <c r="G224" t="n">
-        <v>2821623.197348771</v>
-      </c>
-      <c r="H224" t="n">
-        <v>3</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="C225" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="D225" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="E225" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="F225" t="n">
-        <v>412186.4086</v>
-      </c>
-      <c r="G225" t="n">
-        <v>2821623.197348771</v>
-      </c>
-      <c r="H225" t="n">
-        <v>3</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="C226" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="D226" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="E226" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="F226" t="n">
-        <v>14578.6668</v>
-      </c>
-      <c r="G226" t="n">
-        <v>2836201.86414877</v>
-      </c>
-      <c r="H226" t="n">
-        <v>3</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="C227" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="D227" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="E227" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="F227" t="n">
-        <v>188426.5518</v>
-      </c>
-      <c r="G227" t="n">
-        <v>2647775.31234877</v>
-      </c>
-      <c r="H227" t="n">
-        <v>3</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="C228" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="D228" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="E228" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="F228" t="n">
-        <v>354875.4494</v>
-      </c>
-      <c r="G228" t="n">
-        <v>2292899.862948771</v>
-      </c>
-      <c r="H228" t="n">
-        <v>3</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="C229" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D229" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="E229" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="F229" t="n">
-        <v>302215.8891</v>
-      </c>
-      <c r="G229" t="n">
-        <v>1990683.973848771</v>
-      </c>
-      <c r="H229" t="n">
-        <v>3</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="C230" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="D230" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="E230" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="F230" t="n">
-        <v>947691.1089</v>
-      </c>
-      <c r="G230" t="n">
-        <v>2938375.082748771</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="C231" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="D231" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="E231" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="F231" t="n">
-        <v>792177.7561999999</v>
-      </c>
-      <c r="G231" t="n">
-        <v>3730552.83894877</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="C232" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="D232" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="E232" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="F232" t="n">
-        <v>501239.3219</v>
-      </c>
-      <c r="G232" t="n">
-        <v>4231792.16084877</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="C233" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="D233" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="E233" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="F233" t="n">
-        <v>26506.676</v>
-      </c>
-      <c r="G233" t="n">
-        <v>4205285.48484877</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="C234" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="D234" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="E234" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="F234" t="n">
-        <v>96686</v>
-      </c>
-      <c r="G234" t="n">
-        <v>4108599.48484877</v>
-      </c>
-      <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>233</v>
-      </c>
-      <c r="B235" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="C235" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="D235" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="E235" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="F235" t="n">
-        <v>29887.6405</v>
-      </c>
-      <c r="G235" t="n">
-        <v>4108599.48484877</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B236" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="C236" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="D236" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="E236" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="F236" t="n">
-        <v>105100.7691</v>
-      </c>
-      <c r="G236" t="n">
-        <v>4213700.25394877</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>235</v>
-      </c>
-      <c r="B237" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="C237" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="D237" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="E237" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="F237" t="n">
-        <v>70167.55079721115</v>
-      </c>
-      <c r="G237" t="n">
-        <v>4143532.703151559</v>
-      </c>
-      <c r="H237" t="n">
-        <v>3</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>236</v>
-      </c>
-      <c r="B238" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="C238" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="D238" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="E238" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="F238" t="n">
-        <v>100</v>
-      </c>
-      <c r="G238" t="n">
-        <v>4143432.703151559</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B239" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="C239" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D239" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="E239" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="F239" t="n">
-        <v>88520.7841</v>
-      </c>
-      <c r="G239" t="n">
-        <v>4054911.91905156</v>
-      </c>
-      <c r="H239" t="n">
-        <v>3</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="B240" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="C240" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D240" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="E240" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="F240" t="n">
-        <v>23817.3019</v>
-      </c>
-      <c r="G240" t="n">
-        <v>4054911.91905156</v>
-      </c>
-      <c r="H240" t="n">
-        <v>3</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B241" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="C241" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="D241" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="E241" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="F241" t="n">
-        <v>148879.3645</v>
-      </c>
-      <c r="G241" t="n">
-        <v>4203791.28355156</v>
-      </c>
-      <c r="H241" t="n">
-        <v>3</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>240</v>
-      </c>
-      <c r="B242" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="C242" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="D242" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="E242" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="F242" t="n">
-        <v>1813133.6733</v>
-      </c>
-      <c r="G242" t="n">
-        <v>6016924.95685156</v>
-      </c>
-      <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>241</v>
-      </c>
-      <c r="B243" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="C243" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="D243" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="E243" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="F243" t="n">
-        <v>647020.1598</v>
-      </c>
-      <c r="G243" t="n">
-        <v>5369904.79705156</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>242</v>
-      </c>
-      <c r="B244" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="C244" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="D244" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="E244" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="F244" t="n">
-        <v>945184.5568</v>
-      </c>
-      <c r="G244" t="n">
-        <v>6315089.353851561</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>243</v>
-      </c>
-      <c r="B245" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="C245" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="D245" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="E245" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="F245" t="n">
-        <v>604.9237000000001</v>
-      </c>
-      <c r="G245" t="n">
-        <v>6314484.43015156</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="B246" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="C246" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="D246" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="E246" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="F246" t="n">
-        <v>321973.4005</v>
-      </c>
-      <c r="G246" t="n">
-        <v>6636457.830651561</v>
-      </c>
-      <c r="H246" t="n">
-        <v>3</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>245</v>
-      </c>
-      <c r="B247" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="C247" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="D247" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="E247" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="F247" t="n">
-        <v>343880.2221</v>
-      </c>
-      <c r="G247" t="n">
-        <v>6980338.052751561</v>
-      </c>
-      <c r="H247" t="n">
-        <v>3</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>246</v>
-      </c>
-      <c r="B248" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="C248" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="D248" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="E248" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="F248" t="n">
-        <v>258666.5732</v>
-      </c>
-      <c r="G248" t="n">
-        <v>6980338.052751561</v>
-      </c>
-      <c r="H248" t="n">
-        <v>3</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
-        <v>247</v>
-      </c>
-      <c r="B249" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="C249" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="D249" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="E249" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="F249" t="n">
-        <v>287225.7937</v>
-      </c>
-      <c r="G249" t="n">
-        <v>6693112.25905156</v>
-      </c>
-      <c r="H249" t="n">
-        <v>3</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
-        <v>248</v>
-      </c>
-      <c r="B250" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="C250" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="D250" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="E250" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="F250" t="n">
-        <v>391290.8387</v>
-      </c>
-      <c r="G250" t="n">
-        <v>6693112.25905156</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="C251" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="D251" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="E251" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="F251" t="n">
-        <v>19000</v>
-      </c>
-      <c r="G251" t="n">
-        <v>6674112.25905156</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="C252" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="D252" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="E252" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="F252" t="n">
-        <v>34558.4248</v>
-      </c>
-      <c r="G252" t="n">
-        <v>6639553.83425156</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="C253" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="D253" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="E253" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="F253" t="n">
-        <v>828187.6605999999</v>
-      </c>
-      <c r="G253" t="n">
-        <v>5811366.17365156</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="C254" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="D254" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="E254" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="F254" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G254" t="n">
-        <v>5812366.17365156</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="C255" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="D255" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="E255" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="F255" t="n">
-        <v>25076.9503</v>
-      </c>
-      <c r="G255" t="n">
-        <v>5812366.17365156</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="C256" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="D256" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="E256" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="F256" t="n">
-        <v>119442.9613</v>
-      </c>
-      <c r="G256" t="n">
-        <v>5812366.17365156</v>
-      </c>
-      <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="C257" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="D257" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="E257" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="F257" t="n">
-        <v>296768.7138</v>
-      </c>
-      <c r="G257" t="n">
-        <v>5515597.45985156</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="C258" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="D258" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="E258" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="F258" t="n">
-        <v>372042</v>
-      </c>
-      <c r="G258" t="n">
-        <v>5887639.45985156</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="C259" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="D259" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="E259" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="F259" t="n">
-        <v>847756.3443</v>
-      </c>
-      <c r="G259" t="n">
-        <v>5887639.45985156</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="C260" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="D260" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="E260" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="F260" t="n">
-        <v>937749.3199</v>
-      </c>
-      <c r="G260" t="n">
-        <v>6825388.77975156</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="C261" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="D261" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="E261" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="F261" t="n">
-        <v>88247.3958</v>
-      </c>
-      <c r="G261" t="n">
-        <v>6913636.17555156</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
@@ -10119,7 +10007,7 @@
         <v>6888396.651051559</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10152,7 +10040,7 @@
         <v>5749731.423851559</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10185,7 +10073,7 @@
         <v>5836474.240051559</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10218,7 +10106,7 @@
         <v>5698033.551557998</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10251,7 +10139,7 @@
         <v>5445869.638557998</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10284,7 +10172,7 @@
         <v>4826623.632957999</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10317,7 +10205,7 @@
         <v>4826623.632957999</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10350,7 +10238,7 @@
         <v>5441007.838757998</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10383,7 +10271,7 @@
         <v>5440907.838757998</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10416,7 +10304,7 @@
         <v>5441107.838757998</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10449,7 +10337,7 @@
         <v>5441107.838757998</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10482,7 +10370,7 @@
         <v>5337145.396757999</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10515,7 +10403,7 @@
         <v>5035507.440657998</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10548,7 +10436,7 @@
         <v>3566287.501357999</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10581,7 +10469,7 @@
         <v>3579156.751757998</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10614,7 +10502,7 @@
         <v>3579156.751757998</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10647,7 +10535,7 @@
         <v>3407050.759457998</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10779,7 +10667,7 @@
         <v>3447067.667757998</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10812,7 +10700,7 @@
         <v>3448081.932857998</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10845,7 +10733,7 @@
         <v>3448081.932857998</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10878,7 +10766,7 @@
         <v>3414807.641257998</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10944,7 +10832,7 @@
         <v>3164033.492557998</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10977,7 +10865,7 @@
         <v>3235474.684057998</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11010,7 +10898,7 @@
         <v>3288459.487657999</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11142,7 +11030,7 @@
         <v>3989001.72737278</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11175,7 +11063,7 @@
         <v>3935599.87067278</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11241,7 +11129,7 @@
         <v>3935599.87067278</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11274,7 +11162,7 @@
         <v>3707972.82257278</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11340,7 +11228,7 @@
         <v>3804661.98057278</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11373,7 +11261,7 @@
         <v>3804661.98057278</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11406,7 +11294,7 @@
         <v>3665148.18597278</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11439,7 +11327,7 @@
         <v>3665148.18597278</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11472,7 +11360,7 @@
         <v>3665148.18597278</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11505,7 +11393,7 @@
         <v>3665148.18597278</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11538,7 +11426,7 @@
         <v>3567523.23857278</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11571,7 +11459,7 @@
         <v>3567658.373772779</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11604,7 +11492,7 @@
         <v>3384543.45587278</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11670,7 +11558,7 @@
         <v>3288557.80237278</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11703,7 +11591,7 @@
         <v>3288693.80237278</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11736,7 +11624,7 @@
         <v>3308886.18367278</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11769,7 +11657,7 @@
         <v>3587235.66357278</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11802,7 +11690,7 @@
         <v>3639647.93267278</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11835,7 +11723,7 @@
         <v>3763787.59697278</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11868,7 +11756,7 @@
         <v>3763787.59697278</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11901,7 +11789,7 @@
         <v>3754342.69977278</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11934,7 +11822,7 @@
         <v>4424888.851720373</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11967,7 +11855,7 @@
         <v>4424888.851720373</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12000,7 +11888,7 @@
         <v>4424888.851720373</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12033,7 +11921,7 @@
         <v>4420171.660820373</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12066,7 +11954,7 @@
         <v>4221538.634720373</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12099,7 +11987,7 @@
         <v>4221738.634720373</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12165,7 +12053,7 @@
         <v>4195894.667220373</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12198,7 +12086,7 @@
         <v>2084925.707220373</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12231,7 +12119,7 @@
         <v>2084925.707220373</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12264,7 +12152,7 @@
         <v>2084925.707220373</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12297,7 +12185,7 @@
         <v>-28113.72327962704</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12429,7 +12317,7 @@
         <v>233043.008220373</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12495,7 +12383,7 @@
         <v>-206862.425879627</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12693,7 +12581,7 @@
         <v>-85082.50657962682</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12726,7 +12614,7 @@
         <v>-85082.50657962682</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12759,7 +12647,7 @@
         <v>-85082.50657962682</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12792,7 +12680,7 @@
         <v>-90178.37527962682</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13023,7 +12911,7 @@
         <v>-239085.7916796269</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13155,7 +13043,7 @@
         <v>-844327.2320796268</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13188,7 +13076,7 @@
         <v>-913598.4664796267</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13221,7 +13109,7 @@
         <v>-908782.8891796267</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -14112,7 +14000,7 @@
         <v>-535507.2553524104</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14145,7 +14033,7 @@
         <v>-546493.3968744398</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14178,7 +14066,7 @@
         <v>-546493.3968744398</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14277,7 +14165,7 @@
         <v>-561060.1574744398</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -15267,7 +15155,7 @@
         <v>-1957983.887174439</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15663,7 +15551,7 @@
         <v>-2140317.884074439</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15696,7 +15584,7 @@
         <v>-2499207.231574439</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15729,7 +15617,7 @@
         <v>-2499207.231574439</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15762,7 +15650,7 @@
         <v>-2499207.231574439</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15795,7 +15683,7 @@
         <v>-2406815.01767444</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15828,7 +15716,7 @@
         <v>-2401014.211274439</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15861,7 +15749,7 @@
         <v>-2434382.211274439</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15927,7 +15815,7 @@
         <v>-2434157.912874439</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -18105,7 +17993,7 @@
         <v>-1755686.537190275</v>
       </c>
       <c r="H504" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18138,7 +18026,7 @@
         <v>-1755686.537190275</v>
       </c>
       <c r="H505" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18204,7 +18092,7 @@
         <v>-48169.54439027444</v>
       </c>
       <c r="H507" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18336,7 +18224,7 @@
         <v>1137028.297209725</v>
       </c>
       <c r="H511" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18831,7 +18719,7 @@
         <v>-163477.3492513134</v>
       </c>
       <c r="H526" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18864,7 +18752,7 @@
         <v>-163477.3492513134</v>
       </c>
       <c r="H527" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18897,7 +18785,7 @@
         <v>-163477.3492513134</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19557,7 +19445,7 @@
         <v>-181051.6279513133</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19590,7 +19478,7 @@
         <v>-181051.6279513133</v>
       </c>
       <c r="H549" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19623,7 +19511,7 @@
         <v>-447006.1581513133</v>
       </c>
       <c r="H550" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19656,7 +19544,7 @@
         <v>-447136.6214513133</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19689,7 +19577,7 @@
         <v>-447201.9809513133</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20613,7 +20501,7 @@
         <v>-496832.8400513132</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -20646,7 +20534,7 @@
         <v>-496442.8400513132</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -20679,7 +20567,7 @@
         <v>-486562.4488513132</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20712,7 +20600,7 @@
         <v>-487388.0409513132</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -20745,7 +20633,7 @@
         <v>-482605.0514513132</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -20778,7 +20666,7 @@
         <v>-645636.8672513132</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -20910,7 +20798,7 @@
         <v>-943714.734451313</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -20943,7 +20831,7 @@
         <v>-935669.2245513131</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -20976,7 +20864,7 @@
         <v>-872427.4845513131</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21009,7 +20897,7 @@
         <v>-828843.4000513131</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21042,7 +20930,7 @@
         <v>-832774.7527513131</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -21075,7 +20963,7 @@
         <v>-828843.4000513131</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21108,7 +20996,7 @@
         <v>-828843.4000513131</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -21141,7 +21029,7 @@
         <v>-752193.4135513131</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -21174,7 +21062,7 @@
         <v>-752193.4135513131</v>
       </c>
       <c r="H597" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -21207,7 +21095,7 @@
         <v>-752193.4135513131</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -21240,7 +21128,7 @@
         <v>-650492.6850513131</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -21273,7 +21161,7 @@
         <v>455394.1592486869</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -21471,7 +21359,7 @@
         <v>3184405.355448687</v>
       </c>
       <c r="H606" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -21504,7 +21392,7 @@
         <v>3184405.355448687</v>
       </c>
       <c r="H607" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -21537,7 +21425,7 @@
         <v>3184405.355448687</v>
       </c>
       <c r="H608" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -21570,7 +21458,7 @@
         <v>3163482.746848687</v>
       </c>
       <c r="H609" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -21603,7 +21491,7 @@
         <v>2934978.652348687</v>
       </c>
       <c r="H610" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -21867,7 +21755,7 @@
         <v>2953888.960448687</v>
       </c>
       <c r="H618" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -21900,7 +21788,7 @@
         <v>2958495.391048687</v>
       </c>
       <c r="H619" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -21933,7 +21821,7 @@
         <v>2935583.023148687</v>
       </c>
       <c r="H620" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -21966,7 +21854,7 @@
         <v>2670583.023148687</v>
       </c>
       <c r="H621" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -21999,7 +21887,7 @@
         <v>2682486.507548687</v>
       </c>
       <c r="H622" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -22032,7 +21920,7 @@
         <v>2677646.633148687</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22065,7 +21953,7 @@
         <v>2673627.501948687</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22098,7 +21986,7 @@
         <v>3480752.095348687</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22131,7 +22019,7 @@
         <v>5689812.195348687</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22164,7 +22052,7 @@
         <v>6106646.055448688</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22197,7 +22085,7 @@
         <v>6006257.957448687</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -22230,7 +22118,7 @@
         <v>6006257.957448687</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -22263,7 +22151,7 @@
         <v>5981745.703048687</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22296,7 +22184,7 @@
         <v>5974505.894548687</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22329,7 +22217,7 @@
         <v>5938507.738448687</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22362,7 +22250,7 @@
         <v>5938507.738448687</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22395,7 +22283,7 @@
         <v>6851972.766248687</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22428,7 +22316,7 @@
         <v>6826284.176048687</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22461,7 +22349,7 @@
         <v>6804989.454048687</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22494,7 +22382,7 @@
         <v>6806258.420148687</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22527,7 +22415,7 @@
         <v>7708469.336748687</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22560,7 +22448,7 @@
         <v>7502990.023648687</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22593,7 +22481,7 @@
         <v>7502990.023648687</v>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22626,7 +22514,7 @@
         <v>7502990.023648687</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22659,7 +22547,7 @@
         <v>7502990.023648687</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22692,7 +22580,7 @@
         <v>7502990.023648687</v>
       </c>
       <c r="H643" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -22725,7 +22613,7 @@
         <v>7144912.830748687</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -22758,7 +22646,7 @@
         <v>7144912.830748687</v>
       </c>
       <c r="H645" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -22791,7 +22679,7 @@
         <v>6995050.095048686</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -22824,7 +22712,7 @@
         <v>7004732.747748687</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -22857,7 +22745,7 @@
         <v>7029685.436448687</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -22890,7 +22778,7 @@
         <v>6118463.475848687</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -22923,7 +22811,7 @@
         <v>6117618.023648687</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -22956,7 +22844,7 @@
         <v>6468384.435948687</v>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -22989,7 +22877,7 @@
         <v>6504563.200248687</v>
       </c>
       <c r="H652" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -23022,7 +22910,7 @@
         <v>6437710.021648686</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -23055,7 +22943,7 @@
         <v>6437800.130148686</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -23088,7 +22976,7 @@
         <v>6176330.633548686</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -23121,7 +23009,7 @@
         <v>6577275.047848687</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -23154,7 +23042,7 @@
         <v>6918657.954548687</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23187,7 +23075,7 @@
         <v>6810906.977548687</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23220,7 +23108,7 @@
         <v>6815636.784948687</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -23253,7 +23141,7 @@
         <v>6727560.825948687</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23286,7 +23174,7 @@
         <v>6679599.142848687</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23319,7 +23207,7 @@
         <v>8414133.359248687</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23352,7 +23240,7 @@
         <v>8414133.359248687</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -23385,7 +23273,7 @@
         <v>8414133.359248687</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -23418,7 +23306,7 @@
         <v>8316352.527548687</v>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -23451,7 +23339,7 @@
         <v>8499143.698948687</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -23517,7 +23405,7 @@
         <v>8436539.163548687</v>
       </c>
       <c r="H668" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -23550,7 +23438,7 @@
         <v>8436539.163548687</v>
       </c>
       <c r="H669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -23649,7 +23537,7 @@
         <v>8423814.539248688</v>
       </c>
       <c r="H672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -23715,7 +23603,7 @@
         <v>8370734.018848688</v>
       </c>
       <c r="H674" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23748,7 +23636,7 @@
         <v>8370734.018848688</v>
       </c>
       <c r="H675" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23781,7 +23669,7 @@
         <v>8370328.018848688</v>
       </c>
       <c r="H676" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -23814,7 +23702,7 @@
         <v>8370328.018848688</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -23847,7 +23735,7 @@
         <v>8370328.018848688</v>
       </c>
       <c r="H678" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -23880,7 +23768,7 @@
         <v>8318268.642348688</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -23913,7 +23801,7 @@
         <v>8323211.590348688</v>
       </c>
       <c r="H680" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -23946,7 +23834,7 @@
         <v>8323281.590348688</v>
       </c>
       <c r="H681" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -23979,7 +23867,7 @@
         <v>8372117.171048688</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -24012,7 +23900,7 @@
         <v>8157590.171048688</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -24023,6 +23911,6 @@
       <c r="M683" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-13 BackTest VET.xlsx
+++ b/BackTest/2019-11-13 BackTest VET.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1606,17 +1606,11 @@
         <v>-3182722.722910807</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1645,17 +1639,11 @@
         <v>-3182722.722910807</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>6.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1684,17 +1672,11 @@
         <v>-3181479.843010807</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>6.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1723,17 +1705,11 @@
         <v>-3199179.543710807</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>6.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1762,17 +1738,11 @@
         <v>-3011266.559110807</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>6.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1801,17 +1771,11 @@
         <v>-3011266.559110807</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1840,17 +1804,11 @@
         <v>-3011266.559110807</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1879,17 +1837,11 @@
         <v>-3011266.559110807</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1918,17 +1870,11 @@
         <v>-3089710.638710807</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1957,17 +1903,11 @@
         <v>-3046453.575310807</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>6.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1996,17 +1936,11 @@
         <v>-3182941.212410807</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>6.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2035,17 +1969,11 @@
         <v>-3222016.039510807</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>6.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2074,17 +2002,11 @@
         <v>-3426498.401610807</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>6.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2113,17 +2035,11 @@
         <v>-3496706.730710807</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>6.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2160,7 +2076,7 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -2503,11 +2419,9 @@
         <v>-2889647.057010808</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>7.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -2542,11 +2456,9 @@
         <v>-2838401.355210808</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>7.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -2581,11 +2493,9 @@
         <v>-2682401.355210808</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>7.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2620,11 +2530,9 @@
         <v>-2682595.382210807</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>7.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
@@ -2659,11 +2567,9 @@
         <v>-2680095.382210807</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>7.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2698,11 +2604,9 @@
         <v>-2682595.382210807</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>7.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -2737,11 +2641,9 @@
         <v>-3018931.877610807</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>7.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
@@ -2776,11 +2678,9 @@
         <v>-3079588.304010808</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>7.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
@@ -2815,11 +2715,9 @@
         <v>-3076588.304010808</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>7.01</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
@@ -2854,11 +2752,9 @@
         <v>-3076588.304010808</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>7.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -2893,11 +2789,9 @@
         <v>-3076588.304010808</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>7.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
@@ -2932,11 +2826,9 @@
         <v>-3076588.304010808</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>7.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
@@ -2971,11 +2863,9 @@
         <v>-3076588.304010808</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>7.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -3047,11 +2937,9 @@
         <v>-3074025.382110808</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>7.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -3086,11 +2974,9 @@
         <v>-3083975.382110808</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>7.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3125,11 +3011,9 @@
         <v>-2259697.973610808</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>7.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -4348,18 +4232,16 @@
         <v>3933332.375356525</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
@@ -4385,15 +4267,11 @@
         <v>3328097.170756525</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4422,15 +4300,11 @@
         <v>3328097.170756525</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4459,15 +4333,11 @@
         <v>3188506.300356525</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4496,15 +4366,11 @@
         <v>3992380.281726138</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4533,15 +4399,11 @@
         <v>5115021.571607664</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4570,15 +4432,11 @@
         <v>3167967.797107664</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4607,15 +4465,11 @@
         <v>4037716.188707664</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4644,15 +4498,11 @@
         <v>2537606.711307663</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4681,15 +4531,11 @@
         <v>2574148.040407664</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4718,15 +4564,11 @@
         <v>2574148.040407664</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4755,15 +4597,11 @@
         <v>2395727.800007664</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4792,15 +4630,11 @@
         <v>2395727.800007664</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4833,11 +4667,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4870,11 +4700,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4907,11 +4733,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4944,11 +4766,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4981,11 +4799,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5018,11 +4832,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5055,11 +4865,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5088,15 +4894,11 @@
         <v>3532736.423702214</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5125,15 +4927,11 @@
         <v>2034415.289502214</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5162,15 +4960,11 @@
         <v>2052850.170202214</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5199,15 +4993,11 @@
         <v>3294528.348502214</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5236,15 +5026,11 @@
         <v>3294528.348502214</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5273,15 +5059,11 @@
         <v>4381317.180302214</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5310,15 +5092,11 @@
         <v>4381317.180302214</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5347,15 +5125,11 @@
         <v>4381317.180302214</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5384,15 +5158,11 @@
         <v>4996331.615002214</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5421,15 +5191,11 @@
         <v>2677855.260202214</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5458,15 +5224,11 @@
         <v>2677855.260202214</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5495,15 +5257,11 @@
         <v>2677855.260202214</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5532,15 +5290,11 @@
         <v>3433969.200402214</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5569,15 +5323,11 @@
         <v>2977920.843502214</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5606,15 +5356,11 @@
         <v>3739705.285302214</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5643,15 +5389,11 @@
         <v>3885927.418602214</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5680,15 +5422,11 @@
         <v>4188318.348402214</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5717,15 +5455,11 @@
         <v>5028579.271702214</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5754,15 +5488,11 @@
         <v>4516344.259718156</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5791,15 +5521,11 @@
         <v>3907169.352418156</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5832,11 +5558,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5865,15 +5587,11 @@
         <v>4048991.988918156</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5906,11 +5624,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5939,15 +5653,11 @@
         <v>4777444.695113912</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5976,15 +5686,11 @@
         <v>6717048.460413912</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6013,15 +5719,11 @@
         <v>3605726.393813912</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6050,15 +5752,11 @@
         <v>2587334.803413912</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6087,15 +5785,11 @@
         <v>2587334.803413912</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6124,15 +5818,11 @@
         <v>3124070.343013912</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6165,11 +5855,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6202,11 +5888,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6239,11 +5921,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6276,11 +5954,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6313,11 +5987,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6350,11 +6020,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6387,11 +6053,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6424,11 +6086,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6461,11 +6119,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6498,11 +6152,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6535,11 +6185,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6572,11 +6218,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6609,11 +6251,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6646,11 +6284,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6683,11 +6317,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6720,11 +6350,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6757,11 +6383,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6794,11 +6416,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6831,11 +6449,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6868,11 +6482,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6905,11 +6515,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6942,11 +6548,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6979,11 +6581,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7016,11 +6614,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7053,11 +6647,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7090,11 +6680,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7127,11 +6713,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7164,11 +6746,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7201,11 +6779,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7238,11 +6812,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7275,11 +6845,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7312,11 +6878,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7349,11 +6911,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7386,11 +6944,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7423,11 +6977,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7460,11 +7010,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7497,11 +7043,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7534,11 +7076,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7571,11 +7109,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7608,11 +7142,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7645,11 +7175,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7682,11 +7208,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7719,11 +7241,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7756,11 +7274,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7793,11 +7307,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7830,11 +7340,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7867,11 +7373,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7904,11 +7406,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7941,11 +7439,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7978,11 +7472,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8015,11 +7505,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8052,11 +7538,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8089,11 +7571,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8126,11 +7604,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8163,11 +7637,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8200,11 +7670,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8237,11 +7703,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8274,11 +7736,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8311,11 +7769,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8348,11 +7802,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8385,11 +7835,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8422,11 +7868,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8459,11 +7901,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8496,11 +7934,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8533,11 +7967,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8570,11 +8000,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8607,11 +8033,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8644,11 +8066,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8681,11 +8099,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8718,11 +8132,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8755,11 +8165,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8792,11 +8198,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8829,11 +8231,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8866,11 +8264,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8903,11 +8297,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8940,11 +8330,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8977,11 +8363,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9014,11 +8396,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9051,11 +8429,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9088,11 +8462,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9125,11 +8495,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9162,11 +8528,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9199,11 +8561,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9236,11 +8594,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9273,11 +8627,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9310,11 +8660,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9347,11 +8693,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9384,11 +8726,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9421,11 +8759,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9458,11 +8792,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9495,11 +8825,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9532,11 +8858,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9569,11 +8891,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9606,11 +8924,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9643,11 +8957,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9680,11 +8990,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9717,11 +9023,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9754,11 +9056,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9791,11 +9089,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9828,11 +9122,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9865,11 +9155,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9902,11 +9188,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9939,11 +9221,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9972,16 +9250,14 @@
         <v>6913636.17555156</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
       <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
@@ -10007,7 +9283,7 @@
         <v>6888396.651051559</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10040,7 +9316,7 @@
         <v>5749731.423851559</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10073,7 +9349,7 @@
         <v>5836474.240051559</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10106,7 +9382,7 @@
         <v>5698033.551557998</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10139,7 +9415,7 @@
         <v>5445869.638557998</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10172,7 +9448,7 @@
         <v>4826623.632957999</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10205,7 +9481,7 @@
         <v>4826623.632957999</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10238,7 +9514,7 @@
         <v>5441007.838757998</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10271,7 +9547,7 @@
         <v>5440907.838757998</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10304,7 +9580,7 @@
         <v>5441107.838757998</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10337,7 +9613,7 @@
         <v>5441107.838757998</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10370,7 +9646,7 @@
         <v>5337145.396757999</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10403,7 +9679,7 @@
         <v>5035507.440657998</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10436,7 +9712,7 @@
         <v>3566287.501357999</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10469,7 +9745,7 @@
         <v>3579156.751757998</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10502,7 +9778,7 @@
         <v>3579156.751757998</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10535,7 +9811,7 @@
         <v>3407050.759457998</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10667,7 +9943,7 @@
         <v>3447067.667757998</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10700,7 +9976,7 @@
         <v>3448081.932857998</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10733,7 +10009,7 @@
         <v>3448081.932857998</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10865,7 +10141,7 @@
         <v>3235474.684057998</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11063,7 +10339,7 @@
         <v>3935599.87067278</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11129,7 +10405,7 @@
         <v>3935599.87067278</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -14660,7 +13936,7 @@
         <v>-1037475.43357444</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14924,7 +14200,7 @@
         <v>-1921504.080774439</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -17696,7 +16972,7 @@
         <v>-3662619.364896391</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17729,7 +17005,7 @@
         <v>-3646847.364896391</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17762,7 +17038,7 @@
         <v>-3414339.982196391</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17795,7 +17071,7 @@
         <v>-3251529.093990274</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17828,7 +17104,7 @@
         <v>-3040422.096690274</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17927,7 +17203,7 @@
         <v>-2607795.697690275</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -19445,7 +18721,7 @@
         <v>-181051.6279513133</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19478,7 +18754,7 @@
         <v>-181051.6279513133</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19511,7 +18787,7 @@
         <v>-447006.1581513133</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19544,7 +18820,7 @@
         <v>-447136.6214513133</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19577,7 +18853,7 @@
         <v>-447201.9809513133</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -21755,7 +21031,7 @@
         <v>2953888.960448687</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -21788,7 +21064,7 @@
         <v>2958495.391048687</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -21821,7 +21097,7 @@
         <v>2935583.023148687</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -21854,7 +21130,7 @@
         <v>2670583.023148687</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -21887,7 +21163,7 @@
         <v>2682486.507548687</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -21920,7 +21196,7 @@
         <v>2677646.633148687</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -21953,7 +21229,7 @@
         <v>2673627.501948687</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21986,7 +21262,7 @@
         <v>3480752.095348687</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22019,7 +21295,7 @@
         <v>5689812.195348687</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22052,7 +21328,7 @@
         <v>6106646.055448688</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22085,7 +21361,7 @@
         <v>6006257.957448687</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -22118,7 +21394,7 @@
         <v>6006257.957448687</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -22151,7 +21427,7 @@
         <v>5981745.703048687</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22184,7 +21460,7 @@
         <v>5974505.894548687</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22217,7 +21493,7 @@
         <v>5938507.738448687</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22250,7 +21526,7 @@
         <v>5938507.738448687</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22283,7 +21559,7 @@
         <v>6851972.766248687</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22316,7 +21592,7 @@
         <v>6826284.176048687</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22349,7 +21625,7 @@
         <v>6804989.454048687</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22382,7 +21658,7 @@
         <v>6806258.420148687</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22415,7 +21691,7 @@
         <v>7708469.336748687</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22448,7 +21724,7 @@
         <v>7502990.023648687</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22481,7 +21757,7 @@
         <v>7502990.023648687</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22514,7 +21790,7 @@
         <v>7502990.023648687</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22547,7 +21823,7 @@
         <v>7502990.023648687</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22580,7 +21856,7 @@
         <v>7502990.023648687</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -22613,7 +21889,7 @@
         <v>7144912.830748687</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -22646,7 +21922,7 @@
         <v>7144912.830748687</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -22679,7 +21955,7 @@
         <v>6995050.095048686</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -22712,7 +21988,7 @@
         <v>7004732.747748687</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -22745,7 +22021,7 @@
         <v>7029685.436448687</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -22778,7 +22054,7 @@
         <v>6118463.475848687</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -22811,7 +22087,7 @@
         <v>6117618.023648687</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -22844,7 +22120,7 @@
         <v>6468384.435948687</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -22877,7 +22153,7 @@
         <v>6504563.200248687</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -22910,7 +22186,7 @@
         <v>6437710.021648686</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -22943,7 +22219,7 @@
         <v>6437800.130148686</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22976,7 +22252,7 @@
         <v>6176330.633548686</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -23009,7 +22285,7 @@
         <v>6577275.047848687</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -23042,7 +22318,7 @@
         <v>6918657.954548687</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23075,7 +22351,7 @@
         <v>6810906.977548687</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23108,7 +22384,7 @@
         <v>6815636.784948687</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -23141,7 +22417,7 @@
         <v>6727560.825948687</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23174,7 +22450,7 @@
         <v>6679599.142848687</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23207,7 +22483,7 @@
         <v>8414133.359248687</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23240,7 +22516,7 @@
         <v>8414133.359248687</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -23273,7 +22549,7 @@
         <v>8414133.359248687</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -23306,7 +22582,7 @@
         <v>8316352.527548687</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -23339,7 +22615,7 @@
         <v>8499143.698948687</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -23405,7 +22681,7 @@
         <v>8436539.163548687</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -23603,7 +22879,7 @@
         <v>8370734.018848688</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23636,7 +22912,7 @@
         <v>8370734.018848688</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23669,7 +22945,7 @@
         <v>8370328.018848688</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -23702,7 +22978,7 @@
         <v>8370328.018848688</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -23735,7 +23011,7 @@
         <v>8370328.018848688</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -23768,7 +23044,7 @@
         <v>8318268.642348688</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -23801,7 +23077,7 @@
         <v>8323211.590348688</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -23834,7 +23110,7 @@
         <v>8323281.590348688</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -23867,7 +23143,7 @@
         <v>8372117.171048688</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -23900,7 +23176,7 @@
         <v>8157590.171048688</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -23911,6 +23187,6 @@
       <c r="M683" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-13 BackTest VET.xlsx
+++ b/BackTest/2019-11-13 BackTest VET.xlsx
@@ -2068,17 +2068,11 @@
         <v>-3762629.202910807</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>6.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2112,12 +2106,10 @@
       <c r="I52" t="n">
         <v>6.92</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2151,10 +2143,12 @@
       <c r="I53" t="n">
         <v>6.92</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>6.92</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -2190,10 +2184,12 @@
       <c r="I54" t="n">
         <v>6.92</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>6.92</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -2229,12 +2225,10 @@
       <c r="I55" t="n">
         <v>6.93</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2268,10 +2262,12 @@
       <c r="I56" t="n">
         <v>7</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>6.93</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -2307,10 +2303,12 @@
       <c r="I57" t="n">
         <v>7.01</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>6.93</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L57" t="n">
@@ -2346,12 +2344,10 @@
       <c r="I58" t="n">
         <v>7.01</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2385,10 +2381,12 @@
       <c r="I59" t="n">
         <v>7</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>7.01</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -2419,13 +2417,17 @@
         <v>-2889647.057010808</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="J60" t="n">
+        <v>7.01</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -2456,15 +2458,15 @@
         <v>-2838401.355210808</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="J61" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2493,13 +2495,17 @@
         <v>-2682401.355210808</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="J62" t="n">
+        <v>7.01</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -2533,10 +2539,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>7.01</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -2571,11 +2579,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2608,11 +2612,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2645,11 +2645,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2682,11 +2678,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2719,11 +2711,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2756,11 +2744,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2793,11 +2777,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2830,11 +2810,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2867,11 +2843,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2904,11 +2876,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2941,11 +2909,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2978,11 +2942,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3015,11 +2975,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3052,11 +3008,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3089,11 +3041,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3126,11 +3074,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3163,11 +3107,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3200,11 +3140,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3237,11 +3173,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3274,11 +3206,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3311,11 +3239,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3348,11 +3272,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3385,11 +3305,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3422,11 +3338,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3459,11 +3371,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3496,11 +3404,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3533,11 +3437,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3570,11 +3470,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3607,11 +3503,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3644,11 +3536,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3681,11 +3569,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3602,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3755,11 +3635,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3792,11 +3668,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3829,11 +3701,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3866,11 +3734,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3903,11 +3767,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3940,11 +3800,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3977,11 +3833,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4014,11 +3866,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4051,11 +3899,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4088,11 +3932,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4125,11 +3965,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4162,11 +3998,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4199,11 +4031,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4232,16 +4060,14 @@
         <v>3933332.375356525</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
       <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
@@ -4267,7 +4093,7 @@
         <v>3328097.170756525</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4300,7 +4126,7 @@
         <v>3328097.170756525</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4333,7 +4159,7 @@
         <v>3188506.300356525</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4366,7 +4192,7 @@
         <v>3992380.281726138</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4399,7 +4225,7 @@
         <v>5115021.571607664</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4432,7 +4258,7 @@
         <v>3167967.797107664</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4465,7 +4291,7 @@
         <v>4037716.188707664</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4498,7 +4324,7 @@
         <v>2537606.711307663</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4531,7 +4357,7 @@
         <v>2574148.040407664</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4564,7 +4390,7 @@
         <v>2574148.040407664</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4597,7 +4423,7 @@
         <v>2395727.800007664</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4630,7 +4456,7 @@
         <v>2395727.800007664</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4894,7 +4720,7 @@
         <v>3532736.423702214</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4927,7 +4753,7 @@
         <v>2034415.289502214</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4960,7 +4786,7 @@
         <v>2052850.170202214</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4993,7 +4819,7 @@
         <v>3294528.348502214</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5026,7 +4852,7 @@
         <v>3294528.348502214</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5059,7 +4885,7 @@
         <v>4381317.180302214</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5092,7 +4918,7 @@
         <v>4381317.180302214</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5125,7 +4951,7 @@
         <v>4381317.180302214</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5158,7 +4984,7 @@
         <v>4996331.615002214</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5191,7 +5017,7 @@
         <v>2677855.260202214</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5224,7 +5050,7 @@
         <v>2677855.260202214</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5257,7 +5083,7 @@
         <v>2677855.260202214</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5290,7 +5116,7 @@
         <v>3433969.200402214</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5323,7 +5149,7 @@
         <v>2977920.843502214</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5356,7 +5182,7 @@
         <v>3739705.285302214</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5389,7 +5215,7 @@
         <v>3885927.418602214</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5422,7 +5248,7 @@
         <v>4188318.348402214</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5455,7 +5281,7 @@
         <v>5028579.271702214</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5488,7 +5314,7 @@
         <v>4516344.259718156</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5521,7 +5347,7 @@
         <v>3907169.352418156</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5587,7 +5413,7 @@
         <v>4048991.988918156</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5653,7 +5479,7 @@
         <v>4777444.695113912</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5686,7 +5512,7 @@
         <v>6717048.460413912</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5719,7 +5545,7 @@
         <v>3605726.393813912</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5752,7 +5578,7 @@
         <v>2587334.803413912</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5785,7 +5611,7 @@
         <v>2587334.803413912</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5818,7 +5644,7 @@
         <v>3124070.343013912</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -8788,7 +8614,7 @@
         <v>6980338.052751561</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8821,7 +8647,7 @@
         <v>6980338.052751561</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8854,7 +8680,7 @@
         <v>6693112.25905156</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8887,7 +8713,7 @@
         <v>6693112.25905156</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8920,7 +8746,7 @@
         <v>6674112.25905156</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8953,7 +8779,7 @@
         <v>6639553.83425156</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8986,7 +8812,7 @@
         <v>5811366.17365156</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9019,7 +8845,7 @@
         <v>5812366.17365156</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9085,7 +8911,7 @@
         <v>5812366.17365156</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9349,7 +9175,7 @@
         <v>5836474.240051559</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -13936,7 +13762,7 @@
         <v>-1037475.43357444</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14200,7 +14026,7 @@
         <v>-1921504.080774439</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -16972,7 +16798,7 @@
         <v>-3662619.364896391</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17005,7 +16831,7 @@
         <v>-3646847.364896391</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17038,7 +16864,7 @@
         <v>-3414339.982196391</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17071,7 +16897,7 @@
         <v>-3251529.093990274</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17104,7 +16930,7 @@
         <v>-3040422.096690274</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17203,7 +17029,7 @@
         <v>-2607795.697690275</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -20536,7 +20362,7 @@
         <v>3251301.513648687</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20569,7 +20395,7 @@
         <v>3251301.513648687</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20602,7 +20428,7 @@
         <v>3184405.355448687</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20635,7 +20461,7 @@
         <v>3184405.355448687</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20668,7 +20494,7 @@
         <v>3184405.355448687</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20701,7 +20527,7 @@
         <v>3184405.355448687</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20734,7 +20560,7 @@
         <v>3163482.746848687</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20767,7 +20593,7 @@
         <v>2934978.652348687</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20800,7 +20626,7 @@
         <v>2935808.422648687</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20833,7 +20659,7 @@
         <v>2940583.457948687</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20866,7 +20692,7 @@
         <v>2940879.305448687</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20899,7 +20725,7 @@
         <v>2965879.305448687</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20932,7 +20758,7 @@
         <v>2965879.305448687</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20965,7 +20791,7 @@
         <v>2965879.305448687</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20998,7 +20824,7 @@
         <v>2958625.881948687</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -21031,7 +20857,7 @@
         <v>2953888.960448687</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -21064,7 +20890,7 @@
         <v>2958495.391048687</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -21097,7 +20923,7 @@
         <v>2935583.023148687</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -21130,7 +20956,7 @@
         <v>2670583.023148687</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -21163,7 +20989,7 @@
         <v>2682486.507548687</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -21196,7 +21022,7 @@
         <v>2677646.633148687</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -21229,7 +21055,7 @@
         <v>2673627.501948687</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21262,7 +21088,7 @@
         <v>3480752.095348687</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21295,7 +21121,7 @@
         <v>5689812.195348687</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21328,7 +21154,7 @@
         <v>6106646.055448688</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21361,7 +21187,7 @@
         <v>6006257.957448687</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21394,7 +21220,7 @@
         <v>6006257.957448687</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21427,7 +21253,7 @@
         <v>5981745.703048687</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21460,7 +21286,7 @@
         <v>5974505.894548687</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21493,7 +21319,7 @@
         <v>5938507.738448687</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21526,7 +21352,7 @@
         <v>5938507.738448687</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21559,7 +21385,7 @@
         <v>6851972.766248687</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21592,7 +21418,7 @@
         <v>6826284.176048687</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21625,7 +21451,7 @@
         <v>6804989.454048687</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21658,7 +21484,7 @@
         <v>6806258.420148687</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21691,7 +21517,7 @@
         <v>7708469.336748687</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21724,7 +21550,7 @@
         <v>7502990.023648687</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21757,7 +21583,7 @@
         <v>7502990.023648687</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21790,7 +21616,7 @@
         <v>7502990.023648687</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21823,7 +21649,7 @@
         <v>7502990.023648687</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21856,7 +21682,7 @@
         <v>7502990.023648687</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -22351,7 +22177,7 @@
         <v>6810906.977548687</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
